--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Svn\SN\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C7560-702B-4C88-AD41-B24329A57DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C8E8B-5CE3-45FF-A9CF-8F79965AD0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" firstSheet="11" activeTab="14" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="7" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="329">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,10 +973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BREAST_R_DRAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PELVIS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,22 +981,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LEG_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEG_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HORN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1009,18 +989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BREAST_L_DRAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼가슴 드래그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른가슴 드래그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TARGET_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1250,73 +1218,139 @@
     <t>더블터치</t>
   </si>
   <si>
+    <t>TOUCH_GESTURE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치 종류 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부등호 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREATER_EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LESS_EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INEQUALITY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DRAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>드래그</t>
-  </si>
-  <si>
-    <t>TOUCH_GESTURE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터치 종류 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부등호 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT_EQUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GREATER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GREATER_EQUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LESS_EQUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INEQUALITY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰다듬기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1881,12 +1915,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1944,12 +1978,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1982,18 +2016,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2018,12 +2052,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2050,68 +2084,68 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B8" s="4">
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2136,12 +2170,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2168,24 +2202,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2196,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2221,12 +2255,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2253,79 +2287,79 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B8" s="4">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B9" s="4">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B10" s="4">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B11" s="4">
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2348,12 +2382,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2380,68 +2414,68 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +3541,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3771,24 +3805,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3799,10 +3833,206 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB81287-38B7-4E4A-86C7-A613F1444486}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3813,23 +4043,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3840,230 +4070,74 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>226</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB81287-38B7-4E4A-86C7-A613F1444486}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+        <v>316</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -4084,6 +4158,11 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Svn\SN\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C8E8B-5CE3-45FF-A9CF-8F79965AD0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0560882-82D8-45BD-ADED-6E9D2D81DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="7" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="7650" yWindow="4035" windowWidth="23625" windowHeight="17160" firstSheet="7" activeTab="11" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="333">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1351,6 +1351,22 @@
   </si>
   <si>
     <t>장난감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1441,13 +1457,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,6 +1494,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2038,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2146,6 +2176,28 @@
       </c>
       <c r="C10" s="4" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="7">
+        <v>106</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="7">
+        <v>107</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3835,8 +3887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0560882-82D8-45BD-ADED-6E9D2D81DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E6137F-2B8D-4F5A-96F0-4B1BFD0BE1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="4035" windowWidth="23625" windowHeight="17160" firstSheet="7" activeTab="11" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="52665" yWindow="2310" windowWidth="23625" windowHeight="17160" firstSheet="3" activeTab="3" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="335">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1367,6 +1367,14 @@
   </si>
   <si>
     <t>방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1408,7 +1416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1430,6 +1438,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,7 +1488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,7 +1510,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2070,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2718,11 +2741,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CC8C9-CF48-4FE8-8453-BB548170FBB0}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2840,729 +2863,740 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2001</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2002</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="12" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3001</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3003</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3004</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>2003</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="9">
         <v>2004</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2006</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>162</v>
+      <c r="A17" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" s="8">
+        <v>9999</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4">
-        <v>2007</v>
+        <v>1001</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B24" s="4">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B25" s="4">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B26" s="4">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="B28" s="4">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" s="4">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B32" s="4">
-        <v>3001</v>
+        <v>2017</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B33" s="4">
-        <v>3002</v>
+        <v>2018</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4">
-        <v>3003</v>
+        <v>2019</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B35" s="4">
-        <v>3004</v>
+        <v>2020</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B36" s="4">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="4">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="4">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="4">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="4">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="4">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" s="4">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B44" s="4">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="B45" s="4">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="4">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="4">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="4">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="4">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="4">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="4">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="4">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="4">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="4">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="4">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="4">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="4">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="4">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="4">
-        <v>4001</v>
+        <v>3027</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="4">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" s="4">
-        <v>5001</v>
+        <v>4002</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="4">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="4">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="4">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="4">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" s="4">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="4">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="4">
-        <v>6001</v>
+        <v>5007</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="4">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="4">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="4">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" s="4">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" s="4">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="4">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="4">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" s="4">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="4">
+        <v>6009</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B78" s="4">
         <v>6010</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>147</v>
       </c>
     </row>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E6137F-2B8D-4F5A-96F0-4B1BFD0BE1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299ED0AF-F382-44B4-BB0C-17F792024384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52665" yWindow="2310" windowWidth="23625" windowHeight="17160" firstSheet="3" activeTab="3" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="4545" yWindow="2415" windowWidth="28800" windowHeight="15435" firstSheet="3" activeTab="3" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -1416,7 +1416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1444,6 +1444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,7 +1494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1520,6 +1526,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2744,8 +2753,8 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2776,7 +2785,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="4">
@@ -2787,7 +2796,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="4">
@@ -2798,7 +2807,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="4">
@@ -2809,7 +2818,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="4">
@@ -2820,7 +2829,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>191</v>
       </c>
       <c r="B8" s="4">
@@ -2831,7 +2840,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B9" s="4">
@@ -2842,7 +2851,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="4">
@@ -2853,7 +2862,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B11" s="4">
@@ -2864,7 +2873,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="9">
@@ -2875,7 +2884,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="9">
@@ -2886,7 +2895,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="9">
@@ -2897,7 +2906,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="9">
@@ -2908,7 +2917,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="9">
@@ -2941,7 +2950,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="4">
@@ -2952,7 +2961,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="4">
@@ -3128,7 +3137,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="4">

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299ED0AF-F382-44B4-BB0C-17F792024384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED4BBA3-2319-4341-8599-393D26E2E8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="2415" windowWidth="28800" windowHeight="15435" firstSheet="3" activeTab="3" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="11" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="339">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1375,6 +1375,22 @@
   </si>
   <si>
     <t>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1454,7 +1470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1477,24 +1493,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1516,19 +1521,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2100,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="A3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2211,25 +2210,47 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>106</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>107</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="9">
+        <v>108</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="9">
+        <v>109</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2752,9 +2773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CC8C9-CF48-4FE8-8453-BB548170FBB0}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2785,7 +2806,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="4">
@@ -2796,7 +2817,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="4">
@@ -2807,7 +2828,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="4">
@@ -2818,7 +2839,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="4">
@@ -2829,7 +2850,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B8" s="4">
@@ -2840,7 +2861,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B9" s="4">
@@ -2851,7 +2872,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="4">
@@ -2862,7 +2883,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B11" s="4">
@@ -2872,69 +2893,69 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="4">
         <v>3001</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>3003</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="4">
         <v>3004</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="4">
         <v>2003</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="4">
         <v>2004</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>9999</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>334</v>
       </c>
     </row>
@@ -2950,7 +2971,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="4">
@@ -2961,7 +2982,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="4">
@@ -3137,7 +3158,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="4">

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED4BBA3-2319-4341-8599-393D26E2E8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C37A8-CCFA-44F9-ABB5-29BCC08B4CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="11" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="4" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
     <sheet name="@position" sheetId="2" r:id="rId2"/>
     <sheet name="@npc" sheetId="3" r:id="rId3"/>
     <sheet name="@target_rule" sheetId="4" r:id="rId4"/>
-    <sheet name="@effect" sheetId="5" r:id="rId5"/>
-    <sheet name="@stat" sheetId="6" r:id="rId6"/>
-    <sheet name="@team_type" sheetId="7" r:id="rId7"/>
-    <sheet name="@touch_body_type" sheetId="9" r:id="rId8"/>
-    <sheet name="@touch_gesture_type" sheetId="16" r:id="rId9"/>
-    <sheet name="@target_type" sheetId="10" r:id="rId10"/>
-    <sheet name="@onetime_effect_type" sheetId="11" r:id="rId11"/>
-    <sheet name="@duration_effect_type" sheetId="12" r:id="rId12"/>
-    <sheet name="@persistence_type" sheetId="13" r:id="rId13"/>
-    <sheet name="@projectile_type" sheetId="14" r:id="rId14"/>
-    <sheet name="@inequality_type" sheetId="18" r:id="rId15"/>
+    <sheet name="@second_target_rule" sheetId="19" r:id="rId5"/>
+    <sheet name="@effect" sheetId="5" r:id="rId6"/>
+    <sheet name="@stat" sheetId="6" r:id="rId7"/>
+    <sheet name="@team_type" sheetId="7" r:id="rId8"/>
+    <sheet name="@touch_body_type" sheetId="9" r:id="rId9"/>
+    <sheet name="@touch_gesture_type" sheetId="16" r:id="rId10"/>
+    <sheet name="@target_type" sheetId="10" r:id="rId11"/>
+    <sheet name="@onetime_effect_type" sheetId="11" r:id="rId12"/>
+    <sheet name="@duration_effect_type" sheetId="12" r:id="rId13"/>
+    <sheet name="@persistence_type" sheetId="13" r:id="rId14"/>
+    <sheet name="@projectile_type" sheetId="14" r:id="rId15"/>
+    <sheet name="@inequality_type" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="345">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1391,6 +1392,31 @@
   </si>
   <si>
     <t>방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECOND_TARGET_RULE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 타겟룰 타입
+처음 타겟팅 할때가 아닌, 이펙트 등이 타겟에 도달했을 때 추가적으로 타겟팅 해야할 경우에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AROUND_SPLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_SPLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1499,7 +1525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,9 +1551,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1962,6 +1985,149 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB81287-38B7-4E4A-86C7-A613F1444486}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59593AD8-553C-47D4-B402-37593D383634}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2023,7 +2189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201F026-80B2-4F4C-855C-FF8AD557BCE3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2097,12 +2263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="A3:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2232,24 +2398,24 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>108</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="4">
         <v>109</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2259,7 +2425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7275B3A-402E-463A-AAC9-1AACFCF8908E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2344,7 +2510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BA9FE-5AA8-4EF6-AC09-35EB34A6EAAF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2473,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2775,7 +2941,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3637,6 +3803,80 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE615E54-8F67-4902-9A65-716886E7F4AB}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10681F31-703E-4206-AE6B-E506CF1573A3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3721,7 +3961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F8F7E-7298-47B3-9FA4-ABE1EAA46F31}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3884,7 +4124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C171E0-C40B-4137-927A-EEAA6BBE3C3E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3947,7 +4187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -4141,147 +4381,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB81287-38B7-4E4A-86C7-A613F1444486}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C37A8-CCFA-44F9-ABB5-29BCC08B4CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78124E67-9ACF-4041-904E-02644836CFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="4" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="4" activeTab="16" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="@persistence_type" sheetId="13" r:id="rId14"/>
     <sheet name="@projectile_type" sheetId="14" r:id="rId15"/>
     <sheet name="@inequality_type" sheetId="18" r:id="rId16"/>
+    <sheet name="@skill_type" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="355">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1419,12 +1420,52 @@
     <t>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKII TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 공격 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 공격 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,6 +1493,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1525,7 +1574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1551,6 +1600,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2755,6 +2807,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD2501C-98E8-450C-A0D5-D729ECE808B3}">
   <dimension ref="A1:C7"/>
@@ -3806,7 +3954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE615E54-8F67-4902-9A65-716886E7F4AB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78124E67-9ACF-4041-904E-02644836CFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D0EEF4-8790-48EF-AB8F-D49EEFE73539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="4" activeTab="16" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="5" activeTab="17" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="@projectile_type" sheetId="14" r:id="rId15"/>
     <sheet name="@inequality_type" sheetId="18" r:id="rId16"/>
     <sheet name="@skill_type" sheetId="20" r:id="rId17"/>
+    <sheet name="@item_type" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="377">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1458,6 +1459,94 @@
   </si>
   <si>
     <t>궁극기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템의 종류 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금화(게임내 사용되는 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석(게임내 사용되는 유료 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_TICKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER_PIECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMORIAL_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리얼에서 사용될 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 완전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 소모용 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPENDABLE_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA_POTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1574,7 +1663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1603,6 +1692,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2811,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2895,6 +2987,169 @@
       </c>
       <c r="C8" s="4" t="s">
         <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="10">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" s="10">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D0EEF4-8790-48EF-AB8F-D49EEFE73539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BAF775-B1AC-43F8-9086-43276287DE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="5" activeTab="17" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="1" activeTab="3" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="385">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1547,6 +1547,38 @@
   </si>
   <si>
     <t>STA_POTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEAREST_ADD_BACK_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FURTHEST_ADD_FRONT_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEAREST_ADD_ARROUND_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FURTHEST_ADD_ARROUND_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,7 +1695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1692,9 +1724,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2999,7 +3028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3015,7 +3044,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>356</v>
       </c>
@@ -3131,24 +3160,24 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="4" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3340,17 +3369,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CC8C9-CF48-4FE8-8453-BB548170FBB0}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3464,738 +3493,782 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="B12" s="4">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>378</v>
       </c>
       <c r="B13" s="4">
-        <v>3003</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>112</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="B14" s="4">
-        <v>3004</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>113</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="B15" s="4">
-        <v>2003</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>103</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B16" s="4">
-        <v>2004</v>
+        <v>3001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B17" s="7">
-        <v>9999</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>334</v>
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3003</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
+      <c r="A18" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B18" s="4">
-        <v>1001</v>
+        <v>3004</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2006</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>162</v>
+      <c r="A21" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="7">
+        <v>9999</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4">
-        <v>2007</v>
+        <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>148</v>
+      <c r="A23" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="4">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>150</v>
+      <c r="A24" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B24" s="4">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B26" s="4">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B27" s="4">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B28" s="4">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B29" s="4">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B30" s="4">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="B31" s="4">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="B32" s="4">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B33" s="4">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B34" s="4">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B35" s="4">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>57</v>
+      <c r="A36" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B36" s="4">
-        <v>3002</v>
+        <v>2017</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B37" s="4">
-        <v>3005</v>
+        <v>2018</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B38" s="4">
-        <v>3006</v>
+        <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B39" s="4">
-        <v>3007</v>
+        <v>2020</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>164</v>
+      <c r="A40" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B40" s="4">
-        <v>3008</v>
+        <v>3002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B41" s="4">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="B42" s="4">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B43" s="4">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B44" s="4">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B45" s="4">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="B46" s="4">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="B47" s="4">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="B48" s="4">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="B49" s="4">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" s="4">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" s="4">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" s="4">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" s="4">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" s="4">
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" s="4">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" s="4">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" s="4">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" s="4">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" s="4">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" s="4">
-        <v>4001</v>
+        <v>3024</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B61" s="4">
-        <v>4002</v>
+        <v>3025</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62" s="4">
-        <v>5001</v>
+        <v>3026</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B63" s="4">
-        <v>5002</v>
+        <v>3027</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B64" s="4">
-        <v>5003</v>
+        <v>4001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B65" s="4">
-        <v>5004</v>
+        <v>4002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B66" s="4">
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B67" s="4">
-        <v>5006</v>
+        <v>5002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B68" s="4">
-        <v>5007</v>
+        <v>5003</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B69" s="4">
-        <v>6001</v>
+        <v>5004</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B70" s="4">
-        <v>6002</v>
+        <v>5005</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B71" s="4">
-        <v>6003</v>
+        <v>5006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B72" s="4">
-        <v>6004</v>
+        <v>5007</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B73" s="4">
-        <v>6005</v>
+        <v>6001</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B74" s="4">
-        <v>6006</v>
+        <v>6002</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B75" s="4">
-        <v>6007</v>
+        <v>6003</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B76" s="4">
-        <v>6008</v>
+        <v>6004</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B77" s="4">
-        <v>6009</v>
+        <v>6005</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="4">
+        <v>6006</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="4">
+        <v>6007</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="4">
+        <v>6008</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="4">
+        <v>6009</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B82" s="4">
         <v>6010</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>147</v>
       </c>
     </row>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,29 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BAF775-B1AC-43F8-9086-43276287DE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897CCAB-F27B-4CAF-83A9-1493F749B73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="1" activeTab="3" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="43890" yWindow="3075" windowWidth="28800" windowHeight="15435" tabRatio="717" activeTab="2" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
     <sheet name="@position" sheetId="2" r:id="rId2"/>
-    <sheet name="@npc" sheetId="3" r:id="rId3"/>
-    <sheet name="@target_rule" sheetId="4" r:id="rId4"/>
-    <sheet name="@second_target_rule" sheetId="19" r:id="rId5"/>
-    <sheet name="@effect" sheetId="5" r:id="rId6"/>
-    <sheet name="@stat" sheetId="6" r:id="rId7"/>
-    <sheet name="@team_type" sheetId="7" r:id="rId8"/>
-    <sheet name="@touch_body_type" sheetId="9" r:id="rId9"/>
-    <sheet name="@touch_gesture_type" sheetId="16" r:id="rId10"/>
-    <sheet name="@target_type" sheetId="10" r:id="rId11"/>
-    <sheet name="@onetime_effect_type" sheetId="11" r:id="rId12"/>
-    <sheet name="@duration_effect_type" sheetId="12" r:id="rId13"/>
-    <sheet name="@persistence_type" sheetId="13" r:id="rId14"/>
-    <sheet name="@projectile_type" sheetId="14" r:id="rId15"/>
-    <sheet name="@inequality_type" sheetId="18" r:id="rId16"/>
-    <sheet name="@skill_type" sheetId="20" r:id="rId17"/>
-    <sheet name="@item_type" sheetId="21" r:id="rId18"/>
+    <sheet name="@role" sheetId="24" r:id="rId3"/>
+    <sheet name="@npc" sheetId="3" r:id="rId4"/>
+    <sheet name="@target_rule" sheetId="4" r:id="rId5"/>
+    <sheet name="@character_sort" sheetId="22" r:id="rId6"/>
+    <sheet name="@stage_common" sheetId="23" r:id="rId7"/>
+    <sheet name="@second_target_rule" sheetId="19" r:id="rId8"/>
+    <sheet name="@effect" sheetId="5" r:id="rId9"/>
+    <sheet name="@stat" sheetId="6" r:id="rId10"/>
+    <sheet name="@team_type" sheetId="7" r:id="rId11"/>
+    <sheet name="@touch_body_type" sheetId="9" r:id="rId12"/>
+    <sheet name="@touch_gesture_type" sheetId="16" r:id="rId13"/>
+    <sheet name="@target_type" sheetId="10" r:id="rId14"/>
+    <sheet name="@onetime_effect_type" sheetId="11" r:id="rId15"/>
+    <sheet name="@duration_effect_type" sheetId="12" r:id="rId16"/>
+    <sheet name="@persistence_type" sheetId="13" r:id="rId17"/>
+    <sheet name="@projectile_type" sheetId="14" r:id="rId18"/>
+    <sheet name="@inequality_type" sheetId="18" r:id="rId19"/>
+    <sheet name="@skill_type" sheetId="20" r:id="rId20"/>
+    <sheet name="@item_type" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="422">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1579,6 +1582,154 @@
   </si>
   <si>
     <t>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKEABILITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 스킬 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX_SKILL_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인연 랭크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESTINY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL_CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 정렬 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Common_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 공통 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 달성률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 웨이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TANKER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할군 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEARLER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPORTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEALER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2158,6 +2309,428 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F8F7E-7298-47B3-9FA4-ABE1EAA46F31}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="4">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="4">
+        <v>200</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="4">
+        <v>300</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="4">
+        <v>400</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="4">
+        <v>500</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="4">
+        <v>600</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="4">
+        <v>700</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="4">
+        <v>800</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="4">
+        <v>900</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C171E0-C40B-4137-927A-EEAA6BBE3C3E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB81287-38B7-4E4A-86C7-A613F1444486}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2300,7 +2873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59593AD8-553C-47D4-B402-37593D383634}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2362,7 +2935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201F026-80B2-4F4C-855C-FF8AD557BCE3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2436,7 +3009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -2598,7 +3171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7275B3A-402E-463A-AAC9-1AACFCF8908E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2683,7 +3256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BA9FE-5AA8-4EF6-AC09-35EB34A6EAAF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2812,7 +3385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2920,265 +3493,6 @@
       </c>
       <c r="C10" s="4" t="s">
         <v>309</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3585,361 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B40BC4-9805-4623-B57A-B0D8848D1C3A}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B01A14-0830-4F92-A96E-DF57C990B411}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3367,11 +4035,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CC8C9-CF48-4FE8-8453-BB548170FBB0}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
@@ -4278,7 +4946,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A195FB4-48B4-48D4-971F-8F95C9120D92}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAF7AB3-67B3-4800-B261-1FA878E7669B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE615E54-8F67-4902-9A65-716886E7F4AB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4352,7 +5234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10681F31-703E-4206-AE6B-E506CF1573A3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4435,426 +5317,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F8F7E-7298-47B3-9FA4-ABE1EAA46F31}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="4">
-        <v>100</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="4">
-        <v>101</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="4">
-        <v>200</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="4">
-        <v>300</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="4">
-        <v>400</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="4">
-        <v>500</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="4">
-        <v>600</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="4">
-        <v>700</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="4">
-        <v>800</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="4">
-        <v>900</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C171E0-C40B-4137-927A-EEAA6BBE3C3E}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" s="4">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="4">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897CCAB-F27B-4CAF-83A9-1493F749B73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0C1227-135A-4215-A79A-19C1C324629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43890" yWindow="3075" windowWidth="28800" windowHeight="15435" tabRatio="717" activeTab="2" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="6075" yWindow="2235" windowWidth="21150" windowHeight="18420" tabRatio="717" firstSheet="15" activeTab="20" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="424">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1730,6 +1730,14 @@
   </si>
   <si>
     <t>HEALER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAVORITE_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3683,10 +3691,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3838,6 +3846,17 @@
         <v>374</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3848,7 +3867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B40BC4-9805-4623-B57A-B0D8848D1C3A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0C1227-135A-4215-A79A-19C1C324629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736EC64-CA09-44BA-8C67-FDF096104C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="2235" windowWidth="21150" windowHeight="18420" tabRatio="717" firstSheet="15" activeTab="20" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="45375" yWindow="1500" windowWidth="23460" windowHeight="18420" tabRatio="717" firstSheet="15" activeTab="20" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="426">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1738,6 +1738,14 @@
   </si>
   <si>
     <t>호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAMINA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태미나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1825,7 +1833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1848,13 +1856,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1883,6 +1904,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3691,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3855,6 +3879,17 @@
       </c>
       <c r="C15" s="4" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="10">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736EC64-CA09-44BA-8C67-FDF096104C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85646E87-5C59-49A2-9161-935753BD8B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45375" yWindow="1500" windowWidth="23460" windowHeight="18420" tabRatio="717" firstSheet="15" activeTab="20" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="41310" yWindow="2310" windowWidth="23460" windowHeight="18420" tabRatio="717" activeTab="1" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
-    <sheet name="@position" sheetId="2" r:id="rId2"/>
-    <sheet name="@role" sheetId="24" r:id="rId3"/>
-    <sheet name="@npc" sheetId="3" r:id="rId4"/>
-    <sheet name="@target_rule" sheetId="4" r:id="rId5"/>
-    <sheet name="@character_sort" sheetId="22" r:id="rId6"/>
-    <sheet name="@stage_common" sheetId="23" r:id="rId7"/>
-    <sheet name="@second_target_rule" sheetId="19" r:id="rId8"/>
-    <sheet name="@effect" sheetId="5" r:id="rId9"/>
-    <sheet name="@stat" sheetId="6" r:id="rId10"/>
-    <sheet name="@team_type" sheetId="7" r:id="rId11"/>
-    <sheet name="@touch_body_type" sheetId="9" r:id="rId12"/>
-    <sheet name="@touch_gesture_type" sheetId="16" r:id="rId13"/>
-    <sheet name="@target_type" sheetId="10" r:id="rId14"/>
-    <sheet name="@onetime_effect_type" sheetId="11" r:id="rId15"/>
-    <sheet name="@duration_effect_type" sheetId="12" r:id="rId16"/>
-    <sheet name="@persistence_type" sheetId="13" r:id="rId17"/>
-    <sheet name="@projectile_type" sheetId="14" r:id="rId18"/>
-    <sheet name="@inequality_type" sheetId="18" r:id="rId19"/>
-    <sheet name="@skill_type" sheetId="20" r:id="rId20"/>
-    <sheet name="@item_type" sheetId="21" r:id="rId21"/>
+    <sheet name="@stage" sheetId="25" r:id="rId2"/>
+    <sheet name="@position" sheetId="2" r:id="rId3"/>
+    <sheet name="@role" sheetId="24" r:id="rId4"/>
+    <sheet name="@npc" sheetId="3" r:id="rId5"/>
+    <sheet name="@target_rule" sheetId="4" r:id="rId6"/>
+    <sheet name="@character_sort" sheetId="22" r:id="rId7"/>
+    <sheet name="@stage_common" sheetId="23" r:id="rId8"/>
+    <sheet name="@second_target_rule" sheetId="19" r:id="rId9"/>
+    <sheet name="@effect" sheetId="5" r:id="rId10"/>
+    <sheet name="@stat" sheetId="6" r:id="rId11"/>
+    <sheet name="@team_type" sheetId="7" r:id="rId12"/>
+    <sheet name="@touch_body_type" sheetId="9" r:id="rId13"/>
+    <sheet name="@touch_gesture_type" sheetId="16" r:id="rId14"/>
+    <sheet name="@target_type" sheetId="10" r:id="rId15"/>
+    <sheet name="@onetime_effect_type" sheetId="11" r:id="rId16"/>
+    <sheet name="@duration_effect_type" sheetId="12" r:id="rId17"/>
+    <sheet name="@persistence_type" sheetId="13" r:id="rId18"/>
+    <sheet name="@projectile_type" sheetId="14" r:id="rId19"/>
+    <sheet name="@inequality_type" sheetId="18" r:id="rId20"/>
+    <sheet name="@skill_type" sheetId="20" r:id="rId21"/>
+    <sheet name="@item_type" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="434">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1746,6 +1747,38 @@
   </si>
   <si>
     <t>스태미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERYHARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_DIFFICULTY_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,7 +1939,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2226,7 +2259,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2341,6 +2374,91 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10681F31-703E-4206-AE6B-E506CF1573A3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F8F7E-7298-47B3-9FA4-ABE1EAA46F31}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -2503,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C171E0-C40B-4137-927A-EEAA6BBE3C3E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2566,7 +2684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2762,7 +2880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB81287-38B7-4E4A-86C7-A613F1444486}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2905,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59593AD8-553C-47D4-B402-37593D383634}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2967,7 +3085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201F026-80B2-4F4C-855C-FF8AD557BCE3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3041,7 +3159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3203,7 +3321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7275B3A-402E-463A-AAC9-1AACFCF8908E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3288,7 +3406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BA9FE-5AA8-4EF6-AC09-35EB34A6EAAF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -3417,7 +3535,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D4BA99-0A21-40CA-975A-98FF2D60D497}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3533,91 +3737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD2501C-98E8-450C-A0D5-D729ECE808B3}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3713,12 +3833,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3899,11 +4019,93 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD2501C-98E8-450C-A0D5-D729ECE808B3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B40BC4-9805-4623-B57A-B0D8848D1C3A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3993,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B01A14-0830-4F92-A96E-DF57C990B411}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -4089,7 +4291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CC8C9-CF48-4FE8-8453-BB548170FBB0}">
   <dimension ref="A1:C82"/>
   <sheetViews>
@@ -5000,7 +5202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A195FB4-48B4-48D4-971F-8F95C9120D92}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -5152,7 +5354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAF7AB3-67B3-4800-B261-1FA878E7669B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -5214,7 +5416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE615E54-8F67-4902-9A65-716886E7F4AB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5286,89 +5488,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10681F31-703E-4206-AE6B-E506CF1573A3}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85646E87-5C59-49A2-9161-935753BD8B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192FCBB7-B222-4940-A03C-07809DF04D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41310" yWindow="2310" windowWidth="23460" windowHeight="18420" tabRatio="717" activeTab="1" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="1" activeTab="1" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="433">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1754,18 +1754,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HARD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VERYHARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노말</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1779,6 +1771,10 @@
   </si>
   <si>
     <t>STAGE_DIFFICULTY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERY_HARD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3540,7 +3536,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3552,10 +3548,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>426</v>
       </c>
@@ -3584,35 +3580,35 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>427</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3834,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192FCBB7-B222-4940-A03C-07809DF04D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A77FDE-1345-4200-8B58-E5205645335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="1" activeTab="1" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="14940" yWindow="210" windowWidth="22305" windowHeight="17445" tabRatio="717" firstSheet="16" activeTab="21" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -107,30 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인간종족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수인족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안드로이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POSITION_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,18 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전열 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중열 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후열 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">npc 타입 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,22 +148,6 @@
   </si>
   <si>
     <t>BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우호 NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리트 몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 몬스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -387,201 +335,10 @@
     <t>GAIN_DEBUFF_DURATION_ACCURACY_DEC</t>
   </si>
   <si>
-    <t>임의 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 아군 전체 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리더 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 많은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력 비율이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 체력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 체력 비율이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 공격력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 방어력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 공속이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력 비율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도게이지가 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명중률이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 공격력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 방어력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 공속이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 명중률이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 회피율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</t>
-  </si>
-  <si>
-    <t>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</t>
-  </si>
-  <si>
-    <t>자신을 포함한 공격력이 가장 낮은 타겟 선택</t>
-  </si>
-  <si>
-    <t>자신을 포함한 방어력이 가장 낮은 타겟 선택</t>
-  </si>
-  <si>
-    <t>자신을 포함한 공속이 가장 낮은 타겟 선택</t>
-  </si>
-  <si>
-    <t>자신을 포함한 명중률이 가장 낮은 타겟 선택</t>
-  </si>
-  <si>
-    <t>자신을 포함한 회피율이 가장 낮은 타겟 선택</t>
-  </si>
-  <si>
-    <t>버프 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 효과 중 공속 증가 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과 중 화상 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과 중 출혈 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과 중 중독 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과 중 수면 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과 중 치명상 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
-    <t>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</t>
-  </si>
-  <si>
     <t>HIGHEST_LIFE_VALUE_HUMAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남은 체력이 가장 높은 인간 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HIGHEST_LIFE_VALUE_ELF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,28 +359,790 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남은 체력이 가장 높은 엘프 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 높은 수인 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 높은 안드로이드 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 높은 악마 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 높은 천사 선택</t>
+    <t>LOWEST_LIFE_VALUE_HUMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOWEST_LIFE_VALUE_ELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOWEST_LIFE_VALUE_WEREBEAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOWEST_LIFE_VALUE_ANDROID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOWEST_LIFE_VALUE_DEVIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOWEST_LIFE_VALUE_ANGEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEAREST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FURTHEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT_DAMAGE_REDUCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_RECOVERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLY_WITHOUT_ME_FURTHEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLY_WITHOUT_ME_NEAREST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL_RATE</t>
+  </si>
+  <si>
+    <t>CRITICAL_POWER</t>
+  </si>
+  <si>
+    <t>ACCURACY</t>
+  </si>
+  <si>
+    <t>EVASION</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFENSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_LIFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_MULTIPLE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯 멀티플 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEAM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MY_TEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENEMY_TEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOUCH_BODY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신체 터치 부위 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PELVIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HORN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 팀 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONETIME_EFFECT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일회성 효과 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DURATION_EFFECT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIFE_RECOVERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE_REDUCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속성 방식 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속성 효과 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HITTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSISTENCE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과 타입 (사용하지 않을 예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THROW_FOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THROW_BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THROW_HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECTILE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTANT_TARGET_FOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTANT_TARGET_BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTANT_TARGET_HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POISON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_ROUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SILENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREEZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>TOUCH</t>
+  </si>
+  <si>
+    <t>DOUBLE_TOUCH</t>
+  </si>
+  <si>
+    <t>TOUCH_GESTURE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치 종류 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부등호 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREATER_EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LESS_EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INEQUALITY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECOND_TARGET_RULE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 타겟룰 타입
+처음 타겟팅 할때가 아닌, 이펙트 등이 타겟에 도달했을 때 추가적으로 타겟팅 해야할 경우에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AROUND_SPLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_SPLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKII TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템의 종류 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUNGEON_TICKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER_PIECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMORIAL_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPENDABLE_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA_POTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEAREST_ADD_BACK_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FURTHEST_ADD_FRONT_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEAREST_ADD_ARROUND_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FURTHEST_ADD_ARROUND_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKEABILITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX_SKILL_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESTINY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL_CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 정렬 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Common_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 공통 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 달성률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 웨이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TANKER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할군 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEARLER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPORTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEALER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAVORITE_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAMINA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_DIFFICULTY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERY_HARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 인간종족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 엘프족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 수인족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 안드로이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 악마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 천사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 매우 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 전열 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 중열 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 후열 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 서포터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 힐러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 우호 NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 일반 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 엘리트 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 보스 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 임의 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 자신 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 전체 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 자신을 제외한 아군 전체 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 자신을 제외한 가장 가까운 아군 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 자신을 제외한 가장 먼 아군 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001 남은 체력이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003 공격력이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3004 방어력이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003 공격력이 가장 높은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004 방어력이 가장 높은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 리더 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001 남은 체력이 가장 많은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002 남은 체력 비율이 가장 높은 타겟 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">자신을 제외한 회피율이 가장 높은 타겟 선택 </t>
+      <t xml:space="preserve">2006 명중률이 가장 높은 타겟 선택 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(명중률 속성이 있다면)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2007 회피율이 가장 높은 타겟 선택 </t>
     </r>
     <r>
       <rPr>
@@ -639,8 +1158,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2008 남은 체력이 가장 높은 인간 종족 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009 남은 체력이 가장 높은 엘프 종족 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010 남은 체력이 가장 높은 수인 종족 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011 남은 체력이 가장 높은 안드로이드 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012 남은 체력이 가장 높은 악마 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013 남은 체력이 가장 높은 천사 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014 자신을 제외한 체력이 가장 높은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 자신을 제외한 체력 비율이 가장 높은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016 자신을 제외한 공격력이 가장 높은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 자신을 제외한 방어력이 가장 높은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 자신을 제외한 공속이 가장 높은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">자신을 제외한 명중률이 가장 높은 타겟 선택 </t>
+      <t xml:space="preserve">2019 자신을 제외한 명중률이 가장 높은 타겟 선택 </t>
     </r>
     <r>
       <rPr>
@@ -657,24 +1220,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">명중률이 가장 높은 타겟 선택 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(명중률 속성이 있다면)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">회피율이 가장 높은 타겟 선택 </t>
+      <t xml:space="preserve">2020 자신을 제외한 회피율이 가장 높은 타겟 선택 </t>
     </r>
     <r>
       <rPr>
@@ -690,56 +1236,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOWEST_LIFE_VALUE_HUMAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_ELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_WEREBEAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_ANDROID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_DEVIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_ANGEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 낮은 인간 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 낮은 수인 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 낮은 엘프 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 낮은 안드로이드 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 낮은 악마 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 체력이 가장 낮은 천사 종족 선택</t>
+    <t>3002 남은 체력 비율이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3005 속도게이지가 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3006 명중률이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3007 회피율이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008 남은 체력이 가장 낮은 인간 종족 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3009 남은 체력이 가장 낮은 엘프 종족 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3010 남은 체력이 가장 낮은 수인 종족 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3011 남은 체력이 가장 낮은 안드로이드 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3012 남은 체력이 가장 낮은 악마 종족 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3013 남은 체력이 가장 낮은 천사 종족 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3014 자신을 제외한 남은 체력이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3015 자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3016 자신을 제외한 공격력이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3017 자신을 제외한 방어력이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3018 자신을 제외한 공속이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3019 자신을 제외한 명중률이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3020 자신을 제외한 회피율이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3021 자신을 포함한 남은 체력이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3022 자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3023 자신을 포함한 공격력이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3024 자신을 포함한 방어력이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3025 자신을 포함한 공속이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3026 자신을 포함한 명중률이 가장 낮은 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3027 자신을 포함한 회피율이 가장 낮은 타겟 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">자신보다 약한 속성 타겟 선택 </t>
+      <t xml:space="preserve">4001 자신보다 약한 속성 타겟 선택 </t>
     </r>
     <r>
       <rPr>
@@ -756,7 +1350,7 @@
   </si>
   <si>
     <r>
-      <t>자신보다 강한 속성 타겟 선택</t>
+      <t>4002 자신보다 강한 속성 타겟 선택</t>
     </r>
     <r>
       <rPr>
@@ -772,1009 +1366,440 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NEAREST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FURTHEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFFECT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEXT_DAMAGE_REDUCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP_RECOVERY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 만큼 현재 체력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 피해의 데미지를 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상의 현재 HP를 회복. 
+    <t>5001 버프 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5002 버프 효과 중 공격력 증가 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5003 버프 효과 중 방어력 증가 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004 버프 효과 중 공속 증가 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5005 버프 효과 중 회피율 증가 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5006 버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5007 버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001 디버프 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6002 디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6003 디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6004 디버프 효과 중 화상 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6005 디버프 효과 중 출혈 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6006 디버프 효과 중 중독 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6007 디버프 효과 중 공속 감소 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6008 디버프 효과 중 수면 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6009 디버프 효과 중 치명상 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 캐릭터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 캐릭터 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 성급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 인연 랭크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 스킬 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 궁극기 스킬 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 호감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 다음 피해의 데미지를 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 대미지 만큼 현재 체력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 대상의 현재 HP를 회복. 
 MAX HP를 초과할 수 없다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALLY_WITHOUT_ME_FURTHEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALLY_WITHOUT_ME_NEAREST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 가장 가까운 아군 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신을 제외한 가장 먼 아군 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRITICAL_RATE</t>
-  </si>
-  <si>
-    <t>CRITICAL_POWER</t>
-  </si>
-  <si>
-    <t>ACCURACY</t>
-  </si>
-  <si>
-    <t>EVASION</t>
-  </si>
-  <si>
-    <t>ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFENSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX_LIFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 체력을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 체력을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 확률을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 파워를 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명중률을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_MULTIPLE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탯 멀티플 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEAM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MY_TEAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENEMY_TEAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACK_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력을 기준으로 절대값 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력을 기준으로 배율 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOUCH_BODY_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신체 터치 부위 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BODY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PELVIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HORN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뿔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TARGET_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 팀 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 팀(아군)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른쪽 팀(적군)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONETIME_EFFECT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일회성 효과 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DURATION_EFFECT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIFE_RECOVERY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAMAGE_REDUCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데미지를 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속성 방식 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속성 효과 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HITTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERSISTENCE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 횟수 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 횟수 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과 타입 (사용하지 않을 예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THROW_FOOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THROW_BODY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THROW_HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체를 타겟의 발 밑에 던진다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체를 타겟의 몸에 던진다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체를 타겟의 머리에 던진다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECTILE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟의 발 밑에서 즉시 효과 발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟의 몸에서 즉시 효과 발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟의 머리에서 즉시 효과 발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSTANT_TARGET_FOOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSTANT_TARGET_BODY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSTANT_TARGET_HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POISON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL_ROUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 선택(진영의 중앙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SILENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREEZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>DOWN</t>
-  </si>
-  <si>
-    <t>누른 즉시</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>뗀 즉시</t>
-  </si>
-  <si>
-    <t>TOUCH</t>
-  </si>
-  <si>
-    <t>터치</t>
-  </si>
-  <si>
-    <t>DOUBLE_TOUCH</t>
-  </si>
-  <si>
-    <t>더블터치</t>
-  </si>
-  <si>
-    <t>TOUCH_GESTURE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터치 종류 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부등호 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT_EQUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GREATER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GREATER_EQUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LESS_EQUAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INEQUALITY_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PANTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팬티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NADE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰다듬기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엉덩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장난감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_UP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF_UP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPROACH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_DOWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF_DOWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SECOND_TARGET_RULE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째 타겟룰 타입
-처음 타겟팅 할때가 아닌, 이펙트 등이 타겟에 도달했을 때 추가적으로 타겟팅 해야할 경우에 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AROUND_SPLASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BACK_SPLASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKII TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 공격 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 공격 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPECIAL_SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템의 종류 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금화(게임내 사용되는 재화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보석(게임내 사용되는 유료 재화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUNGEON_TICKET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전 입장 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER_PIECE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미나 회복 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMORIAL_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모리얼에서 사용될 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 완전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각종 소모용 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIPMENT_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPENDABLE_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA_POTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEAREST_ADD_BACK_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FURTHEST_ADD_FRONT_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEAREST_ADD_ARROUND_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FURTHEST_ADD_ARROUND_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호감도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIKEABILITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFEND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기 스킬 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX_SKILL_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인연 랭크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESTINY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEVEL_CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">캐릭터 정렬 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character_Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage_Common_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 공통 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 달성률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 웨이브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TANKER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할군 표현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEARLER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPPORTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEALER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAVORITE_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호감도 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAMINA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스태미나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 난이도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리하드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_DIFFICULTY_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERY_HARD</t>
+    <t>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 공격력을 기준으로 배율 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 방어력을 기준으로 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 최대 체력을 기준으로 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400 현재 체력을 기준으로 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700 명중률을 기준으로 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800 회피율을 기준으로 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900 피해량을 기준으로 계산을 하기 위한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 왼쪽 팀(아군)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 오른쪽 팀(적군)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 몸체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 가슴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 골반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 브라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 팬티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 엉덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 장난감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 누른 즉시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 뗀 즉시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 터치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 더블터치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 드래그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 쓰다듬기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 적군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 피해 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102 기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103 침묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 결박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105 빙결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108 공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 시간 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 피격 횟수 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 공격 횟수 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 투사체를 타겟의 발 밑에 던진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 투사체를 타겟의 몸에 던진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 투사체를 타겟의 머리에 던진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 타겟의 발 밑에서 즉시 효과 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 타겟의 몸에서 즉시 효과 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 타겟의 머리에서 즉시 효과 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 전체 선택(진영의 중앙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 다름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 미만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 일반 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스킬 공격 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스킬 공격 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 궁극기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 금화(게임내 사용되는 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 보석(게임내 사용되는 유료 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 캐릭터 완전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 각종 소모용 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 스태미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 데미지를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 사용하지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2255,7 +2280,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2294,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2305,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2316,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2327,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2338,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2349,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2360,7 +2385,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +2399,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2385,12 +2410,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>257</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2412,40 +2437,40 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>187</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>188</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>189</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2484,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2471,12 +2496,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2492,123 +2517,123 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>220</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="B7" s="4">
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="B8" s="4">
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>203</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="B9" s="4">
         <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>204</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="B10" s="4">
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>205</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="B11" s="4">
         <v>600</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>206</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="B12" s="4">
         <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>207</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="B13" s="4">
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>208</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="B14" s="4">
         <v>900</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>217</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2633,12 +2658,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2654,24 +2679,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>239</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>240</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2710,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2697,12 +2722,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2718,7 +2743,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -2729,145 +2754,145 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>224</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>226</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>228</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>230</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>232</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>319</v>
+        <v>177</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>234</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>317</v>
+        <v>176</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>321</v>
+        <v>178</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>323</v>
+        <v>179</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +2906,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2892,100 +2917,100 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>286</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>287</v>
+        <v>159</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>288</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>292</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>293</v>
+        <v>162</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>294</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3024,7 +3049,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3034,12 +3059,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3055,24 +3080,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>215</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3086,7 +3111,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3097,12 +3122,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3129,24 +3154,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>248</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>247</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +3185,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3171,12 +3196,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3203,112 +3228,112 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>246</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>275</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4">
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>281</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>279</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>283</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>329</v>
+        <v>182</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>330</v>
+        <v>183</v>
       </c>
       <c r="B12" s="4">
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="B14" s="4">
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +3347,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3333,12 +3358,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3365,35 +3390,35 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>252</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>255</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -3407,7 +3432,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3418,12 +3443,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3450,79 +3475,79 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>262</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>263</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>264</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>266</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="B9" s="4">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>267</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="B10" s="4">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>268</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>276</v>
+        <v>152</v>
       </c>
       <c r="B11" s="4">
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3535,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D4BA99-0A21-40CA-975A-98FF2D60D497}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3548,12 +3573,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>431</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>426</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3575,40 +3600,40 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>428</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>427</v>
+        <v>239</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>429</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>432</v>
+        <v>241</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>430</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3621,7 +3646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3631,12 +3658,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3663,68 +3690,68 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>298</v>
+        <v>166</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>302</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>305</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3738,7 +3765,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3749,12 +3776,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>346</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3781,46 +3808,46 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>347</v>
+        <v>193</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>351</v>
+        <v>195</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>353</v>
+        <v>196</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3833,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3846,12 +3873,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>356</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3878,134 +3905,134 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>357</v>
+        <v>199</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>358</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>361</v>
+        <v>201</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>363</v>
+        <v>202</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>365</v>
+        <v>203</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>376</v>
+        <v>208</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>368</v>
+        <v>204</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>373</v>
+        <v>206</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>422</v>
+        <v>236</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>424</v>
+        <v>237</v>
       </c>
       <c r="B16" s="10">
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4018,7 +4045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD2501C-98E8-450C-A0D5-D729ECE808B3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4027,12 +4056,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4054,40 +4083,40 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4101,7 +4130,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4111,12 +4140,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>417</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4138,51 +4167,51 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>413</v>
+        <v>231</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>414</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>419</v>
+        <v>233</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>415</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>420</v>
+        <v>234</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>416</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>418</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4196,7 +4225,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4207,12 +4236,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4234,51 +4263,51 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4292,8 +4321,8 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4304,12 +4333,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4325,871 +4354,871 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>377</v>
+        <v>209</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>382</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>379</v>
+        <v>211</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>380</v>
+        <v>212</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>384</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4">
         <v>3001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4">
         <v>3003</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>112</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4">
         <v>3004</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>113</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4">
         <v>2003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
         <v>2004</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="B21" s="7">
         <v>9999</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4">
         <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4">
         <v>2001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>101</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4">
         <v>2002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4">
         <v>2006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4">
         <v>2007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="B27" s="4">
         <v>2008</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B28" s="4">
         <v>2009</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="B29" s="4">
         <v>2010</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="B30" s="4">
         <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="B31" s="4">
         <v>2012</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="B32" s="4">
         <v>2013</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B33" s="4">
         <v>2014</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B34" s="4">
         <v>2015</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B35" s="4">
         <v>2016</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B36" s="4">
         <v>2017</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4">
         <v>2018</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>109</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4">
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4">
         <v>2020</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4">
         <v>3002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>111</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B41" s="4">
         <v>3005</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4">
         <v>3006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B43" s="4">
         <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>116</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="B44" s="4">
         <v>3008</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="B45" s="4">
         <v>3009</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="B46" s="4">
         <v>3010</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>171</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4">
         <v>3011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="B48" s="4">
         <v>3012</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>174</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="B49" s="4">
         <v>3013</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4">
         <v>3014</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>117</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B51" s="4">
         <v>3015</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B52" s="4">
         <v>3016</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4">
         <v>3017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4">
         <v>3018</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4">
         <v>3019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>122</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4">
         <v>3020</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4">
         <v>3021</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4">
         <v>3022</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4">
         <v>3023</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4">
         <v>3024</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B61" s="4">
         <v>3025</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>128</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4">
         <v>3026</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>129</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4">
         <v>3027</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4">
         <v>4001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>176</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4">
         <v>4002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>177</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4">
         <v>5001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>131</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4">
         <v>5002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>132</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4">
         <v>5003</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>133</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4">
         <v>5004</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>134</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4">
         <v>5005</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4">
         <v>5006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4">
         <v>5007</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>137</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4">
         <v>6001</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>138</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4">
         <v>6002</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>139</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4">
         <v>6003</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>140</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4">
         <v>6004</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>141</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4">
         <v>6005</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>142</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4">
         <v>6006</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4">
         <v>6007</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>144</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4">
         <v>6008</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>145</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4">
         <v>6009</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>146</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4">
         <v>6010</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>147</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5203,7 +5232,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5215,12 +5244,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>404</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5236,112 +5265,112 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>403</v>
+        <v>221</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>401</v>
+        <v>220</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>399</v>
+        <v>219</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>397</v>
+        <v>218</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>395</v>
+        <v>217</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>393</v>
+        <v>216</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>388</v>
+        <v>214</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>386</v>
+        <v>213</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5354,7 +5383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAF7AB3-67B3-4800-B261-1FA878E7669B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5365,12 +5396,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>407</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5386,24 +5417,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>409</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>410</v>
+        <v>228</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>411</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5417,7 +5448,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5428,12 +5459,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>340</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5460,24 +5491,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>341</v>
+        <v>189</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>342</v>
+        <v>190</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A77FDE-1345-4200-8B58-E5205645335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D091D8-DD4E-44A2-8674-CD7848DC1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="210" windowWidth="22305" windowHeight="17445" tabRatio="717" firstSheet="16" activeTab="21" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="2475" yWindow="2055" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="16" activeTab="23" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,8 @@
     <sheet name="@inequality_type" sheetId="18" r:id="rId20"/>
     <sheet name="@skill_type" sheetId="20" r:id="rId21"/>
     <sheet name="@item_type" sheetId="21" r:id="rId22"/>
+    <sheet name="@Limit" sheetId="26" r:id="rId23"/>
+    <sheet name="@goods_type" sheetId="27" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="477">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1802,12 +1804,169 @@
     <t>7 사용하지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LIMIT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해금 종류 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_CLEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>STAMINA</t>
+  </si>
+  <si>
+    <t>FAVORITE</t>
+  </si>
+  <si>
+    <t>EXP_PLAYER</t>
+  </si>
+  <si>
+    <t>EXP_CHARACTER</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>EXP_POTION</t>
+  </si>
+  <si>
+    <t>STA_POTION</t>
+  </si>
+  <si>
+    <t>FAVORITE_ITEM</t>
+  </si>
+  <si>
+    <t>STAGE_SKIP</t>
+  </si>
+  <si>
+    <t>TICKET_DUNGEON</t>
+  </si>
+  <si>
+    <t>EQ_GROWUP</t>
+  </si>
+  <si>
+    <t>TICKET_REWARD_SELECT</t>
+  </si>
+  <si>
+    <t>TICKET_REWARD_RANDOM</t>
+  </si>
+  <si>
+    <t>TICKET_REWARD_ALL</t>
+  </si>
+  <si>
+    <t>PIECE_EQUIPMENT</t>
+  </si>
+  <si>
+    <t>PIECE_CHARACTER</t>
+  </si>
+  <si>
+    <t>1 레벨 해금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스테이지 클리어 해금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스태미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 호감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 플레이어 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 캐릭터 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102 스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103 호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 스테이지 스킵 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105 던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 정련석(장비 성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107 보상 선택 티켓(1개를 선택 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108 보상 랜덤 티켓(1개를 확률 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109 보상 패키지 티켓(모든 보상 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 장비 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111 캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 및 아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,8 +2007,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="&quot;Malgun Gothic&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1886,8 +2072,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B083"/>
+        <bgColor rgb="FFF4B083"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1923,13 +2121,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1963,9 +2199,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{8A40841A-7F37-45FD-AE14-E08951A6FD9B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2283,24 +2539,24 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="33.125" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2311,7 +2567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2322,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -2333,7 +2589,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2344,7 +2600,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -2355,7 +2611,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2366,7 +2622,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2377,7 +2633,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2402,23 +2658,23 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2429,7 +2685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>99</v>
       </c>
@@ -2451,7 +2707,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>100</v>
       </c>
@@ -2462,7 +2718,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="33">
       <c r="A7" s="4" t="s">
         <v>101</v>
       </c>
@@ -2487,24 +2743,24 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2515,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>98</v>
       </c>
@@ -2526,7 +2782,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>118</v>
       </c>
@@ -2537,7 +2793,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
@@ -2548,7 +2804,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
@@ -2559,7 +2815,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>110</v>
       </c>
@@ -2570,7 +2826,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
@@ -2581,7 +2837,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>104</v>
       </c>
@@ -2592,7 +2848,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>105</v>
       </c>
@@ -2603,7 +2859,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>106</v>
       </c>
@@ -2614,7 +2870,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>107</v>
       </c>
@@ -2625,7 +2881,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>99</v>
       </c>
@@ -2650,23 +2906,23 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>129</v>
       </c>
@@ -2688,7 +2944,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>130</v>
       </c>
@@ -2713,24 +2969,24 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>98</v>
       </c>
@@ -2752,7 +3008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>121</v>
       </c>
@@ -2763,7 +3019,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>122</v>
       </c>
@@ -2774,7 +3030,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>123</v>
       </c>
@@ -2785,7 +3041,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>124</v>
       </c>
@@ -2796,7 +3052,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>125</v>
       </c>
@@ -2807,7 +3063,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>177</v>
       </c>
@@ -2818,7 +3074,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>126</v>
       </c>
@@ -2829,7 +3085,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>176</v>
       </c>
@@ -2840,7 +3096,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>173</v>
       </c>
@@ -2851,7 +3107,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>178</v>
       </c>
@@ -2862,7 +3118,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>179</v>
       </c>
@@ -2873,7 +3129,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
         <v>180</v>
       </c>
@@ -2884,7 +3140,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>181</v>
       </c>
@@ -2909,23 +3165,23 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
@@ -2936,7 +3192,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>98</v>
       </c>
@@ -2947,7 +3203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>159</v>
       </c>
@@ -2958,7 +3214,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
@@ -2969,7 +3225,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>161</v>
       </c>
@@ -2980,7 +3236,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>162</v>
       </c>
@@ -2991,7 +3247,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>175</v>
       </c>
@@ -3002,7 +3258,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>174</v>
       </c>
@@ -3013,27 +3269,27 @@
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3052,22 +3308,22 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3078,7 +3334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
@@ -3089,7 +3345,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>117</v>
       </c>
@@ -3114,23 +3370,23 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3141,7 +3397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3152,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>99</v>
       </c>
@@ -3163,7 +3419,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>134</v>
       </c>
@@ -3188,23 +3444,23 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3215,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3226,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>135</v>
       </c>
@@ -3237,7 +3493,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>150</v>
       </c>
@@ -3248,7 +3504,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>151</v>
       </c>
@@ -3259,7 +3515,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>154</v>
       </c>
@@ -3270,7 +3526,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>153</v>
       </c>
@@ -3281,7 +3537,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>155</v>
       </c>
@@ -3292,7 +3548,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>182</v>
       </c>
@@ -3303,7 +3559,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>183</v>
       </c>
@@ -3314,7 +3570,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>185</v>
       </c>
@@ -3325,7 +3581,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>186</v>
       </c>
@@ -3350,23 +3606,23 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3377,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>140</v>
       </c>
@@ -3399,7 +3655,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>138</v>
       </c>
@@ -3410,7 +3666,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>108</v>
       </c>
@@ -3435,23 +3691,23 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3462,7 +3718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3473,7 +3729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>143</v>
       </c>
@@ -3484,7 +3740,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>144</v>
       </c>
@@ -3495,7 +3751,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>145</v>
       </c>
@@ -3506,7 +3762,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>147</v>
       </c>
@@ -3517,7 +3773,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>148</v>
       </c>
@@ -3528,7 +3784,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>149</v>
       </c>
@@ -3539,7 +3795,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>152</v>
       </c>
@@ -3564,24 +3820,24 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3592,7 +3848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3603,7 +3859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -3614,7 +3870,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
@@ -3625,7 +3881,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>241</v>
       </c>
@@ -3650,23 +3906,23 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3677,7 +3933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3688,7 +3944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>166</v>
       </c>
@@ -3699,7 +3955,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>167</v>
       </c>
@@ -3710,7 +3966,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>168</v>
       </c>
@@ -3721,7 +3977,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>169</v>
       </c>
@@ -3732,7 +3988,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>170</v>
       </c>
@@ -3743,7 +3999,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>171</v>
       </c>
@@ -3768,23 +4024,23 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3795,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3806,7 +4062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>193</v>
       </c>
@@ -3817,7 +4073,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>194</v>
       </c>
@@ -3828,7 +4084,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>195</v>
       </c>
@@ -3839,7 +4095,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>196</v>
       </c>
@@ -3860,28 +4116,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3892,7 +4148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3903,7 +4159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>199</v>
       </c>
@@ -3914,7 +4170,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>200</v>
       </c>
@@ -3925,7 +4181,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>201</v>
       </c>
@@ -3936,7 +4192,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>202</v>
       </c>
@@ -3947,7 +4203,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>203</v>
       </c>
@@ -3958,7 +4214,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>208</v>
       </c>
@@ -3969,7 +4225,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>204</v>
       </c>
@@ -3980,7 +4236,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>205</v>
       </c>
@@ -3991,7 +4247,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>207</v>
       </c>
@@ -4002,7 +4258,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>206</v>
       </c>
@@ -4013,7 +4269,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>236</v>
       </c>
@@ -4024,7 +4280,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
         <v>237</v>
       </c>
@@ -4033,6 +4289,345 @@
       </c>
       <c r="C16" s="10" t="s">
         <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240FE169-3136-4679-B292-EDADF74521B3}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1088A-6383-4970-B62A-7C454CE419D1}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="15">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="15">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="15">
+        <v>101</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B14" s="15">
+        <v>102</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" s="15">
+        <v>103</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" s="15">
+        <v>104</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" s="15">
+        <v>105</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B18" s="15">
+        <v>106</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" s="15">
+        <v>107</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" s="15">
+        <v>108</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27">
+      <c r="A21" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B21" s="15">
+        <v>109</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" s="15">
+        <v>110</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B23" s="15">
+        <v>111</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4049,22 +4644,22 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="49.5">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4075,7 +4670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4086,7 +4681,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -4097,7 +4692,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -4108,7 +4703,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -4133,22 +4728,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4159,7 +4754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4170,7 +4765,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>231</v>
       </c>
@@ -4181,7 +4776,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>233</v>
       </c>
@@ -4192,7 +4787,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>234</v>
       </c>
@@ -4203,7 +4798,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>235</v>
       </c>
@@ -4228,23 +4823,23 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="56.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4255,7 +4850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4266,7 +4861,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -4277,7 +4872,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -4288,7 +4883,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -4299,7 +4894,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4325,23 +4920,23 @@
       <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="52.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="112.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="33">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4352,7 +4947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -4363,7 +4958,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -4374,7 +4969,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -4385,7 +4980,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -4396,7 +4991,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>103</v>
       </c>
@@ -4407,7 +5002,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
         <v>102</v>
       </c>
@@ -4418,7 +5013,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
@@ -4429,7 +5024,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
@@ -4440,7 +5035,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
         <v>209</v>
       </c>
@@ -4451,7 +5046,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
         <v>210</v>
       </c>
@@ -4462,7 +5057,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>211</v>
       </c>
@@ -4473,7 +5068,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
         <v>212</v>
       </c>
@@ -4484,7 +5079,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
@@ -4495,7 +5090,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
@@ -4506,7 +5101,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
@@ -4517,7 +5112,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
@@ -4528,7 +5123,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
@@ -4539,7 +5134,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
         <v>184</v>
       </c>
@@ -4550,7 +5145,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -4561,7 +5156,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -4572,7 +5167,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
@@ -4583,7 +5178,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -4594,7 +5189,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -4605,7 +5200,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>83</v>
       </c>
@@ -4616,7 +5211,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
@@ -4627,7 +5222,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
@@ -4638,7 +5233,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>86</v>
       </c>
@@ -4649,7 +5244,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>87</v>
       </c>
@@ -4660,7 +5255,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>88</v>
       </c>
@@ -4671,7 +5266,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -4682,7 +5277,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -4693,7 +5288,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -4704,7 +5299,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -4715,7 +5310,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -4726,7 +5321,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -4737,7 +5332,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -4748,7 +5343,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
@@ -4759,7 +5354,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -4770,7 +5365,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -4781,7 +5376,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -4792,7 +5387,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
@@ -4803,7 +5398,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
         <v>90</v>
       </c>
@@ -4814,7 +5409,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
         <v>91</v>
       </c>
@@ -4825,7 +5420,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
@@ -4836,7 +5431,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -4847,7 +5442,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
         <v>94</v>
       </c>
@@ -4858,7 +5453,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -4869,7 +5464,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
@@ -4880,7 +5475,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -4891,7 +5486,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
@@ -4902,7 +5497,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -4913,7 +5508,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
@@ -4924,7 +5519,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -4935,7 +5530,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -4946,7 +5541,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -4957,7 +5552,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
@@ -4968,7 +5563,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
@@ -4979,7 +5574,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
@@ -4990,7 +5585,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
@@ -5001,7 +5596,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
@@ -5012,7 +5607,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
@@ -5023,7 +5618,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
@@ -5034,7 +5629,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
@@ -5045,7 +5640,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
@@ -5056,7 +5651,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
@@ -5067,7 +5662,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
@@ -5078,7 +5673,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
@@ -5089,7 +5684,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
@@ -5100,7 +5695,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
@@ -5111,7 +5706,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
@@ -5122,7 +5717,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
@@ -5133,7 +5728,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
@@ -5144,7 +5739,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
@@ -5155,7 +5750,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
@@ -5166,7 +5761,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
@@ -5177,7 +5772,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
@@ -5188,7 +5783,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
@@ -5199,7 +5794,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
@@ -5210,7 +5805,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
@@ -5235,24 +5830,24 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5263,7 +5858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>221</v>
       </c>
@@ -5274,7 +5869,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>220</v>
       </c>
@@ -5285,7 +5880,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>219</v>
       </c>
@@ -5296,7 +5891,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>218</v>
       </c>
@@ -5307,7 +5902,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>217</v>
       </c>
@@ -5318,7 +5913,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>216</v>
       </c>
@@ -5329,7 +5924,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>108</v>
       </c>
@@ -5340,7 +5935,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>215</v>
       </c>
@@ -5351,7 +5946,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>214</v>
       </c>
@@ -5362,7 +5957,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>213</v>
       </c>
@@ -5387,24 +5982,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5415,7 +6010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>226</v>
       </c>
@@ -5426,7 +6021,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>228</v>
       </c>
@@ -5451,23 +6046,23 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="66">
       <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5478,7 +6073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -5489,7 +6084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>189</v>
       </c>
@@ -5500,7 +6095,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>190</v>
       </c>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D091D8-DD4E-44A2-8674-CD7848DC1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC424D6E-3C3A-46E5-AF2B-4B1C5ED6BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="2055" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="16" activeTab="23" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="48165" yWindow="1935" windowWidth="24675" windowHeight="18270" tabRatio="717" firstSheet="15" activeTab="24" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,25 @@
     <sheet name="@npc" sheetId="3" r:id="rId5"/>
     <sheet name="@target_rule" sheetId="4" r:id="rId6"/>
     <sheet name="@character_sort" sheetId="22" r:id="rId7"/>
-    <sheet name="@stage_common" sheetId="23" r:id="rId8"/>
-    <sheet name="@second_target_rule" sheetId="19" r:id="rId9"/>
-    <sheet name="@effect" sheetId="5" r:id="rId10"/>
-    <sheet name="@stat" sheetId="6" r:id="rId11"/>
-    <sheet name="@team_type" sheetId="7" r:id="rId12"/>
-    <sheet name="@touch_body_type" sheetId="9" r:id="rId13"/>
-    <sheet name="@touch_gesture_type" sheetId="16" r:id="rId14"/>
-    <sheet name="@target_type" sheetId="10" r:id="rId15"/>
-    <sheet name="@onetime_effect_type" sheetId="11" r:id="rId16"/>
-    <sheet name="@duration_effect_type" sheetId="12" r:id="rId17"/>
-    <sheet name="@persistence_type" sheetId="13" r:id="rId18"/>
-    <sheet name="@projectile_type" sheetId="14" r:id="rId19"/>
-    <sheet name="@inequality_type" sheetId="18" r:id="rId20"/>
-    <sheet name="@skill_type" sheetId="20" r:id="rId21"/>
-    <sheet name="@item_type" sheetId="21" r:id="rId22"/>
-    <sheet name="@Limit" sheetId="26" r:id="rId23"/>
-    <sheet name="@goods_type" sheetId="27" r:id="rId24"/>
+    <sheet name="@second_target_rule" sheetId="19" r:id="rId8"/>
+    <sheet name="@effect" sheetId="5" r:id="rId9"/>
+    <sheet name="@stat" sheetId="6" r:id="rId10"/>
+    <sheet name="@team_type" sheetId="7" r:id="rId11"/>
+    <sheet name="@touch_body_type" sheetId="9" r:id="rId12"/>
+    <sheet name="@touch_gesture_type" sheetId="16" r:id="rId13"/>
+    <sheet name="@target_type" sheetId="10" r:id="rId14"/>
+    <sheet name="@onetime_effect_type" sheetId="11" r:id="rId15"/>
+    <sheet name="@duration_effect_type" sheetId="12" r:id="rId16"/>
+    <sheet name="@persistence_type" sheetId="13" r:id="rId17"/>
+    <sheet name="@projectile_type" sheetId="14" r:id="rId18"/>
+    <sheet name="@inequality_type" sheetId="18" r:id="rId19"/>
+    <sheet name="@skill_type" sheetId="20" r:id="rId20"/>
+    <sheet name="@item_type" sheetId="21" r:id="rId21"/>
+    <sheet name="@Limit" sheetId="26" r:id="rId22"/>
+    <sheet name="@goods_type" sheetId="27" r:id="rId23"/>
+    <sheet name="@piece_type" sheetId="28" r:id="rId24"/>
+    <sheet name="@eqipment_type" sheetId="29" r:id="rId25"/>
+    <sheet name="@drop_type" sheetId="30" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="497">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,30 +889,6 @@
   </si>
   <si>
     <t>Character_Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage_Common_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 공통 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 달성률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 웨이브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1959,6 +1937,110 @@
   </si>
   <si>
     <t>재화 및 아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 방어구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NECKLACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRACELET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 팔찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 드랍 확률 적용유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_EACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 개별 드랍 확률로 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ID내에서의 드랍 비중으로 체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2586,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2597,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2608,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2619,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2630,7 +2712,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2641,7 +2723,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2651,91 +2733,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10681F31-703E-4206-AE6B-E506CF1573A3}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="33">
-      <c r="A7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F8F7E-7298-47B3-9FA4-ABE1EAA46F31}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -2790,7 +2787,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2801,7 +2798,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2812,7 +2809,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2823,7 +2820,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2834,7 +2831,7 @@
         <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2845,7 +2842,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2856,7 +2853,7 @@
         <v>600</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2867,7 +2864,7 @@
         <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2878,7 +2875,7 @@
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2889,7 +2886,7 @@
         <v>900</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +2895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C171E0-C40B-4137-927A-EEAA6BBE3C3E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2941,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2952,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +2958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -3016,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3027,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3038,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3049,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3060,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3071,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3082,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3093,7 +3090,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3104,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3115,7 +3112,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3126,7 +3123,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3137,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3148,7 +3145,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB81287-38B7-4E4A-86C7-A613F1444486}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3211,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3222,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3233,7 +3230,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3244,7 +3241,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3255,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3266,7 +3263,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3300,7 +3297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59593AD8-553C-47D4-B402-37593D383634}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3342,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3353,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201F026-80B2-4F4C-855C-FF8AD557BCE3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3416,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3427,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3436,7 +3433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3490,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3501,7 +3498,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3512,7 +3509,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3523,7 +3520,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3534,7 +3531,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3545,7 +3542,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3556,7 +3553,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3567,7 +3564,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3578,7 +3575,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3589,7 +3586,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7275B3A-402E-463A-AAC9-1AACFCF8908E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3652,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3663,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3674,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BA9FE-5AA8-4EF6-AC09-35EB34A6EAAF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -3737,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3748,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3759,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3770,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3781,7 +3778,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3792,7 +3789,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3803,6 +3800,124 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3829,12 +3944,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3867,29 +3982,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3899,124 +4014,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -4070,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4081,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4092,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4103,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4167,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4178,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4189,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4200,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4211,7 +4208,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4222,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4233,7 +4230,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4244,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4255,7 +4252,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4266,29 +4263,29 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B16" s="10">
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4297,7 +4294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240FE169-3136-4679-B292-EDADF74521B3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4314,12 +4311,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4346,24 +4343,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4372,11 +4369,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1088A-6383-4970-B62A-7C454CE419D1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -4387,14 +4384,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4423,211 +4420,501 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B10" s="15">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B12" s="17">
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B13" s="15">
         <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="14" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B14" s="15">
         <v>102</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B15" s="15">
         <v>103</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B16" s="15">
         <v>104</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B17" s="15">
         <v>105</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B18" s="15">
         <v>106</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B19" s="15">
         <v>107</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B20" s="15">
         <v>108</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27">
       <c r="A21" s="14" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B21" s="15">
         <v>109</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B22" s="15">
         <v>110</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B23" s="15">
         <v>111</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186929D7-17CE-4E2C-A241-4DB8004E32D1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253C689-5915-46B0-9A11-3A87439C791E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" s="15">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="15">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0553439-B289-4B44-829E-DF7C62935DF1}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4689,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4700,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4711,7 +4998,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4735,12 +5022,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4767,46 +5054,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4869,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4880,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4891,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4902,7 +5189,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4955,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4966,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4977,7 +5264,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4988,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4999,7 +5286,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5010,7 +5297,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5021,7 +5308,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5032,7 +5319,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5043,7 +5330,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5054,7 +5341,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5065,7 +5352,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5076,7 +5363,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5087,7 +5374,7 @@
         <v>3001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5098,7 +5385,7 @@
         <v>3003</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5109,7 +5396,7 @@
         <v>3004</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5120,7 +5407,7 @@
         <v>2003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5131,7 +5418,7 @@
         <v>2004</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5142,7 +5429,7 @@
         <v>9999</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5153,7 +5440,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5164,7 +5451,7 @@
         <v>2001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5175,7 +5462,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5186,7 +5473,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5197,7 +5484,7 @@
         <v>2007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5208,7 +5495,7 @@
         <v>2008</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5219,7 +5506,7 @@
         <v>2009</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5230,7 +5517,7 @@
         <v>2010</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5241,7 +5528,7 @@
         <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5252,7 +5539,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5263,7 +5550,7 @@
         <v>2013</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5274,7 +5561,7 @@
         <v>2014</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5285,7 +5572,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5296,7 +5583,7 @@
         <v>2016</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5307,7 +5594,7 @@
         <v>2017</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5318,7 +5605,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5329,7 +5616,7 @@
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5340,7 +5627,7 @@
         <v>2020</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5351,7 +5638,7 @@
         <v>3002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5362,7 +5649,7 @@
         <v>3005</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5373,7 +5660,7 @@
         <v>3006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5384,7 +5671,7 @@
         <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5395,7 +5682,7 @@
         <v>3008</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5406,7 +5693,7 @@
         <v>3009</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5417,7 +5704,7 @@
         <v>3010</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5428,7 +5715,7 @@
         <v>3011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5439,7 +5726,7 @@
         <v>3012</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5450,7 +5737,7 @@
         <v>3013</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5461,7 +5748,7 @@
         <v>3014</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5472,7 +5759,7 @@
         <v>3015</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5483,7 +5770,7 @@
         <v>3016</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5494,7 +5781,7 @@
         <v>3017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5505,7 +5792,7 @@
         <v>3018</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5516,7 +5803,7 @@
         <v>3019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5527,7 +5814,7 @@
         <v>3020</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5538,7 +5825,7 @@
         <v>3021</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5549,7 +5836,7 @@
         <v>3022</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5560,7 +5847,7 @@
         <v>3023</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5571,7 +5858,7 @@
         <v>3024</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5582,7 +5869,7 @@
         <v>3025</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5593,7 +5880,7 @@
         <v>3026</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5604,7 +5891,7 @@
         <v>3027</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5615,7 +5902,7 @@
         <v>4001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5626,7 +5913,7 @@
         <v>4002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5637,7 +5924,7 @@
         <v>5001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5648,7 +5935,7 @@
         <v>5002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5659,7 +5946,7 @@
         <v>5003</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5670,7 +5957,7 @@
         <v>5004</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5681,7 +5968,7 @@
         <v>5005</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5692,7 +5979,7 @@
         <v>5006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5703,7 +5990,7 @@
         <v>5007</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5714,7 +6001,7 @@
         <v>6001</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5725,7 +6012,7 @@
         <v>6002</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5736,7 +6023,7 @@
         <v>6003</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5747,7 +6034,7 @@
         <v>6004</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5758,7 +6045,7 @@
         <v>6005</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5769,7 +6056,7 @@
         <v>6006</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5780,7 +6067,7 @@
         <v>6007</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5791,7 +6078,7 @@
         <v>6008</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5802,7 +6089,7 @@
         <v>6009</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5813,7 +6100,7 @@
         <v>6010</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5866,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5877,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5888,7 +6175,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5899,7 +6186,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5910,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5921,7 +6208,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5932,7 +6219,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5943,7 +6230,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5954,7 +6241,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5965,7 +6252,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5975,70 +6262,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAF7AB3-67B3-4800-B261-1FA878E7669B}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE615E54-8F67-4902-9A65-716886E7F4AB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6092,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6103,7 +6326,92 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10681F31-703E-4206-AE6B-E506CF1573A3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33">
+      <c r="A7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC424D6E-3C3A-46E5-AF2B-4B1C5ED6BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22FA506-3E14-4535-9789-F56D361E3292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48165" yWindow="1935" windowWidth="24675" windowHeight="18270" tabRatio="717" firstSheet="15" activeTab="24" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="6" activeTab="6" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -888,10 +888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character_Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROLE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2041,6 +2037,10 @@
   </si>
   <si>
     <t>2 ID내에서의 드랍 비중으로 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER_SORT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2679,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2723,7 +2723,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2787,7 +2787,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2798,7 +2798,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>600</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>900</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3035,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3057,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3068,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3079,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3101,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3112,7 +3112,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3123,7 +3123,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3134,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3671,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3756,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3767,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3778,7 +3778,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3789,7 +3789,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3800,7 +3800,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3944,12 +3944,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3982,29 +3982,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4078,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4089,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4100,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -4164,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4175,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4197,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4208,7 +4208,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4219,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4230,7 +4230,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4241,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4252,7 +4252,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4263,29 +4263,29 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" s="10">
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4311,12 +4311,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4343,24 +4343,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -4384,14 +4384,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4420,211 +4420,211 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="15">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12" s="17">
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" s="15">
         <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14" s="15">
         <v>102</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B15" s="15">
         <v>103</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B16" s="15">
         <v>104</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17" s="15">
         <v>105</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B18" s="15">
         <v>106</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B19" s="15">
         <v>107</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B20" s="15">
         <v>108</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27">
       <c r="A21" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B21" s="15">
         <v>109</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B22" s="15">
         <v>110</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B23" s="15">
         <v>111</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -4650,14 +4650,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4686,13 +4686,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4703,18 +4703,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -4727,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253C689-5915-46B0-9A11-3A87439C791E}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4739,14 +4739,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4775,68 +4775,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B10" s="15">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4850,7 +4850,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="K43" sqref="K42:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4861,14 +4861,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4897,24 +4897,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4987,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5022,12 +5022,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5054,46 +5054,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5167,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5178,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5189,7 +5189,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5264,7 +5264,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5275,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5286,7 +5286,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5297,7 +5297,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5308,7 +5308,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5319,7 +5319,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5330,7 +5330,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5341,7 +5341,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5352,7 +5352,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5363,7 +5363,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5374,7 +5374,7 @@
         <v>3001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5385,7 +5385,7 @@
         <v>3003</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5396,7 +5396,7 @@
         <v>3004</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5407,7 +5407,7 @@
         <v>2003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5418,7 +5418,7 @@
         <v>2004</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5429,7 +5429,7 @@
         <v>9999</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5440,7 +5440,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5451,7 +5451,7 @@
         <v>2001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5462,7 +5462,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5473,7 +5473,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5484,7 +5484,7 @@
         <v>2007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5495,7 +5495,7 @@
         <v>2008</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5506,7 +5506,7 @@
         <v>2009</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5517,7 +5517,7 @@
         <v>2010</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5528,7 +5528,7 @@
         <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5539,7 +5539,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5550,7 +5550,7 @@
         <v>2013</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5561,7 +5561,7 @@
         <v>2014</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5572,7 +5572,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5583,7 +5583,7 @@
         <v>2016</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5594,7 +5594,7 @@
         <v>2017</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5605,7 +5605,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5616,7 +5616,7 @@
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5627,7 +5627,7 @@
         <v>2020</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5638,7 +5638,7 @@
         <v>3002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5649,7 +5649,7 @@
         <v>3005</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5660,7 +5660,7 @@
         <v>3006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5671,7 +5671,7 @@
         <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5682,7 +5682,7 @@
         <v>3008</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5693,7 +5693,7 @@
         <v>3009</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5704,7 +5704,7 @@
         <v>3010</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5715,7 +5715,7 @@
         <v>3011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5726,7 +5726,7 @@
         <v>3012</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5737,7 +5737,7 @@
         <v>3013</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5748,7 +5748,7 @@
         <v>3014</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5759,7 +5759,7 @@
         <v>3015</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5770,7 +5770,7 @@
         <v>3016</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5781,7 +5781,7 @@
         <v>3017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5792,7 +5792,7 @@
         <v>3018</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5803,7 +5803,7 @@
         <v>3019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5814,7 +5814,7 @@
         <v>3020</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5825,7 +5825,7 @@
         <v>3021</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5836,7 +5836,7 @@
         <v>3022</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5847,7 +5847,7 @@
         <v>3023</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5858,7 +5858,7 @@
         <v>3024</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5869,7 +5869,7 @@
         <v>3025</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5880,7 +5880,7 @@
         <v>3026</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5891,7 +5891,7 @@
         <v>3027</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5902,7 +5902,7 @@
         <v>4001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5913,7 +5913,7 @@
         <v>4002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5924,7 +5924,7 @@
         <v>5001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5935,7 +5935,7 @@
         <v>5002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5946,7 +5946,7 @@
         <v>5003</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5957,7 +5957,7 @@
         <v>5004</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5968,7 +5968,7 @@
         <v>5005</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5979,7 +5979,7 @@
         <v>5006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5990,7 +5990,7 @@
         <v>5007</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -6001,7 +6001,7 @@
         <v>6001</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -6012,7 +6012,7 @@
         <v>6002</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -6023,7 +6023,7 @@
         <v>6003</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6034,7 +6034,7 @@
         <v>6004</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -6045,7 +6045,7 @@
         <v>6005</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>6006</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -6067,7 +6067,7 @@
         <v>6007</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -6078,7 +6078,7 @@
         <v>6008</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>6009</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -6100,7 +6100,7 @@
         <v>6010</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6113,8 +6113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A195FB4-48B4-48D4-971F-8F95C9120D92}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6126,7 +6126,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6186,7 +6186,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6197,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6208,7 +6208,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6219,7 +6219,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6230,7 +6230,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6241,7 +6241,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6252,7 +6252,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6315,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6326,7 +6326,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6400,7 +6400,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33">
@@ -6411,7 +6411,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22FA506-3E14-4535-9789-F56D361E3292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8037F-4AE4-4A55-9DBE-C00625200199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="6" activeTab="6" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="40305" yWindow="9030" windowWidth="32595" windowHeight="10515" tabRatio="717" firstSheet="15" activeTab="26" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,8 @@
     <sheet name="@piece_type" sheetId="28" r:id="rId24"/>
     <sheet name="@eqipment_type" sheetId="29" r:id="rId25"/>
     <sheet name="@drop_type" sheetId="30" r:id="rId26"/>
+    <sheet name="@repeat_type" sheetId="31" r:id="rId27"/>
+    <sheet name="@charge_type" sheetId="32" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="523">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2041,6 +2043,110 @@
   </si>
   <si>
     <t>CHARACTER_SORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 주기 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 지정된 분마다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_WEEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_MONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARGE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차징 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINALMAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Max(Base max + add max)값까지 차징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASEMAX_CUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base max값만큼만 차징, Final Max 값을 넘지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASEMAX_OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINALMAX_OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_CUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 수치만큼 차징, Final max값 이상은 차징되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 수치만큼 차징, Final max값 이상 차징 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2247,7 +2353,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2300,6 +2406,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4923,6 +5036,240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F1C228-FB57-41C9-B960-3C2B62DD9EAC}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" s="15">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ED69EA-3163-4C88-A042-C08C12B28836}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="83.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="B9" s="22">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10" s="22">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD2501C-98E8-450C-A0D5-D729ECE808B3}">
   <dimension ref="A1:C7"/>
@@ -6113,7 +6460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A195FB4-48B4-48D4-971F-8F95C9120D92}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8037F-4AE4-4A55-9DBE-C00625200199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6EAB9-5E18-4622-AB8F-0A5BEB9E5DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40305" yWindow="9030" windowWidth="32595" windowHeight="10515" tabRatio="717" firstSheet="15" activeTab="26" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="15" activeTab="28" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="@drop_type" sheetId="30" r:id="rId26"/>
     <sheet name="@repeat_type" sheetId="31" r:id="rId27"/>
     <sheet name="@charge_type" sheetId="32" r:id="rId28"/>
+    <sheet name="@sd_body_type" sheetId="33" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="533">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2147,6 +2148,46 @@
   </si>
   <si>
     <t>지정 수치만큼 차징, Final max값 이상 차징 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_BODY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD 캐릭터의 본 파츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT_HAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT_HAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸(중앙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발끝(ROOT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른손</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2273,7 +2314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2346,6 +2387,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2353,7 +2407,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2412,6 +2466,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5040,7 +5103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F1C228-FB57-41C9-B960-3C2B62DD9EAC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -5153,7 +5216,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5262,6 +5325,117 @@
       </c>
       <c r="C10" s="20" t="s">
         <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5CFFC7-98CC-4BE9-AA99-E64DA3190112}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6EAB9-5E18-4622-AB8F-0A5BEB9E5DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48FCBC-C30C-4AC8-AAA3-2910729719D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="15" activeTab="28" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="15" activeTab="28" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="529">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2163,14 +2163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LEFT_HAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIGHT_HAND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>머리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2180,14 +2172,6 @@
   </si>
   <si>
     <t>발끝(ROOT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼손</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른손</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5335,10 +5319,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5CFFC7-98CC-4BE9-AA99-E64DA3190112}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C9"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5391,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5402,7 +5386,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5413,29 +5397,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48FCBC-C30C-4AC8-AAA3-2910729719D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4786661-3BF8-43ED-8AC2-4311F8A89D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="15" activeTab="28" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="16" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="@repeat_type" sheetId="31" r:id="rId27"/>
     <sheet name="@charge_type" sheetId="32" r:id="rId28"/>
     <sheet name="@sd_body_type" sheetId="33" r:id="rId29"/>
+    <sheet name="@effect_count_type" sheetId="34" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="535">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2172,6 +2173,30 @@
   </si>
   <si>
     <t>발끝(ROOT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECT_COUNT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트의 싱글/멀티플 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE_EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EACH_TARGET_EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 타겟에 개별적으로 발현되는 이펙트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5321,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5CFFC7-98CC-4BE9-AA99-E64DA3190112}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5482,6 +5507,84 @@
       </c>
       <c r="C7" s="4" t="s">
         <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1597E8-5174-4106-A8D8-D367FDCF055E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4786661-3BF8-43ED-8AC2-4311F8A89D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F84217F-8277-4189-9FAC-EF5CB1C5656F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="16" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="780" yWindow="765" windowWidth="35880" windowHeight="18960" tabRatio="717" firstSheet="18" activeTab="22" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="539">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2198,6 +2198,18 @@
   <si>
     <t>각 타겟에 개별적으로 발현되는 이펙트</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_ESSENCE</t>
+  </si>
+  <si>
+    <t>근원 전달 횟수(플레이어 보유)</t>
+  </si>
+  <si>
+    <t>GET_ESSENCE</t>
+  </si>
+  <si>
+    <t>근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
   </si>
 </sst>
 </file>
@@ -4556,15 +4568,17 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1088A-6383-4970-B62A-7C454CE419D1}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4692,123 +4706,145 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B13" s="15">
-        <v>101</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>457</v>
+      <c r="A13" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B14" s="15">
-        <v>102</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>458</v>
+      <c r="A14" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" s="17">
+        <v>10</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B15" s="15">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B16" s="15">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B17" s="15">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B18" s="15">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B19" s="15">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B20" s="15">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="27">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B21" s="15">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B22" s="15">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B23" s="15">
+        <v>109</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B24" s="15">
+        <v>110</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B25" s="15">
         <v>111</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5519,7 +5555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1597E8-5174-4106-A8D8-D367FDCF055E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F84217F-8277-4189-9FAC-EF5CB1C5656F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804FC2BD-1959-48C8-BD3A-4DE7800E4BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="765" windowWidth="35880" windowHeight="18960" tabRatio="717" firstSheet="18" activeTab="22" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="42105" yWindow="1890" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="16" activeTab="27" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -30,19 +30,17 @@
     <sheet name="@onetime_effect_type" sheetId="11" r:id="rId15"/>
     <sheet name="@duration_effect_type" sheetId="12" r:id="rId16"/>
     <sheet name="@persistence_type" sheetId="13" r:id="rId17"/>
-    <sheet name="@projectile_type" sheetId="14" r:id="rId18"/>
-    <sheet name="@inequality_type" sheetId="18" r:id="rId19"/>
-    <sheet name="@skill_type" sheetId="20" r:id="rId20"/>
-    <sheet name="@item_type" sheetId="21" r:id="rId21"/>
-    <sheet name="@Limit" sheetId="26" r:id="rId22"/>
-    <sheet name="@goods_type" sheetId="27" r:id="rId23"/>
-    <sheet name="@piece_type" sheetId="28" r:id="rId24"/>
-    <sheet name="@eqipment_type" sheetId="29" r:id="rId25"/>
-    <sheet name="@drop_type" sheetId="30" r:id="rId26"/>
-    <sheet name="@repeat_type" sheetId="31" r:id="rId27"/>
-    <sheet name="@charge_type" sheetId="32" r:id="rId28"/>
-    <sheet name="@sd_body_type" sheetId="33" r:id="rId29"/>
-    <sheet name="@effect_count_type" sheetId="34" r:id="rId30"/>
+    <sheet name="@inequality_type" sheetId="18" r:id="rId18"/>
+    <sheet name="@skill_type" sheetId="20" r:id="rId19"/>
+    <sheet name="@item_type" sheetId="21" r:id="rId20"/>
+    <sheet name="@Limit" sheetId="26" r:id="rId21"/>
+    <sheet name="@goods_type" sheetId="27" r:id="rId22"/>
+    <sheet name="@piece_type" sheetId="28" r:id="rId23"/>
+    <sheet name="@eqipment_type" sheetId="29" r:id="rId24"/>
+    <sheet name="@drop_type" sheetId="30" r:id="rId25"/>
+    <sheet name="@repeat_type" sheetId="31" r:id="rId26"/>
+    <sheet name="@charge_type" sheetId="32" r:id="rId27"/>
+    <sheet name="@effect_count_type" sheetId="34" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="517">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,47 +572,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>투사체 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THROW_FOOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THROW_BODY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THROW_HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECTILE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSTANT_TARGET_FOOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSTANT_TARGET_BODY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSTANT_TARGET_HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POISON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>STUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL_ROUND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1659,34 +1621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 투사체를 타겟의 발 밑에 던진다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 투사체를 타겟의 몸에 던진다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 투사체를 타겟의 머리에 던진다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 타겟의 발 밑에서 즉시 효과 발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 타겟의 몸에서 즉시 효과 발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 타겟의 머리에서 즉시 효과 발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 전체 선택(진영의 중앙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 같음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2149,30 +2083,6 @@
   </si>
   <si>
     <t>지정 수치만큼 차징, Final max값 이상 차징 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD_BODY_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD 캐릭터의 본 파츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸(중앙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발끝(ROOT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2865,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2876,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2887,7 +2797,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2898,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2909,7 +2819,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2920,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2984,7 +2894,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2995,7 +2905,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3006,7 +2916,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3017,7 +2927,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3028,7 +2938,7 @@
         <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3039,7 +2949,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3050,7 +2960,7 @@
         <v>600</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3061,7 +2971,7 @@
         <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3072,7 +2982,7 @@
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3083,7 +2993,7 @@
         <v>900</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3146,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3210,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3221,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3232,7 +3142,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3243,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3254,18 +3164,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3276,73 +3186,73 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3367,23 +3277,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3399,68 +3309,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3536,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3547,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3610,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3621,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3684,106 +3594,106 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B8" s="4">
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B12" s="4">
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B14" s="4">
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3846,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3857,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3868,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3878,11 +3788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BA9FE-5AA8-4EF6-AC09-35EB34A6EAAF}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3893,12 +3803,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3925,79 +3835,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="4">
+        <v>157</v>
+      </c>
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B8" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B9" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B10" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="4">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4007,27 +3906,27 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4042,80 +3941,58 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="6">
+        <v>184</v>
+      </c>
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -4141,12 +4018,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4179,29 +4056,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4211,102 +4088,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4323,12 +4104,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4355,134 +4136,134 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B16" s="10">
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4491,7 +4272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240FE169-3136-4679-B292-EDADF74521B3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4508,12 +4289,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4540,24 +4321,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4566,11 +4347,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1088A-6383-4970-B62A-7C454CE419D1}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4583,27 +4364,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4619,233 +4400,233 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B10" s="15">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B12" s="17">
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="B13" s="17">
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="B14" s="17">
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B15" s="15">
         <v>101</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B16" s="15">
         <v>102</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B17" s="15">
         <v>103</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B18" s="15">
         <v>104</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B19" s="15">
         <v>105</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B20" s="15">
         <v>106</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B21" s="15">
         <v>107</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B22" s="15">
         <v>108</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B23" s="15">
         <v>109</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="14" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B24" s="15">
         <v>110</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="14" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B25" s="15">
         <v>111</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -4854,7 +4635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186929D7-17CE-4E2C-A241-4DB8004E32D1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4871,27 +4652,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4907,35 +4688,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253C689-5915-46B0-9A11-3A87439C791E}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -4960,27 +4741,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4996,68 +4777,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B10" s="15">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -5066,7 +4847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0553439-B289-4B44-829E-DF7C62935DF1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5082,27 +4863,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5118,24 +4899,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -5144,7 +4925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F1C228-FB57-41C9-B960-3C2B62DD9EAC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5161,27 +4942,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5197,57 +4978,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5256,7 +5037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ED69EA-3163-4C88-A042-C08C12B28836}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5272,27 +5053,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5308,68 +5089,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="20" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B7" s="22">
         <v>3</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="20" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B8" s="22">
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B9" s="22">
         <v>5</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="20" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B10" s="22">
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -5378,43 +5159,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5CFFC7-98CC-4BE9-AA99-E64DA3190112}">
-  <dimension ref="A1:C7"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1597E8-5174-4106-A8D8-D367FDCF055E}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="24" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5430,35 +5211,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>123</v>
+        <v>509</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>121</v>
+        <v>510</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5520,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5531,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5542,85 +5312,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1597E8-5174-4106-A8D8-D367FDCF055E}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="22">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>534</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5644,12 +5336,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5676,46 +5368,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5778,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5789,7 +5481,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5800,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5811,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5864,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5875,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5886,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5897,7 +5589,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5908,7 +5600,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5919,7 +5611,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5930,7 +5622,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5941,51 +5633,51 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5996,7 +5688,7 @@
         <v>3001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6007,7 +5699,7 @@
         <v>3003</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6018,7 +5710,7 @@
         <v>3004</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6029,7 +5721,7 @@
         <v>2003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6040,18 +5732,18 @@
         <v>2004</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B21" s="7">
         <v>9999</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6062,7 +5754,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6073,7 +5765,7 @@
         <v>2001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6084,7 +5776,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6095,7 +5787,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6106,7 +5798,7 @@
         <v>2007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6117,7 +5809,7 @@
         <v>2008</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6128,7 +5820,7 @@
         <v>2009</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6139,7 +5831,7 @@
         <v>2010</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6150,7 +5842,7 @@
         <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6161,7 +5853,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6172,7 +5864,7 @@
         <v>2013</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6183,7 +5875,7 @@
         <v>2014</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6194,7 +5886,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6205,7 +5897,7 @@
         <v>2016</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6216,7 +5908,7 @@
         <v>2017</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6227,7 +5919,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6238,7 +5930,7 @@
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6249,7 +5941,7 @@
         <v>2020</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6260,7 +5952,7 @@
         <v>3002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6271,7 +5963,7 @@
         <v>3005</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6282,7 +5974,7 @@
         <v>3006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6293,7 +5985,7 @@
         <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6304,7 +5996,7 @@
         <v>3008</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6315,7 +6007,7 @@
         <v>3009</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6326,7 +6018,7 @@
         <v>3010</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6337,7 +6029,7 @@
         <v>3011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6348,7 +6040,7 @@
         <v>3012</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6359,7 +6051,7 @@
         <v>3013</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6370,7 +6062,7 @@
         <v>3014</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6381,7 +6073,7 @@
         <v>3015</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6392,7 +6084,7 @@
         <v>3016</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6403,7 +6095,7 @@
         <v>3017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6414,7 +6106,7 @@
         <v>3018</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6425,7 +6117,7 @@
         <v>3019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6436,7 +6128,7 @@
         <v>3020</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6447,7 +6139,7 @@
         <v>3021</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6458,7 +6150,7 @@
         <v>3022</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6469,7 +6161,7 @@
         <v>3023</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6480,7 +6172,7 @@
         <v>3024</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6491,7 +6183,7 @@
         <v>3025</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6502,7 +6194,7 @@
         <v>3026</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6513,7 +6205,7 @@
         <v>3027</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6524,7 +6216,7 @@
         <v>4001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6535,7 +6227,7 @@
         <v>4002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6546,7 +6238,7 @@
         <v>5001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -6557,7 +6249,7 @@
         <v>5002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -6568,7 +6260,7 @@
         <v>5003</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -6579,7 +6271,7 @@
         <v>5004</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -6590,7 +6282,7 @@
         <v>5005</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6601,7 +6293,7 @@
         <v>5006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6612,7 +6304,7 @@
         <v>5007</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -6623,7 +6315,7 @@
         <v>6001</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -6634,7 +6326,7 @@
         <v>6002</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -6645,7 +6337,7 @@
         <v>6003</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6656,7 +6348,7 @@
         <v>6004</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -6667,7 +6359,7 @@
         <v>6005</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6678,7 +6370,7 @@
         <v>6006</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -6689,7 +6381,7 @@
         <v>6007</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -6700,7 +6392,7 @@
         <v>6008</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -6711,7 +6403,7 @@
         <v>6009</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -6722,7 +6414,7 @@
         <v>6010</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6748,12 +6440,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6769,68 +6461,68 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6841,40 +6533,40 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6899,12 +6591,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="66">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6931,24 +6623,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -7011,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7022,7 +6714,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33">
@@ -7033,7 +6725,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804FC2BD-1959-48C8-BD3A-4DE7800E4BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3206BC1-9634-4F3C-88C9-1F8F6B949C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42105" yWindow="1890" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="16" activeTab="27" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="2385" yWindow="1245" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="17" activeTab="23" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,19 @@
     <sheet name="@onetime_effect_type" sheetId="11" r:id="rId15"/>
     <sheet name="@duration_effect_type" sheetId="12" r:id="rId16"/>
     <sheet name="@persistence_type" sheetId="13" r:id="rId17"/>
-    <sheet name="@inequality_type" sheetId="18" r:id="rId18"/>
-    <sheet name="@skill_type" sheetId="20" r:id="rId19"/>
-    <sheet name="@item_type" sheetId="21" r:id="rId20"/>
-    <sheet name="@Limit" sheetId="26" r:id="rId21"/>
-    <sheet name="@goods_type" sheetId="27" r:id="rId22"/>
-    <sheet name="@piece_type" sheetId="28" r:id="rId23"/>
-    <sheet name="@eqipment_type" sheetId="29" r:id="rId24"/>
-    <sheet name="@drop_type" sheetId="30" r:id="rId25"/>
-    <sheet name="@repeat_type" sheetId="31" r:id="rId26"/>
-    <sheet name="@charge_type" sheetId="32" r:id="rId27"/>
-    <sheet name="@effect_count_type" sheetId="34" r:id="rId28"/>
+    <sheet name="@projectile_type" sheetId="14" r:id="rId18"/>
+    <sheet name="@inequality_type" sheetId="18" r:id="rId19"/>
+    <sheet name="@skill_type" sheetId="20" r:id="rId20"/>
+    <sheet name="@item_type" sheetId="21" r:id="rId21"/>
+    <sheet name="@Limit" sheetId="26" r:id="rId22"/>
+    <sheet name="@goods_type" sheetId="27" r:id="rId23"/>
+    <sheet name="@piece_type" sheetId="28" r:id="rId24"/>
+    <sheet name="@eqipment_type" sheetId="29" r:id="rId25"/>
+    <sheet name="@drop_type" sheetId="30" r:id="rId26"/>
+    <sheet name="@repeat_type" sheetId="31" r:id="rId27"/>
+    <sheet name="@charge_type" sheetId="32" r:id="rId28"/>
+    <sheet name="@reward_type" sheetId="33" r:id="rId29"/>
+    <sheet name="@effect_count_type" sheetId="34" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="553">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,11 +574,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>투사체 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THROW_FOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THROW_BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THROW_HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECTILE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTANT_TARGET_FOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTANT_TARGET_BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTANT_TARGET_HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>POISON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>STUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_ROUND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1621,6 +1659,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1 투사체를 타겟의 발 밑에 던진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 투사체를 타겟의 몸에 던진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 투사체를 타겟의 머리에 던진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 타겟의 발 밑에서 즉시 효과 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 타겟의 몸에서 즉시 효과 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 타겟의 머리에서 즉시 효과 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 전체 선택(진영의 중앙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1 같음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1761,9 +1827,6 @@
     <t>EQUIPMENT</t>
   </si>
   <si>
-    <t>EXP_POTION</t>
-  </si>
-  <si>
     <t>STA_POTION</t>
   </si>
   <si>
@@ -1822,50 +1885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102 스테미나 회복 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103 호감도 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 스테이지 스킵 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105 던전 입장 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106 정련석(장비 성장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107 보상 선택 티켓(1개를 선택 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108 보상 랜덤 티켓(1개를 확률 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109 보상 패키지 티켓(모든 보상 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110 장비 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111 캐릭터 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7 캐릭터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1890,18 +1909,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EQUIPMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EQUIPMENT_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1946,14 +1957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BRACELET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 팔찌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DROP_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2086,6 +2089,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SEND_ESSENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET_ESSENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 전달 횟수(플레이어 보유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 플레이어 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 캐릭터 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 스킬 경험치 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 스테이지 스킵 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 정련석(장비 성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 보상 선택 티켓(1개를 선택 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 보상 랜덤 티켓(1개를 확률 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 보상 패키지 티켓(모든 보상 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 장비 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102 캐릭터 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 플레이어 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103 스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105 스테이지 스킵 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107 정련석(장비 성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109 보상 선택 티켓(1개를 선택 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 보상 랜덤 티켓(1개를 확률 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 보상 패키지 티켓(모든 보상 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111 장비 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112 캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113 스킬 경험치 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EFFECT_COUNT_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2098,35 +2253,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EACH_TARGET_EFFECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>각 타겟에 개별적으로 발현되는 이펙트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SEND_ESSENCE</t>
-  </si>
-  <si>
-    <t>근원 전달 횟수(플레이어 보유)</t>
-  </si>
-  <si>
-    <t>GET_ESSENCE</t>
-  </si>
-  <si>
-    <t>근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
+    <t>CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3  캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2193,6 +2344,22 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2338,7 +2505,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2398,14 +2565,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2775,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2786,7 +2969,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2797,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2808,7 +2991,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2819,7 +3002,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2830,7 +3013,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +3077,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2905,7 +3088,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2916,7 +3099,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2927,7 +3110,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2938,7 +3121,7 @@
         <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2949,7 +3132,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2960,7 +3143,7 @@
         <v>600</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2971,7 +3154,7 @@
         <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2982,7 +3165,7 @@
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2993,7 +3176,7 @@
         <v>900</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3045,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3056,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3131,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3142,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3153,7 +3336,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3164,18 +3347,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3186,73 +3369,73 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3277,23 +3460,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3309,68 +3492,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3446,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3457,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3531,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3594,106 +3777,106 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4">
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B12" s="4">
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B14" s="4">
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3767,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3778,7 +3961,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3788,11 +3971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BA9FE-5AA8-4EF6-AC09-35EB34A6EAAF}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3803,12 +3986,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3835,68 +4018,79 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="6">
+        <v>143</v>
+      </c>
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B9" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B10" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>391</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="4">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -3906,27 +4100,27 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3941,58 +4135,80 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="4">
+        <v>166</v>
+      </c>
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>395</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4018,12 +4234,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4056,29 +4272,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4088,6 +4304,102 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4104,12 +4416,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4136,134 +4448,134 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B16" s="10">
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4272,7 +4584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240FE169-3136-4679-B292-EDADF74521B3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4289,12 +4601,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4321,312 +4633,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1088A-6383-4970-B62A-7C454CE419D1}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="15">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="B7" s="15">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B8" s="15">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B9" s="15">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B10" s="15">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="B11" s="17">
-        <v>7</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="B12" s="17">
-        <v>8</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="B13" s="17">
-        <v>9</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="B14" s="17">
-        <v>10</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B15" s="15">
-        <v>101</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B16" s="15">
-        <v>102</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B17" s="15">
-        <v>103</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B18" s="15">
-        <v>104</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="B19" s="15">
-        <v>105</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B20" s="15">
-        <v>106</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="B21" s="15">
-        <v>107</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B22" s="15">
-        <v>108</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B23" s="15">
-        <v>109</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B24" s="15">
-        <v>110</v>
-      </c>
-      <c r="C24" s="14" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="B25" s="15">
-        <v>111</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -4636,11 +4660,211 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1088A-6383-4970-B62A-7C454CE419D1}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="B9" s="15">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="15">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="15">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="15">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="15">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" s="15">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" s="15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" s="15">
+        <v>100</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186929D7-17CE-4E2C-A241-4DB8004E32D1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4652,27 +4876,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>455</v>
+      <c r="A2" s="25" t="s">
+        <v>459</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>149</v>
+      <c r="A3" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4688,35 +4912,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>196</v>
+        <v>462</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>460</v>
+      <c r="C7" s="30" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -4725,12 +4949,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253C689-5915-46B0-9A11-3A87439C791E}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4741,27 +4965,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4777,67 +5001,56 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B10" s="15">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14" t="s">
         <v>473</v>
       </c>
     </row>
@@ -4847,7 +5060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0553439-B289-4B44-829E-DF7C62935DF1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4877,13 +5090,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4925,7 +5138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F1C228-FB57-41C9-B960-3C2B62DD9EAC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -4956,13 +5169,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5037,12 +5250,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ED69EA-3163-4C88-A042-C08C12B28836}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5067,13 +5280,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5159,43 +5372,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1597E8-5174-4106-A8D8-D367FDCF055E}">
-  <dimension ref="A1:C6"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>507</v>
+      <c r="A1" s="19" t="s">
+        <v>544</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
-        <v>508</v>
+      <c r="A2" s="21" t="s">
+        <v>457</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>149</v>
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5210,25 +5424,256 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="22">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="22">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" s="23">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B14" s="23">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>512</v>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B15" s="22">
+        <v>101</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" s="22">
+        <v>102</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" s="22">
+        <v>103</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="22">
+        <v>104</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" s="22">
+        <v>105</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" s="22">
+        <v>106</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B21" s="22">
+        <v>107</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" s="22">
+        <v>108</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" s="22">
+        <v>109</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" s="22">
+        <v>110</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B25" s="22">
+        <v>111</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="B26" s="22">
+        <v>112</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B27" s="22">
+        <v>113</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5301,7 +5746,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5312,7 +5757,86 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>237</v>
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F896994F-4B61-40D5-A99E-60DC53E2EA3A}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -5336,12 +5860,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5368,46 +5892,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5470,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5481,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5492,7 +6016,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5503,7 +6027,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5556,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5567,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5578,7 +6102,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5589,7 +6113,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5600,7 +6124,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5611,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5622,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5633,51 +6157,51 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5688,7 +6212,7 @@
         <v>3001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5699,7 +6223,7 @@
         <v>3003</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5710,7 +6234,7 @@
         <v>3004</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5721,7 +6245,7 @@
         <v>2003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5732,18 +6256,18 @@
         <v>2004</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B21" s="7">
         <v>9999</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5754,7 +6278,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5765,7 +6289,7 @@
         <v>2001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5776,7 +6300,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5787,7 +6311,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5798,7 +6322,7 @@
         <v>2007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5809,7 +6333,7 @@
         <v>2008</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5820,7 +6344,7 @@
         <v>2009</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5831,7 +6355,7 @@
         <v>2010</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5842,7 +6366,7 @@
         <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5853,7 +6377,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5864,7 +6388,7 @@
         <v>2013</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5875,7 +6399,7 @@
         <v>2014</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5886,7 +6410,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5897,7 +6421,7 @@
         <v>2016</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5908,7 +6432,7 @@
         <v>2017</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5919,7 +6443,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5930,7 +6454,7 @@
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5941,7 +6465,7 @@
         <v>2020</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5952,7 +6476,7 @@
         <v>3002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5963,7 +6487,7 @@
         <v>3005</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5974,7 +6498,7 @@
         <v>3006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5985,7 +6509,7 @@
         <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5996,7 +6520,7 @@
         <v>3008</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6007,7 +6531,7 @@
         <v>3009</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6018,7 +6542,7 @@
         <v>3010</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6029,7 +6553,7 @@
         <v>3011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6040,7 +6564,7 @@
         <v>3012</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6051,7 +6575,7 @@
         <v>3013</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6062,7 +6586,7 @@
         <v>3014</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6073,7 +6597,7 @@
         <v>3015</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6084,7 +6608,7 @@
         <v>3016</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6095,7 +6619,7 @@
         <v>3017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6106,7 +6630,7 @@
         <v>3018</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6117,7 +6641,7 @@
         <v>3019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6128,7 +6652,7 @@
         <v>3020</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6139,7 +6663,7 @@
         <v>3021</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6150,7 +6674,7 @@
         <v>3022</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6161,7 +6685,7 @@
         <v>3023</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6172,7 +6696,7 @@
         <v>3024</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6183,7 +6707,7 @@
         <v>3025</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6194,7 +6718,7 @@
         <v>3026</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6205,7 +6729,7 @@
         <v>3027</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6216,7 +6740,7 @@
         <v>4001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6227,7 +6751,7 @@
         <v>4002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6238,7 +6762,7 @@
         <v>5001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -6249,7 +6773,7 @@
         <v>5002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -6260,7 +6784,7 @@
         <v>5003</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -6271,7 +6795,7 @@
         <v>5004</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -6282,7 +6806,7 @@
         <v>5005</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6293,7 +6817,7 @@
         <v>5006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6304,7 +6828,7 @@
         <v>5007</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -6315,7 +6839,7 @@
         <v>6001</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -6326,7 +6850,7 @@
         <v>6002</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -6337,7 +6861,7 @@
         <v>6003</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6348,7 +6872,7 @@
         <v>6004</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -6359,7 +6883,7 @@
         <v>6005</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6370,7 +6894,7 @@
         <v>6006</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -6381,7 +6905,7 @@
         <v>6007</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -6392,7 +6916,7 @@
         <v>6008</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -6403,7 +6927,7 @@
         <v>6009</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -6414,7 +6938,7 @@
         <v>6010</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6445,7 +6969,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6461,68 +6985,68 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6533,40 +7057,40 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6591,12 +7115,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="66">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6623,24 +7147,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6703,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6714,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33">
@@ -6725,7 +7249,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3206BC1-9634-4F3C-88C9-1F8F6B949C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED0422-A2A7-492F-84CF-D9F8BDFBF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="1245" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="17" activeTab="23" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="39480" yWindow="3075" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="7" activeTab="7" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -1454,14 +1454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2 다음 피해의 데미지를 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2270,6 +2262,14 @@
   </si>
   <si>
     <t>3  캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2505,7 +2505,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2583,12 +2583,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3077,7 +3071,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3088,7 +3082,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3099,7 +3093,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3110,7 +3104,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3121,7 +3115,7 @@
         <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3132,7 +3126,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3143,7 +3137,7 @@
         <v>600</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3154,7 +3148,7 @@
         <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3165,7 +3159,7 @@
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3176,7 +3170,7 @@
         <v>900</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3239,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3314,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3325,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3336,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3347,7 +3341,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3358,7 +3352,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3369,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3380,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3391,7 +3385,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3402,7 +3396,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3413,7 +3407,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3424,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3435,7 +3429,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3498,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3509,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3520,7 +3514,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3531,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3542,7 +3536,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3553,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3629,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3640,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3703,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3714,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -3777,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3788,7 +3782,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3799,7 +3793,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3810,7 +3804,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3821,7 +3815,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3832,7 +3826,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3843,7 +3837,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3854,7 +3848,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3865,7 +3859,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3876,7 +3870,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3950,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3961,7 +3955,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4024,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4035,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4046,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4057,7 +4051,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4068,7 +4062,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4079,7 +4073,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4090,7 +4084,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4153,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4164,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4175,7 +4169,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4186,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4197,7 +4191,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4208,7 +4202,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4308,7 +4302,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4357,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4368,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4379,7 +4373,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4390,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4465,7 +4459,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4476,7 +4470,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4487,7 +4481,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4498,7 +4492,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4509,7 +4503,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4520,7 +4514,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4531,7 +4525,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4542,7 +4536,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4553,7 +4547,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4564,7 +4558,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4575,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -4601,12 +4595,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4633,24 +4627,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4676,14 +4670,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4712,145 +4706,145 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B10" s="15">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B11" s="15">
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B12" s="15">
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B13" s="15">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B14" s="15">
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B15" s="15">
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B16" s="15">
         <v>100</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B17" s="15">
         <v>1000</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4863,7 +4857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186929D7-17CE-4E2C-A241-4DB8004E32D1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
@@ -4876,14 +4870,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4912,35 +4906,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="B7" s="31">
+      <c r="A7" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B7" s="15">
         <v>3</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>552</v>
+      <c r="C7" s="14" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4965,14 +4959,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5001,57 +4995,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5076,14 +5070,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5112,24 +5106,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -5155,14 +5149,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5191,57 +5185,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5266,14 +5260,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5302,68 +5296,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B7" s="22">
         <v>3</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B8" s="22">
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B9" s="22">
         <v>5</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B10" s="22">
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5389,14 +5383,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5425,255 +5419,255 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B7" s="22">
         <v>3</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B8" s="22">
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B9" s="22">
         <v>5</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B10" s="22">
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B12" s="17">
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B13" s="23">
         <v>9</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B14" s="23">
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B15" s="22">
         <v>101</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B16" s="22">
         <v>102</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B17" s="22">
         <v>103</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B18" s="22">
         <v>104</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B19" s="22">
         <v>105</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B20" s="22">
         <v>106</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B21" s="22">
         <v>107</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B22" s="22">
         <v>108</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B23" s="22">
         <v>109</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B24" s="22">
         <v>110</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B25" s="22">
         <v>111</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B26" s="22">
         <v>112</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B27" s="22">
         <v>113</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -5783,14 +5777,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5819,24 +5813,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -6964,7 +6958,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7103,7 +7097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE615E54-8F67-4902-9A65-716886E7F4AB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -7153,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>344</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7164,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>345</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -7227,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7238,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33">
@@ -7249,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED0422-A2A7-492F-84CF-D9F8BDFBF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE3496-2E28-4144-A45B-DC7E8AEFB840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39480" yWindow="3075" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="7" activeTab="7" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="2010" yWindow="1440" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="13" activeTab="23" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,15 @@
     <sheet name="@skill_type" sheetId="20" r:id="rId20"/>
     <sheet name="@item_type" sheetId="21" r:id="rId21"/>
     <sheet name="@Limit" sheetId="26" r:id="rId22"/>
-    <sheet name="@goods_type" sheetId="27" r:id="rId23"/>
-    <sheet name="@piece_type" sheetId="28" r:id="rId24"/>
-    <sheet name="@eqipment_type" sheetId="29" r:id="rId25"/>
-    <sheet name="@drop_type" sheetId="30" r:id="rId26"/>
-    <sheet name="@repeat_type" sheetId="31" r:id="rId27"/>
-    <sheet name="@charge_type" sheetId="32" r:id="rId28"/>
-    <sheet name="@reward_type" sheetId="33" r:id="rId29"/>
-    <sheet name="@effect_count_type" sheetId="34" r:id="rId30"/>
+    <sheet name="@item_type_v2" sheetId="27" r:id="rId23"/>
+    <sheet name="@goods_type" sheetId="35" r:id="rId24"/>
+    <sheet name="@piece_type" sheetId="28" r:id="rId25"/>
+    <sheet name="@eqipment_type" sheetId="29" r:id="rId26"/>
+    <sheet name="@drop_type" sheetId="30" r:id="rId27"/>
+    <sheet name="@repeat_type" sheetId="31" r:id="rId28"/>
+    <sheet name="@charge_type" sheetId="32" r:id="rId29"/>
+    <sheet name="@reward_type" sheetId="33" r:id="rId30"/>
+    <sheet name="@effect_count_type" sheetId="34" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="566">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2270,6 +2271,58 @@
   </si>
   <si>
     <t>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCHANGE_ATK_DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 공격력 방어력 스탯 교환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_TYPE_V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002 아이템 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 골드 (게임내 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 다이아 (게임내 유료 재화)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2505,7 +2558,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2583,6 +2636,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3021,7 +3080,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3719,7 +3778,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3871,6 +3930,17 @@
       </c>
       <c r="C14" s="4" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" s="4">
+        <v>110</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4655,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1088A-6383-4970-B62A-7C454CE419D1}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4670,14 +4740,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>428</v>
+        <v>555</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>455</v>
+        <v>556</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4837,14 +4907,47 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="B17" s="15">
+        <v>101</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B18" s="15">
         <v>1000</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="B19" s="31">
+        <v>1001</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B20" s="31">
+        <v>1002</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -4854,11 +4957,89 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F89EF-0F0F-4075-904C-1C3C96CA34C5}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="A3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186929D7-17CE-4E2C-A241-4DB8004E32D1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C7"/>
+      <selection activeCell="A5" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4943,7 +5124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253C689-5915-46B0-9A11-3A87439C791E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5054,7 +5235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0553439-B289-4B44-829E-DF7C62935DF1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5132,7 +5313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F1C228-FB57-41C9-B960-3C2B62DD9EAC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5244,7 +5425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ED69EA-3163-4C88-A042-C08C12B28836}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5358,316 +5539,6 @@
       </c>
       <c r="C10" s="20" t="s">
         <v>504</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="22">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="B5" s="22">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="B6" s="22">
-        <v>2</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B7" s="22">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="B8" s="22">
-        <v>4</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="B9" s="22">
-        <v>5</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="B10" s="22">
-        <v>6</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="B11" s="17">
-        <v>7</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="B12" s="17">
-        <v>8</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="B13" s="23">
-        <v>9</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="B14" s="23">
-        <v>10</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="B15" s="22">
-        <v>101</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="B16" s="22">
-        <v>102</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="B17" s="22">
-        <v>103</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="B18" s="22">
-        <v>104</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="B19" s="22">
-        <v>105</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="B20" s="22">
-        <v>106</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="B21" s="22">
-        <v>107</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="B22" s="22">
-        <v>108</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="B23" s="22">
-        <v>109</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="B24" s="22">
-        <v>110</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="B25" s="22">
-        <v>111</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="B26" s="22">
-        <v>112</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="B27" s="22">
-        <v>113</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -5761,6 +5632,316 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" s="22">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="22">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B13" s="23">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="B14" s="23">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B15" s="22">
+        <v>101</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="B16" s="22">
+        <v>102</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" s="22">
+        <v>103</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B18" s="22">
+        <v>104</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B19" s="22">
+        <v>105</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B20" s="22">
+        <v>106</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B21" s="22">
+        <v>107</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" s="22">
+        <v>108</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" s="22">
+        <v>109</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="B24" s="22">
+        <v>110</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="B25" s="22">
+        <v>111</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B26" s="22">
+        <v>112</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="B27" s="22">
+        <v>113</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F896994F-4B61-40D5-A99E-60DC53E2EA3A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -7097,7 +7278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE615E54-8F67-4902-9A65-716886E7F4AB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE3496-2E28-4144-A45B-DC7E8AEFB840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F6E09-825D-4ED9-BF98-04953FEF88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1440" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="13" activeTab="23" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="3165" yWindow="660" windowWidth="32580" windowHeight="19980" tabRatio="717" firstSheet="17" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="568">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1847,454 +1847,479 @@
     <t>PIECE_EQUIPMENT</t>
   </si>
   <si>
+    <t>1 레벨 해금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스테이지 클리어 해금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스태미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 호감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 플레이어 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 캐릭터 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 및 아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 방어구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NECKLACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 드랍 확률 적용유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_EACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 개별 드랍 확률로 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ID내에서의 드랍 비중으로 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER_SORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 주기 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 지정된 분마다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_WEEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_MONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARGE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차징 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINALMAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Max(Base max + add max)값까지 차징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASEMAX_CUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base max값만큼만 차징, Final Max 값을 넘지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASEMAX_OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINALMAX_OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_CUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 수치만큼 차징, Final max값 이상은 차징되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 수치만큼 차징, Final max값 이상 차징 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_ESSENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET_ESSENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 플레이어 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 캐릭터 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 스킬 경험치 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 스테이지 스킵 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 정련석(장비 성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 보상 선택 티켓(1개를 선택 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 보상 랜덤 티켓(1개를 확률 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 보상 패키지 티켓(모든 보상 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 장비 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102 캐릭터 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 플레이어 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103 스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105 스테이지 스킵 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107 정련석(장비 성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109 보상 선택 티켓(1개를 선택 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 보상 랜덤 티켓(1개를 확률 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 보상 패키지 티켓(모든 보상 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111 장비 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112 캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113 스킬 경험치 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECT_COUNT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트의 싱글/멀티플 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE_EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EACH_TARGET_EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 타겟에 개별적으로 발현되는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3  캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCHANGE_ATK_DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 공격력 방어력 스탯 교환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_TYPE_V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PIECE_CHARACTER</t>
-  </si>
-  <si>
-    <t>1 레벨 해금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 스테이지 클리어 해금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 스태미나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 호감도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 플레이어 경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 캐릭터 경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화 및 아이템 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIECE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIPMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIPMENT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARMOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 방어구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHOES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 신발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 반지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NECKLACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 목걸이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 드랍 확률 적용유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP_EACH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 개별 드랍 확률로 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP_WEIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 ID내에서의 드랍 비중으로 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER_SORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복 주기 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 지정된 분마다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_DAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_WEEK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_MONTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_YEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARGE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차징 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FINALMAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final Max(Base max + add max)값까지 차징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASEMAX_CUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base max값만큼만 차징, Final Max 값을 넘지 못함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASEMAX_OVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FINALMAX_OVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE_CUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정 수치만큼 차징, Final max값 이상은 차징되지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE_OVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정 수치만큼 차징, Final max값 이상 차징 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEND_ESSENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET_ESSENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근원 전달 횟수(플레이어 보유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 플레이어 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 캐릭터 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 스테미나 회복 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 호감도 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 스킬 경험치 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 스테이지 스킵 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 던전 입장 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 정련석(장비 성장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 보상 선택 티켓(1개를 선택 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 보상 랜덤 티켓(1개를 확률 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 보상 패키지 티켓(모든 보상 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000 장비 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102 캐릭터 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 플레이어 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103 스테미나 회복 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 호감도 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105 스테이지 스킵 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106 던전 입장 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107 정련석(장비 성장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109 보상 선택 티켓(1개를 선택 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 보상 랜덤 티켓(1개를 확률 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110 보상 패키지 티켓(모든 보상 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111 장비 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112 캐릭터 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113 스킬 경험치 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REWARD_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFFECT_COUNT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트의 싱글/멀티플 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SINGLE_EFFECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EACH_TARGET_EFFECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 타겟에 개별적으로 발현되는 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3  캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXCHANGE_ATK_DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110 공격력 방어력 스탯 교환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_TYPE_V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002 아이템 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 골드 (게임내 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 다이아 (게임내 유료 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 근원 전달 횟수(플레이어 보유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2302,27 +2327,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001 캐릭터 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PIECE_ITEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1002 아이템 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 골드 (게임내 재화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 다이아 (게임내 유료 재화)</t>
+    <t>113 아이템 조각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2558,7 +2567,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2636,12 +2645,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3934,13 +3937,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4703,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4714,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4740,14 +4743,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4776,24 +4779,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4804,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4815,18 +4818,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4837,7 +4840,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4848,7 +4851,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4859,7 +4862,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4870,7 +4873,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4881,7 +4884,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4892,7 +4895,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4903,18 +4906,18 @@
         <v>100</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B17" s="15">
         <v>101</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4925,29 +4928,29 @@
         <v>1000</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="B19" s="31">
+      <c r="A19" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B19" s="15">
         <v>1001</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>560</v>
+      <c r="C19" s="14" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="B20" s="31">
+      <c r="A20" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B20" s="15">
         <v>1002</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>562</v>
+      <c r="C20" s="14" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -4960,7 +4963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F89EF-0F0F-4075-904C-1C3C96CA34C5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
@@ -4979,7 +4982,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5014,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5025,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -5051,14 +5054,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5087,35 +5090,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -5140,14 +5143,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5176,57 +5179,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5251,14 +5254,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5287,24 +5290,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -5330,14 +5333,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5366,57 +5369,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -5441,14 +5444,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5477,68 +5480,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B7" s="22">
         <v>3</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B8" s="22">
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B9" s="22">
         <v>5</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B10" s="22">
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5633,10 +5636,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5648,14 +5651,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5712,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5723,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5734,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5745,7 +5748,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5756,7 +5759,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5767,51 +5770,51 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>453</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B13" s="23">
         <v>9</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B14" s="23">
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="20" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B15" s="22">
         <v>101</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="20" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B16" s="22">
         <v>102</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5822,7 +5825,7 @@
         <v>103</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5833,7 +5836,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5844,7 +5847,7 @@
         <v>105</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5855,7 +5858,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5866,7 +5869,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5877,7 +5880,7 @@
         <v>108</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5888,7 +5891,7 @@
         <v>109</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5899,7 +5902,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5910,29 +5913,40 @@
         <v>111</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="20" t="s">
-        <v>446</v>
+        <v>565</v>
       </c>
       <c r="B26" s="22">
         <v>112</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="20" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="B27" s="22">
         <v>113</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>540</v>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="B28" s="22">
+        <v>114</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -5958,14 +5972,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5994,24 +6008,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -7139,7 +7153,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7328,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7339,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F6E09-825D-4ED9-BF98-04953FEF88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A3405-51BF-4FAE-BD67-BC665EB8509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="660" windowWidth="32580" windowHeight="19980" tabRatio="717" firstSheet="17" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="14" activeTab="14" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="570">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2332,6 +2332,14 @@
   </si>
   <si>
     <t>113 아이템 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE_EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 빈 이펙트(일회성 효과는 없음)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2474,7 +2482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2560,6 +2568,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2567,7 +2595,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2644,6 +2672,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3707,10 +3744,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201F026-80B2-4F4C-855C-FF8AD557BCE3}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3771,6 +3808,17 @@
       </c>
       <c r="C6" s="4" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" s="31">
+        <v>3</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -5638,7 +5686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A3405-51BF-4FAE-BD67-BC665EB8509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC4C73-25AC-4A58-BB43-9078C6E585AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="14" activeTab="14" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" activeTab="11" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="585">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,30 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BODY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PELVIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HORN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TARGET_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,18 +616,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>DOWN</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>TOUCH</t>
-  </si>
-  <si>
-    <t>DOUBLE_TOUCH</t>
-  </si>
-  <si>
     <t>TOUCH_GESTURE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,42 +653,6 @@
   </si>
   <si>
     <t>INEQUALITY_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PANTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NADE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1516,838 +1444,921 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0 아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 적군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 피해 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102 기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103 침묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 결박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105 빙결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108 공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 시간 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 피격 횟수 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 공격 횟수 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 투사체를 타겟의 발 밑에 던진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 투사체를 타겟의 몸에 던진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 투사체를 타겟의 머리에 던진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 타겟의 발 밑에서 즉시 효과 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 타겟의 몸에서 즉시 효과 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 타겟의 머리에서 즉시 효과 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 전체 선택(진영의 중앙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 다름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 미만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 일반 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스킬 공격 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스킬 공격 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 궁극기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 금화(게임내 사용되는 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 보석(게임내 사용되는 유료 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 캐릭터 완전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 각종 소모용 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 스태미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 데미지를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 사용하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해금 종류 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_CLEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>STAMINA</t>
+  </si>
+  <si>
+    <t>FAVORITE</t>
+  </si>
+  <si>
+    <t>EXP_PLAYER</t>
+  </si>
+  <si>
+    <t>EXP_CHARACTER</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>STA_POTION</t>
+  </si>
+  <si>
+    <t>FAVORITE_ITEM</t>
+  </si>
+  <si>
+    <t>STAGE_SKIP</t>
+  </si>
+  <si>
+    <t>TICKET_DUNGEON</t>
+  </si>
+  <si>
+    <t>EQ_GROWUP</t>
+  </si>
+  <si>
+    <t>TICKET_REWARD_SELECT</t>
+  </si>
+  <si>
+    <t>TICKET_REWARD_RANDOM</t>
+  </si>
+  <si>
+    <t>TICKET_REWARD_ALL</t>
+  </si>
+  <si>
+    <t>PIECE_EQUIPMENT</t>
+  </si>
+  <si>
+    <t>1 레벨 해금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스테이지 클리어 해금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스태미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 호감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 플레이어 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 캐릭터 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 및 아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIPMENT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 방어구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NECKLACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 드랍 확률 적용유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_EACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 개별 드랍 확률로 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ID내에서의 드랍 비중으로 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER_SORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 주기 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 지정된 분마다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_WEEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_MONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARGE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차징 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINALMAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Max(Base max + add max)값까지 차징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASEMAX_CUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base max값만큼만 차징, Final Max 값을 넘지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASEMAX_OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINALMAX_OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_CUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 수치만큼 차징, Final max값 이상은 차징되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 수치만큼 차징, Final max값 이상 차징 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_ESSENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET_ESSENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 플레이어 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 캐릭터 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 스킬 경험치 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 스테이지 스킵 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 정련석(장비 성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 보상 선택 티켓(1개를 선택 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 보상 랜덤 티켓(1개를 확률 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 보상 패키지 티켓(모든 보상 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 장비 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_POTION_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102 캐릭터 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 플레이어 경험치 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103 스테미나 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 호감도 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105 스테이지 스킵 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 던전 입장 티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107 정련석(장비 성장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109 보상 선택 티켓(1개를 선택 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 보상 랜덤 티켓(1개를 확률 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 보상 패키지 티켓(모든 보상 획득)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111 장비 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112 캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113 스킬 경험치 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECT_COUNT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트의 싱글/멀티플 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE_EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EACH_TARGET_EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 타겟에 개별적으로 발현되는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3  캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCHANGE_ATK_DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 공격력 방어력 스탯 교환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_TYPE_V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 캐릭터 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002 아이템 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 골드 (게임내 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 다이아 (게임내 유료 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 근원 전달 횟수(플레이어 보유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIECE_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113 아이템 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE_EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 빈 이펙트(일회성 효과는 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>DOUBLE_CLICK</t>
+  </si>
+  <si>
+    <t>PUSH_DOWN</t>
+  </si>
+  <si>
+    <t>DRAG</t>
+  </si>
+  <si>
+    <t>1 OnClick</t>
+  </si>
+  <si>
+    <t>2 DoubleClick</t>
+  </si>
+  <si>
+    <t>3 PushDown(누른 채로 1초 이상)</t>
+  </si>
+  <si>
+    <t>4 Drag</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>BREAST</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>MOUTH</t>
+  </si>
+  <si>
+    <t>PELVIS</t>
+  </si>
+  <si>
+    <t>LEG</t>
+  </si>
+  <si>
+    <t>EYE</t>
+  </si>
+  <si>
+    <t>NOSE</t>
+  </si>
+  <si>
+    <t>EAR</t>
+  </si>
+  <si>
+    <t>CHEEK</t>
+  </si>
+  <si>
+    <t>JAW</t>
+  </si>
+  <si>
+    <t>BROW</t>
+  </si>
+  <si>
+    <t>FACE</t>
+  </si>
+  <si>
+    <t>HIP</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>PANTY</t>
+  </si>
+  <si>
+    <t>HORN</t>
+  </si>
+  <si>
+    <t>TOY</t>
+  </si>
+  <si>
+    <t>PROP_1</t>
+  </si>
+  <si>
+    <t>PROP_2</t>
+  </si>
+  <si>
+    <t>PROP_3</t>
+  </si>
+  <si>
+    <t>PROP_4</t>
+  </si>
+  <si>
+    <t>캐릭터 클릭이지만, 퍼즐 클릭이 아님</t>
+  </si>
+  <si>
     <t>1 몸체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 가슴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5 골반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6 다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 뿔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 브라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 팬티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 얼굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 엉덩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 장난감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 누른 즉시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 뗀 즉시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 터치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 더블터치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 드래그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 쓰다듬기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 아군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 적군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 피해 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102 기절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103 침묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 결박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105 빙결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106 공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107 방어력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108 공격력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109 방어력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 시간 지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 피격 횟수 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 공격 횟수 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 투사체를 타겟의 발 밑에 던진다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 투사체를 타겟의 몸에 던진다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 투사체를 타겟의 머리에 던진다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 타겟의 발 밑에서 즉시 효과 발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 타겟의 몸에서 즉시 효과 발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 타겟의 머리에서 즉시 효과 발동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 전체 선택(진영의 중앙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 같음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 다름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 초과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 미만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 이하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 일반 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 스킬 공격 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 스킬 공격 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 궁극기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 금화(게임내 사용되는 재화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 보석(게임내 사용되는 유료 재화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 던전 입장 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 캐릭터 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 스테미나 회복 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 캐릭터 완전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 각종 소모용 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 호감도 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 스태미나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 데미지를 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 체력 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 사용하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIMIT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해금 종류 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_CLEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>STAMINA</t>
-  </si>
-  <si>
-    <t>FAVORITE</t>
-  </si>
-  <si>
-    <t>EXP_PLAYER</t>
-  </si>
-  <si>
-    <t>EXP_CHARACTER</t>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
-    <t>EQUIPMENT</t>
-  </si>
-  <si>
-    <t>STA_POTION</t>
-  </si>
-  <si>
-    <t>FAVORITE_ITEM</t>
-  </si>
-  <si>
-    <t>STAGE_SKIP</t>
-  </si>
-  <si>
-    <t>TICKET_DUNGEON</t>
-  </si>
-  <si>
-    <t>EQ_GROWUP</t>
-  </si>
-  <si>
-    <t>TICKET_REWARD_SELECT</t>
-  </si>
-  <si>
-    <t>TICKET_REWARD_RANDOM</t>
-  </si>
-  <si>
-    <t>TICKET_REWARD_ALL</t>
-  </si>
-  <si>
-    <t>PIECE_EQUIPMENT</t>
-  </si>
-  <si>
-    <t>1 레벨 해금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 스테이지 클리어 해금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 스태미나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 호감도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 플레이어 경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 캐릭터 경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화 및 아이템 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIECE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIPMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIPMENT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEAPON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARMOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 방어구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHOES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 신발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 반지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NECKLACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 목걸이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 드랍 확률 적용유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP_EACH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 개별 드랍 확률로 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP_WEIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 ID내에서의 드랍 비중으로 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER_SORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복 주기 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 지정된 분마다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_DAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 지정된 일마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_WEEK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 지정된 주마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_MONTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 지정된 달마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_YEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 지정된 해마다 (주기 적용의 시간 타이밍은 schedule 테이블의 time_open 칼럼 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARGE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차징 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FINALMAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final Max(Base max + add max)값까지 차징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASEMAX_CUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base max값만큼만 차징, Final Max 값을 넘지 못함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASEMAX_OVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FINALMAX_OVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final max값만큼만 차징, Final Max 값을 넘겨서 차징 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE_CUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정 수치만큼 차징, Final max값 이상은 차징되지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE_OVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정 수치만큼 차징, Final max값 이상 차징 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEND_ESSENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET_ESSENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 플레이어 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 캐릭터 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 스테미나 회복 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 호감도 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 스킬 경험치 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 스테이지 스킵 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 던전 입장 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 정련석(장비 성장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 보상 선택 티켓(1개를 선택 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 보상 랜덤 티켓(1개를 확률 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 보상 패키지 티켓(모든 보상 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000 장비 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102 캐릭터 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 플레이어 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103 스테미나 회복 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 호감도 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105 스테이지 스킵 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106 던전 입장 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107 정련석(장비 성장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109 보상 선택 티켓(1개를 선택 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 보상 랜덤 티켓(1개를 확률 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110 보상 패키지 티켓(모든 보상 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111 장비 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112 캐릭터 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113 스킬 경험치 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REWARD_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFFECT_COUNT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트의 싱글/멀티플 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SINGLE_EFFECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EACH_TARGET_EFFECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 타겟에 개별적으로 발현되는 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3  캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXCHANGE_ATK_DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110 공격력 방어력 스탯 교환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_TYPE_V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIECE_CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001 캐릭터 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIECE_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002 아이템 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 골드 (게임내 재화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 다이아 (게임내 유료 재화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 근원 전달 횟수(플레이어 보유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIECE_CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIECE_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113 아이템 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE_EFFECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 빈 이펙트(일회성 효과는 없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 눈</t>
+  </si>
+  <si>
+    <t>8 코</t>
+  </si>
+  <si>
+    <t>9 귀</t>
+  </si>
+  <si>
+    <t>10 볼</t>
+  </si>
+  <si>
+    <t>11 턱</t>
+  </si>
+  <si>
+    <t>12 이마</t>
+  </si>
+  <si>
+    <t>13 얼굴</t>
+  </si>
+  <si>
+    <t>14 엉덩이</t>
+  </si>
+  <si>
+    <t>15 브라</t>
+  </si>
+  <si>
+    <t>16 팬티</t>
+  </si>
+  <si>
+    <t>17 뿔</t>
+  </si>
+  <si>
+    <t>18 꼬리</t>
+  </si>
+  <si>
+    <t>19 기타 소품 및 의상 1</t>
+  </si>
+  <si>
+    <t>20 기타 소품 및 의상 2</t>
+  </si>
+  <si>
+    <t>21 기타 소품 및 의상 3</t>
+  </si>
+  <si>
+    <t>22 기타 소품 및 의상 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2431,6 +2442,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2482,7 +2500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2588,6 +2606,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2674,13 +2707,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3051,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3062,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3073,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3084,7 +3117,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3095,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3106,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +3203,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3181,7 +3214,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3192,7 +3225,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3203,7 +3236,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3214,7 +3247,7 @@
         <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3225,7 +3258,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3236,7 +3269,7 @@
         <v>600</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3247,7 +3280,7 @@
         <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3258,7 +3291,7 @@
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3269,7 +3302,7 @@
         <v>900</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3315,24 +3348,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3343,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3378,157 +3411,256 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="32">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="32" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6" s="32">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="32">
+        <v>3</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="B8" s="32">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>362</v>
+      <c r="C8" s="32" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="B9" s="32">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>363</v>
+      <c r="C9" s="32" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" s="32">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>364</v>
+      <c r="C10" s="32" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="B11" s="32">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>365</v>
+      <c r="C11" s="32" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="B12" s="32">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>366</v>
+      <c r="C12" s="32" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="32" t="s">
+        <v>548</v>
+      </c>
+      <c r="B13" s="32">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>367</v>
+      <c r="C13" s="32" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="B14" s="32">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>368</v>
+      <c r="C14" s="32" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="B15" s="32">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>369</v>
+      <c r="C15" s="32" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="B16" s="32">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>370</v>
+      <c r="C16" s="32" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="B17" s="32">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>371</v>
+      <c r="C17" s="32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="B18" s="32">
+        <v>14</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B19" s="32">
+        <v>15</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="B20" s="32">
+        <v>16</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B21" s="32">
+        <v>17</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="B22" s="32">
+        <v>18</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="B23" s="32">
+        <v>19</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="B24" s="32">
+        <v>20</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="B25" s="32">
+        <v>21</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="B26" s="32">
+        <v>22</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3674,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3553,23 +3685,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3579,75 +3711,63 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="32" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>159</v>
+      <c r="A5" s="32" t="s">
+        <v>532</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>372</v>
+      <c r="C5" s="32" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>160</v>
+      <c r="A6" s="32" t="s">
+        <v>533</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>373</v>
+      <c r="C6" s="32" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>161</v>
+      <c r="A7" s="32" t="s">
+        <v>534</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>374</v>
+      <c r="C7" s="32" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>162</v>
+      <c r="A8" s="32" t="s">
+        <v>535</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>375</v>
+      <c r="C8" s="32" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>376</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>377</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
@@ -3695,12 +3815,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3722,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3733,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201F026-80B2-4F4C-855C-FF8AD557BCE3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3758,12 +3878,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3796,29 +3916,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="30" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>569</v>
+      <c r="C7" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -3843,12 +3963,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3875,123 +3995,123 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" s="4">
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B12" s="4">
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B14" s="4">
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -4016,12 +4136,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4048,24 +4168,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4076,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4101,12 +4221,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4133,79 +4253,79 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="4">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B9" s="4">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B11" s="4">
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4230,12 +4350,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4262,68 +4382,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4349,12 +4469,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4387,29 +4507,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4434,12 +4554,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4466,46 +4586,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4531,12 +4651,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4563,134 +4683,134 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B16" s="10">
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4716,12 +4836,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4748,24 +4868,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4791,27 +4911,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4827,178 +4947,178 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="B10" s="15">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="B11" s="15">
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="14" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="B12" s="15">
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="B13" s="15">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="14" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="B14" s="15">
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="B15" s="15">
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="28" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="B16" s="15">
         <v>100</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="28" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="B17" s="15">
         <v>101</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>554</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B18" s="15">
         <v>1000</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>555</v>
+        <v>517</v>
       </c>
       <c r="B19" s="15">
         <v>1001</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="B20" s="15">
         <v>1002</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -5023,27 +5143,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5059,24 +5179,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5102,27 +5222,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5138,35 +5258,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>546</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -5191,27 +5311,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5227,57 +5347,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -5302,27 +5422,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5338,24 +5458,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -5381,27 +5501,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5417,57 +5537,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5492,27 +5612,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5528,68 +5648,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="20" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="B7" s="22">
         <v>3</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="20" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="B8" s="22">
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="B9" s="22">
         <v>5</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="20" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="B10" s="22">
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5662,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5673,7 +5793,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5699,27 +5819,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5735,266 +5855,266 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="20" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="B7" s="22">
         <v>3</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="20" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="B8" s="22">
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="B9" s="22">
         <v>5</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="20" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="B10" s="22">
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="B12" s="17">
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>562</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="20" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="B13" s="23">
         <v>9</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="20" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="B14" s="23">
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="20" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="B15" s="22">
         <v>101</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="20" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="B16" s="22">
         <v>102</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="20" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="B17" s="22">
         <v>103</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="20" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="B18" s="22">
         <v>104</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="20" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="B19" s="22">
         <v>105</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="20" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="B20" s="22">
         <v>106</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="B21" s="22">
         <v>107</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="20" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="B22" s="22">
         <v>108</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="20" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="B23" s="22">
         <v>109</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="20" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="B24" s="22">
         <v>110</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="20" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B25" s="22">
         <v>111</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="20" t="s">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="B26" s="22">
         <v>112</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="20" t="s">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="B27" s="22">
         <v>113</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="20" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="B28" s="22">
         <v>114</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6020,27 +6140,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6056,24 +6176,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>543</v>
+        <v>505</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>544</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -6097,12 +6217,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6129,46 +6249,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -6231,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6242,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6253,7 +6373,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6264,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6317,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6328,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6339,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6350,7 +6470,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6361,7 +6481,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6372,7 +6492,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6383,7 +6503,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6394,51 +6514,51 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6449,7 +6569,7 @@
         <v>3001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6460,7 +6580,7 @@
         <v>3003</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6471,7 +6591,7 @@
         <v>3004</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6482,7 +6602,7 @@
         <v>2003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6493,18 +6613,18 @@
         <v>2004</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B21" s="7">
         <v>9999</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6515,7 +6635,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6526,7 +6646,7 @@
         <v>2001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6537,7 +6657,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6548,7 +6668,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6559,7 +6679,7 @@
         <v>2007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6570,7 +6690,7 @@
         <v>2008</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6581,7 +6701,7 @@
         <v>2009</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6592,7 +6712,7 @@
         <v>2010</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6603,7 +6723,7 @@
         <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6614,7 +6734,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6625,7 +6745,7 @@
         <v>2013</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6636,7 +6756,7 @@
         <v>2014</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6647,7 +6767,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6658,7 +6778,7 @@
         <v>2016</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6669,7 +6789,7 @@
         <v>2017</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6680,7 +6800,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6691,7 +6811,7 @@
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6702,7 +6822,7 @@
         <v>2020</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6713,7 +6833,7 @@
         <v>3002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6724,7 +6844,7 @@
         <v>3005</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6735,7 +6855,7 @@
         <v>3006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6746,7 +6866,7 @@
         <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6757,7 +6877,7 @@
         <v>3008</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6768,7 +6888,7 @@
         <v>3009</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6779,7 +6899,7 @@
         <v>3010</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6790,7 +6910,7 @@
         <v>3011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6801,7 +6921,7 @@
         <v>3012</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6812,7 +6932,7 @@
         <v>3013</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6823,7 +6943,7 @@
         <v>3014</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6834,7 +6954,7 @@
         <v>3015</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6845,7 +6965,7 @@
         <v>3016</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6856,7 +6976,7 @@
         <v>3017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6867,7 +6987,7 @@
         <v>3018</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6878,7 +6998,7 @@
         <v>3019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6889,7 +7009,7 @@
         <v>3020</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6900,7 +7020,7 @@
         <v>3021</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6911,7 +7031,7 @@
         <v>3022</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6922,7 +7042,7 @@
         <v>3023</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6933,7 +7053,7 @@
         <v>3024</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6944,7 +7064,7 @@
         <v>3025</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6955,7 +7075,7 @@
         <v>3026</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6966,7 +7086,7 @@
         <v>3027</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6977,7 +7097,7 @@
         <v>4001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6988,7 +7108,7 @@
         <v>4002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6999,7 +7119,7 @@
         <v>5001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7010,7 +7130,7 @@
         <v>5002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7021,7 +7141,7 @@
         <v>5003</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7032,7 +7152,7 @@
         <v>5004</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7043,7 +7163,7 @@
         <v>5005</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7054,7 +7174,7 @@
         <v>5006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7065,7 +7185,7 @@
         <v>5007</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7076,7 +7196,7 @@
         <v>6001</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7087,7 +7207,7 @@
         <v>6002</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7098,7 +7218,7 @@
         <v>6003</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7109,7 +7229,7 @@
         <v>6004</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7120,7 +7240,7 @@
         <v>6005</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7131,7 +7251,7 @@
         <v>6006</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7142,7 +7262,7 @@
         <v>6007</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7153,7 +7273,7 @@
         <v>6008</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7164,7 +7284,7 @@
         <v>6009</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7175,7 +7295,7 @@
         <v>6010</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -7201,12 +7321,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7222,68 +7342,68 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7294,40 +7414,40 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -7352,12 +7472,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="66">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7384,24 +7504,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>548</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7431,7 +7551,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7464,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7475,7 +7595,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33">
@@ -7486,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC4C73-25AC-4A58-BB43-9078C6E585AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03CC3D8-07AA-4A01-A973-DA06E3E75D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" activeTab="11" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="18" activeTab="31" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="@charge_type" sheetId="32" r:id="rId29"/>
     <sheet name="@reward_type" sheetId="33" r:id="rId30"/>
     <sheet name="@effect_count_type" sheetId="34" r:id="rId31"/>
+    <sheet name="@love_level_type" sheetId="36" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="597">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2353,12 +2354,48 @@
   <si>
     <t>22 기타 소품 및 의상 4</t>
   </si>
+  <si>
+    <t>LOVE_LEVEL_TYPE</t>
+  </si>
+  <si>
+    <t>캐릭터 상태 타입</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>1 어색함</t>
+  </si>
+  <si>
+    <t>FRIENDLINESS</t>
+  </si>
+  <si>
+    <t>2 친근함</t>
+  </si>
+  <si>
+    <t>CLOSENESS</t>
+  </si>
+  <si>
+    <t>3 절친함</t>
+  </si>
+  <si>
+    <t>LIKE</t>
+  </si>
+  <si>
+    <t>4 좋아함</t>
+  </si>
+  <si>
+    <t>LOVE</t>
+  </si>
+  <si>
+    <t>5 사랑함</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2449,8 +2486,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2497,6 +2542,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B083"/>
         <bgColor rgb="FFF4B083"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE2EFD9"/>
       </patternFill>
     </fill>
   </fills>
@@ -2628,7 +2679,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2716,6 +2767,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3378,7 +3442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -6202,6 +6266,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2968D76-F4EB-40C4-B6BF-B73A7C24BD94}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="37">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="B7" s="32">
+        <v>3</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="B8" s="32">
+        <v>4</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="B9" s="32">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B40BC4-9805-4623-B57A-B0D8848D1C3A}">
   <dimension ref="A1:C8"/>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03CC3D8-07AA-4A01-A973-DA06E3E75D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3A1F20-97A7-46FC-A76B-A881A0E3EF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="18" activeTab="31" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="18" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -2060,10 +2060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>113 스킬 경험치 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXP_SKILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2389,6 +2385,10 @@
   </si>
   <si>
     <t>5 사랑함</t>
+  </si>
+  <si>
+    <t>114 스킬 경험치 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3482,249 +3482,249 @@
         <v>0</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B6" s="32">
         <v>2</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B7" s="32">
         <v>3</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B8" s="32">
         <v>4</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B9" s="32">
         <v>5</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B10" s="32">
         <v>6</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B11" s="32">
         <v>7</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B12" s="32">
         <v>8</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B13" s="32">
         <v>9</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B14" s="32">
         <v>10</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B15" s="32">
         <v>11</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B16" s="32">
         <v>12</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B17" s="32">
         <v>13</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B18" s="32">
         <v>14</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B19" s="32">
         <v>15</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B20" s="32">
         <v>16</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B21" s="32">
         <v>17</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B22" s="32">
         <v>18</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B23" s="32">
         <v>19</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B24" s="32">
         <v>20</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B25" s="32">
         <v>21</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B26" s="32">
         <v>22</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -3781,46 +3781,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3996,13 +3996,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B7" s="31">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -4169,13 +4169,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -4975,14 +4975,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5143,13 +5143,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B17" s="15">
         <v>101</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5165,24 +5165,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B19" s="15">
         <v>1001</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B20" s="15">
         <v>1002</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -5196,7 +5196,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="A3:C6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5260,7 +5260,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -5344,13 +5344,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -5870,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5883,7 +5883,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -6002,7 +6002,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6013,7 +6013,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6024,7 +6024,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6150,7 +6150,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B26" s="22">
         <v>112</v>
@@ -6161,24 +6161,24 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B27" s="22">
         <v>113</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B28" s="22">
         <v>114</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -6204,14 +6204,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -6240,24 +6240,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -6270,7 +6270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2968D76-F4EB-40C4-B6BF-B73A7C24BD94}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -6282,14 +6282,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -6318,57 +6318,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B6" s="37">
         <v>2</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B7" s="32">
         <v>3</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B8" s="32">
         <v>4</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B9" s="32">
         <v>5</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7696,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3A1F20-97A7-46FC-A76B-A881A0E3EF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86AD75C-8F5E-46E1-96B3-AEC698D9EFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="18" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="41130" yWindow="2730" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="18" activeTab="20" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,17 @@
     <sheet name="@projectile_type" sheetId="14" r:id="rId18"/>
     <sheet name="@inequality_type" sheetId="18" r:id="rId19"/>
     <sheet name="@skill_type" sheetId="20" r:id="rId20"/>
-    <sheet name="@item_type" sheetId="21" r:id="rId21"/>
-    <sheet name="@Limit" sheetId="26" r:id="rId22"/>
-    <sheet name="@item_type_v2" sheetId="27" r:id="rId23"/>
-    <sheet name="@goods_type" sheetId="35" r:id="rId24"/>
-    <sheet name="@piece_type" sheetId="28" r:id="rId25"/>
-    <sheet name="@eqipment_type" sheetId="29" r:id="rId26"/>
-    <sheet name="@drop_type" sheetId="30" r:id="rId27"/>
-    <sheet name="@repeat_type" sheetId="31" r:id="rId28"/>
-    <sheet name="@charge_type" sheetId="32" r:id="rId29"/>
-    <sheet name="@reward_type" sheetId="33" r:id="rId30"/>
-    <sheet name="@effect_count_type" sheetId="34" r:id="rId31"/>
-    <sheet name="@love_level_type" sheetId="36" r:id="rId32"/>
+    <sheet name="@Limit" sheetId="26" r:id="rId21"/>
+    <sheet name="@item_type_v2" sheetId="27" r:id="rId22"/>
+    <sheet name="@goods_type" sheetId="35" r:id="rId23"/>
+    <sheet name="@piece_type" sheetId="28" r:id="rId24"/>
+    <sheet name="@eqipment_type" sheetId="29" r:id="rId25"/>
+    <sheet name="@drop_type" sheetId="30" r:id="rId26"/>
+    <sheet name="@repeat_type" sheetId="31" r:id="rId27"/>
+    <sheet name="@charge_type" sheetId="32" r:id="rId28"/>
+    <sheet name="@reward_type" sheetId="33" r:id="rId29"/>
+    <sheet name="@effect_count_type" sheetId="34" r:id="rId30"/>
+    <sheet name="@love_level_type" sheetId="36" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="575">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -718,14 +717,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템의 종류 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GOLD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,38 +725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DUNGEON_TICKET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER_PIECE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMORIAL_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIPMENT_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPENDABLE_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STA_POTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NEAREST_ADD_BACK_RANGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -843,14 +802,6 @@
   </si>
   <si>
     <t>HEALER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAVORITE_ITEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAMINA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1581,51 +1532,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 던전 입장 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 캐릭터 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 스테미나 회복 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 캐릭터 완전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 각종 소모용 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 호감도 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 스태미나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 데미지를 준다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 체력 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 사용하지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2551,7 +2462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2569,19 +2480,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2679,7 +2577,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2710,14 +2608,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2726,11 +2621,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2745,7 +2640,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2755,31 +2650,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3148,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3159,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3170,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3181,7 +3076,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3192,7 +3087,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3203,7 +3098,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3267,7 +3162,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3278,7 +3173,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3289,7 +3184,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3300,7 +3195,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3311,7 +3206,7 @@
         <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3322,7 +3217,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3333,7 +3228,7 @@
         <v>600</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3344,7 +3239,7 @@
         <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3355,7 +3250,7 @@
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3366,7 +3261,7 @@
         <v>900</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3418,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3429,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3475,256 +3370,256 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>0</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="31">
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="31">
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="31">
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="31">
+        <v>6</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="31">
+        <v>7</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="31">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="31">
+        <v>9</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="B14" s="31">
+        <v>10</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="B15" s="31">
+        <v>11</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" s="31">
+        <v>12</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="B17" s="31">
+        <v>13</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="B18" s="31">
+        <v>14</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="B19" s="31">
+        <v>15</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="B20" s="31">
+        <v>16</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="B21" s="31">
+        <v>17</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="B22" s="31">
+        <v>18</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="B23" s="31">
+        <v>19</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B24" s="31">
+        <v>20</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="B25" s="31">
+        <v>21</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="B26" s="31">
+        <v>22</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="B6" s="32">
-        <v>2</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="B7" s="32">
-        <v>3</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="B8" s="32">
-        <v>4</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="B9" s="32">
-        <v>5</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="B10" s="32">
-        <v>6</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="B11" s="32">
-        <v>7</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="B12" s="32">
-        <v>8</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="B13" s="32">
-        <v>9</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="B14" s="32">
-        <v>10</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="B15" s="32">
-        <v>11</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="B16" s="32">
-        <v>12</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="B17" s="32">
-        <v>13</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="B18" s="32">
-        <v>14</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="B19" s="32">
-        <v>15</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="B20" s="32">
-        <v>16</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="B21" s="32">
-        <v>17</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="B22" s="32">
-        <v>18</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="B23" s="32">
-        <v>19</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="B24" s="32">
-        <v>20</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="B25" s="32">
-        <v>21</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="B26" s="32">
-        <v>22</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -3775,52 +3670,52 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>531</v>
+      <c r="A5" s="31" t="s">
+        <v>509</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>535</v>
+      <c r="C5" s="31" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="32" t="s">
-        <v>532</v>
+      <c r="A6" s="31" t="s">
+        <v>510</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>536</v>
+      <c r="C6" s="31" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="32" t="s">
-        <v>533</v>
+      <c r="A7" s="31" t="s">
+        <v>511</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>537</v>
+      <c r="C7" s="31" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="32" t="s">
-        <v>534</v>
+      <c r="A8" s="31" t="s">
+        <v>512</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>538</v>
+      <c r="C8" s="31" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3906,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3917,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3991,18 +3886,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="B7" s="31">
+      <c r="A7" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="30">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4065,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4076,7 +3971,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4087,7 +3982,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4098,7 +3993,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4109,7 +4004,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4120,7 +4015,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4131,7 +4026,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4142,7 +4037,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4153,7 +4048,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4164,18 +4059,18 @@
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4249,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4260,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4323,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4334,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4345,7 +4240,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4356,7 +4251,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4367,7 +4262,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4378,7 +4273,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4389,7 +4284,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4463,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4474,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4485,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4496,7 +4391,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4507,7 +4402,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4533,12 +4428,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4571,29 +4466,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4667,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4678,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4689,7 +4584,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4699,195 +4594,10 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C464C-C842-4AB9-9527-BBBC25FBEA65}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="4">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="10">
-        <v>12</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240FE169-3136-4679-B292-EDADF74521B3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4900,12 +4610,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4932,24 +4642,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -4958,7 +4668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1088A-6383-4970-B62A-7C454CE419D1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -4974,215 +4684,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>468</v>
+      <c r="C5" s="13" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>471</v>
+      <c r="C6" s="13" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>473</v>
+      <c r="C7" s="13" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>474</v>
+      <c r="C8" s="13" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="A9" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>475</v>
+      <c r="C9" s="13" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" s="14">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>476</v>
+      <c r="C10" s="13" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="15">
+      <c r="A11" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="14">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>477</v>
+      <c r="C11" s="13" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="A12" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="14">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>478</v>
+      <c r="C12" s="13" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="A13" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="14">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>479</v>
+      <c r="C13" s="13" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="14">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>480</v>
+      <c r="C14" s="13" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="A15" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="14">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>481</v>
+      <c r="C15" s="13" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="14">
         <v>100</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>467</v>
+      <c r="C16" s="27" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="A17" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="B17" s="14">
         <v>101</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>515</v>
+      <c r="C17" s="27" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" s="15">
+      <c r="A18" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18" s="14">
         <v>1000</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>482</v>
+      <c r="C18" s="13" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="A19" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B19" s="14">
         <v>1001</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>517</v>
+      <c r="C19" s="13" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="B20" s="15">
+      <c r="A20" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" s="14">
         <v>1002</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>519</v>
+      <c r="C20" s="13" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5191,7 +4901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F89EF-0F0F-4075-904C-1C3C96CA34C5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5206,61 +4916,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>521</v>
+      <c r="C5" s="13" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5269,7 +4979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186929D7-17CE-4E2C-A241-4DB8004E32D1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5285,72 +4995,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>419</v>
+      <c r="C5" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>483</v>
+      <c r="C6" s="13" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>507</v>
+      <c r="C7" s="13" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -5359,7 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253C689-5915-46B0-9A11-3A87439C791E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5374,94 +5084,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+        <v>395</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>423</v>
+      <c r="C5" s="13" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>425</v>
+      <c r="C6" s="13" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>427</v>
+      <c r="C7" s="13" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>429</v>
+      <c r="C8" s="13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="A9" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>431</v>
+      <c r="C9" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5470,7 +5180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0553439-B289-4B44-829E-DF7C62935DF1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5485,61 +5195,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+        <v>411</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>435</v>
+      <c r="C5" s="13" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>437</v>
+      <c r="C6" s="13" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5548,7 +5258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F1C228-FB57-41C9-B960-3C2B62DD9EAC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5564,94 +5274,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+        <v>418</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>442</v>
+      <c r="C5" s="13" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>444</v>
+      <c r="C6" s="19" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>446</v>
+      <c r="C7" s="13" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>448</v>
+      <c r="C8" s="13" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="A9" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>450</v>
+      <c r="C9" s="13" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ED69EA-3163-4C88-A042-C08C12B28836}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5675,105 +5385,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>454</v>
+      <c r="C5" s="19" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="A6" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>456</v>
+      <c r="C6" s="19" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="B7" s="22">
+      <c r="A7" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>458</v>
+      <c r="C7" s="19" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="B8" s="22">
+      <c r="A8" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" s="21">
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>460</v>
+      <c r="C8" s="19" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="21">
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="21">
+        <v>6</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="21">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="21">
+        <v>5</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="21">
+        <v>6</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="16">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="22">
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" s="22">
+        <v>10</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
+      <c r="B15" s="21">
+        <v>101</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="22">
-        <v>6</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B16" s="21">
+        <v>102</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" s="21">
+        <v>103</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="21">
+        <v>104</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="21">
+        <v>105</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="21">
+        <v>106</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="21">
+        <v>107</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="21">
+        <v>108</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="21">
+        <v>109</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" s="21">
+        <v>110</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" s="21">
+        <v>111</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B26" s="21">
+        <v>112</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B27" s="21">
+        <v>113</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B28" s="21">
+        <v>114</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5835,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5846,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5857,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5867,327 +5898,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="22">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="B5" s="22">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="B6" s="22">
-        <v>2</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" s="22">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="B8" s="22">
-        <v>4</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="B9" s="22">
-        <v>5</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="B10" s="22">
-        <v>6</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="B11" s="17">
-        <v>7</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="B12" s="17">
-        <v>8</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="B13" s="23">
-        <v>9</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="B14" s="23">
-        <v>10</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="B15" s="22">
-        <v>101</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="B16" s="22">
-        <v>102</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="B17" s="22">
-        <v>103</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="B18" s="22">
-        <v>104</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="B19" s="22">
-        <v>105</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="B20" s="22">
-        <v>106</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="B21" s="22">
-        <v>107</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B22" s="22">
-        <v>108</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="B23" s="22">
-        <v>109</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="B24" s="22">
-        <v>110</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="B25" s="22">
-        <v>111</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="B26" s="22">
-        <v>112</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="B27" s="22">
-        <v>113</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="B28" s="22">
-        <v>114</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>596</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F896994F-4B61-40D5-A99E-60DC53E2EA3A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6203,61 +5913,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="29" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -6266,7 +5976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2968D76-F4EB-40C4-B6BF-B73A7C24BD94}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6281,94 +5991,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>0</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>586</v>
-      </c>
-      <c r="B5" s="32">
+      <c r="A5" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>587</v>
+      <c r="C5" s="31" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="32" t="s">
-        <v>588</v>
-      </c>
-      <c r="B6" s="37">
+      <c r="A6" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" s="36">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>589</v>
+      <c r="C6" s="31" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="32" t="s">
-        <v>590</v>
-      </c>
-      <c r="B7" s="32">
+      <c r="A7" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>591</v>
+      <c r="C7" s="31" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="B8" s="32">
+      <c r="A8" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B8" s="31">
         <v>4</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>593</v>
+      <c r="C8" s="31" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="32" t="s">
-        <v>594</v>
-      </c>
-      <c r="B9" s="32">
+      <c r="A9" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="B9" s="31">
         <v>5</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>595</v>
+      <c r="C9" s="31" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -6392,12 +6102,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6424,46 +6134,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6526,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6537,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6548,7 +6258,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6559,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6612,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6623,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6634,7 +6344,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6645,7 +6355,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6656,7 +6366,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6667,7 +6377,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6678,7 +6388,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6689,51 +6399,51 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6744,7 +6454,7 @@
         <v>3001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6755,7 +6465,7 @@
         <v>3003</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6766,7 +6476,7 @@
         <v>3004</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6777,7 +6487,7 @@
         <v>2003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6788,7 +6498,7 @@
         <v>2004</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6799,7 +6509,7 @@
         <v>9999</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6810,7 +6520,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6821,7 +6531,7 @@
         <v>2001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6832,7 +6542,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6843,7 +6553,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6854,7 +6564,7 @@
         <v>2007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6865,7 +6575,7 @@
         <v>2008</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6876,7 +6586,7 @@
         <v>2009</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6887,7 +6597,7 @@
         <v>2010</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6898,7 +6608,7 @@
         <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6909,7 +6619,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6920,7 +6630,7 @@
         <v>2013</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6931,7 +6641,7 @@
         <v>2014</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6942,7 +6652,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6953,7 +6663,7 @@
         <v>2016</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6964,7 +6674,7 @@
         <v>2017</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6975,7 +6685,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6986,7 +6696,7 @@
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6997,7 +6707,7 @@
         <v>2020</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7008,7 +6718,7 @@
         <v>3002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7019,7 +6729,7 @@
         <v>3005</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7030,7 +6740,7 @@
         <v>3006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7041,7 +6751,7 @@
         <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7052,7 +6762,7 @@
         <v>3008</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7063,7 +6773,7 @@
         <v>3009</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7074,7 +6784,7 @@
         <v>3010</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7085,7 +6795,7 @@
         <v>3011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7096,7 +6806,7 @@
         <v>3012</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7107,7 +6817,7 @@
         <v>3013</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7118,7 +6828,7 @@
         <v>3014</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7129,7 +6839,7 @@
         <v>3015</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7140,7 +6850,7 @@
         <v>3016</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7151,7 +6861,7 @@
         <v>3017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7162,7 +6872,7 @@
         <v>3018</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7173,7 +6883,7 @@
         <v>3019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7184,7 +6894,7 @@
         <v>3020</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7195,7 +6905,7 @@
         <v>3021</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7206,7 +6916,7 @@
         <v>3022</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7217,7 +6927,7 @@
         <v>3023</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7228,7 +6938,7 @@
         <v>3024</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7239,7 +6949,7 @@
         <v>3025</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7250,7 +6960,7 @@
         <v>3026</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7261,7 +6971,7 @@
         <v>3027</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7272,7 +6982,7 @@
         <v>4001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7283,7 +6993,7 @@
         <v>4002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7294,7 +7004,7 @@
         <v>5001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7305,7 +7015,7 @@
         <v>5002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7316,7 +7026,7 @@
         <v>5003</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7327,7 +7037,7 @@
         <v>5004</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7338,7 +7048,7 @@
         <v>5005</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7349,7 +7059,7 @@
         <v>5006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7360,7 +7070,7 @@
         <v>5007</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7371,7 +7081,7 @@
         <v>6001</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7382,7 +7092,7 @@
         <v>6002</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7393,7 +7103,7 @@
         <v>6003</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7404,7 +7114,7 @@
         <v>6004</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7415,7 +7125,7 @@
         <v>6005</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7426,7 +7136,7 @@
         <v>6006</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7437,7 +7147,7 @@
         <v>6007</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7448,7 +7158,7 @@
         <v>6008</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7459,7 +7169,7 @@
         <v>6009</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7470,7 +7180,7 @@
         <v>6010</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7496,12 +7206,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7517,68 +7227,68 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7589,40 +7299,40 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7685,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7696,7 +7406,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -7759,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7770,7 +7480,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33">
@@ -7781,7 +7491,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86AD75C-8F5E-46E1-96B3-AEC698D9EFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58F6C50-C008-431D-8B51-4A592A55498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41130" yWindow="2730" windowWidth="35370" windowHeight="15435" tabRatio="717" firstSheet="18" activeTab="20" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="40545" yWindow="3105" windowWidth="34815" windowHeight="16545" tabRatio="717" firstSheet="5" activeTab="5" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -973,10 +973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001 리더 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2001 남은 체력이 가장 많은 타겟 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2299,6 +2295,10 @@
   </si>
   <si>
     <t>114 스킬 경험치 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 리더 선택 (리더 없음)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2406,7 +2406,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2459,6 +2459,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
         <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2577,7 +2583,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2675,6 +2681,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3162,7 +3171,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3173,7 +3182,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3184,7 +3193,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3195,7 +3204,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3206,7 +3215,7 @@
         <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3217,7 +3226,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3228,7 +3237,7 @@
         <v>600</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3239,7 +3248,7 @@
         <v>700</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3250,7 +3259,7 @@
         <v>800</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3261,7 +3270,7 @@
         <v>900</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3324,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3377,249 +3386,249 @@
         <v>0</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B5" s="31">
         <v>1</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B6" s="31">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B7" s="31">
         <v>3</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B8" s="31">
         <v>4</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B9" s="31">
         <v>5</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B10" s="31">
         <v>6</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B11" s="31">
         <v>7</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B12" s="31">
         <v>8</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B13" s="31">
         <v>9</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" s="31">
         <v>10</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B15" s="31">
         <v>11</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B16" s="31">
         <v>12</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B17" s="31">
         <v>13</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B18" s="31">
         <v>14</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B19" s="31">
         <v>15</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B20" s="31">
         <v>16</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B21" s="31">
         <v>17</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B22" s="31">
         <v>18</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B23" s="31">
         <v>19</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B24" s="31">
         <v>20</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B25" s="31">
         <v>21</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B26" s="31">
         <v>22</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -3676,46 +3685,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3801,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3812,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3886,18 +3895,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B7" s="30">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -3960,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3971,7 +3980,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3982,7 +3991,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3993,7 +4002,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4004,7 +4013,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4015,7 +4024,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4026,7 +4035,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4037,7 +4046,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4048,7 +4057,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4059,18 +4068,18 @@
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4144,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4155,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4218,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4229,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4240,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4251,7 +4260,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4262,7 +4271,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4273,7 +4282,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4284,7 +4293,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4347,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4358,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4369,7 +4378,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4380,7 +4389,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4391,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4402,7 +4411,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4551,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4562,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4573,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4584,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -4597,7 +4606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240FE169-3136-4679-B292-EDADF74521B3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4610,12 +4619,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4642,24 +4651,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4685,14 +4694,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4721,178 +4730,178 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B10" s="14">
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" s="14">
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B12" s="14">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" s="14">
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B14" s="14">
         <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B15" s="14">
         <v>11</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B16" s="14">
         <v>100</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B17" s="14">
         <v>101</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B18" s="14">
         <v>1000</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B19" s="14">
         <v>1001</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B20" s="14">
         <v>1002</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4917,14 +4926,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4959,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4970,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4996,14 +5005,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5032,35 +5041,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -5085,14 +5094,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5121,57 +5130,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -5196,14 +5205,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5232,24 +5241,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -5275,14 +5284,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5311,57 +5320,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5386,14 +5395,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5422,68 +5431,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="21">
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B7" s="21">
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" s="21">
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" s="21">
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B10" s="21">
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5509,14 +5518,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5545,266 +5554,266 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="21">
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" s="21">
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" s="21">
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B9" s="21">
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" s="21">
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B11" s="16">
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B12" s="16">
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B13" s="22">
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B14" s="22">
         <v>10</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B15" s="21">
         <v>101</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B16" s="21">
         <v>102</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B17" s="21">
         <v>103</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B18" s="21">
         <v>104</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B19" s="21">
         <v>105</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B20" s="21">
         <v>106</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" s="21">
         <v>107</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B22" s="21">
         <v>108</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B23" s="21">
         <v>109</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B24" s="21">
         <v>110</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" s="21">
         <v>111</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B26" s="21">
         <v>112</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B27" s="21">
         <v>113</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B28" s="21">
         <v>114</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5914,14 +5923,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5950,24 +5959,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -5992,14 +6001,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -6028,57 +6037,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B5" s="31">
         <v>1</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B6" s="36">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B7" s="31">
         <v>3</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="31" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B8" s="31">
         <v>4</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="31" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B9" s="31">
         <v>5</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -6282,9 +6291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CC8C9-CF48-4FE8-8453-BB548170FBB0}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6513,14 +6522,14 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="37">
         <v>1001</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>242</v>
+      <c r="C22" s="37" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6531,7 +6540,7 @@
         <v>2001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6542,7 +6551,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6553,7 +6562,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6564,7 +6573,7 @@
         <v>2007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6575,7 +6584,7 @@
         <v>2008</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6586,7 +6595,7 @@
         <v>2009</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6597,7 +6606,7 @@
         <v>2010</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6608,7 +6617,7 @@
         <v>2011</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6619,7 +6628,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6630,7 +6639,7 @@
         <v>2013</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6641,7 +6650,7 @@
         <v>2014</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6652,7 +6661,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6663,7 +6672,7 @@
         <v>2016</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6674,7 +6683,7 @@
         <v>2017</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6685,7 +6694,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6696,7 +6705,7 @@
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6707,7 +6716,7 @@
         <v>2020</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6718,7 +6727,7 @@
         <v>3002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6729,7 +6738,7 @@
         <v>3005</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6740,7 +6749,7 @@
         <v>3006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6751,7 +6760,7 @@
         <v>3007</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6762,7 +6771,7 @@
         <v>3008</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6773,7 +6782,7 @@
         <v>3009</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6784,7 +6793,7 @@
         <v>3010</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6795,7 +6804,7 @@
         <v>3011</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6806,7 +6815,7 @@
         <v>3012</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6817,7 +6826,7 @@
         <v>3013</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6828,7 +6837,7 @@
         <v>3014</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6839,7 +6848,7 @@
         <v>3015</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6850,7 +6859,7 @@
         <v>3016</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6861,7 +6870,7 @@
         <v>3017</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6872,7 +6881,7 @@
         <v>3018</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6883,7 +6892,7 @@
         <v>3019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6894,7 +6903,7 @@
         <v>3020</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6905,7 +6914,7 @@
         <v>3021</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6916,7 +6925,7 @@
         <v>3022</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6927,7 +6936,7 @@
         <v>3023</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6938,7 +6947,7 @@
         <v>3024</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6949,7 +6958,7 @@
         <v>3025</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6960,7 +6969,7 @@
         <v>3026</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6971,7 +6980,7 @@
         <v>3027</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6982,7 +6991,7 @@
         <v>4001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6993,7 +7002,7 @@
         <v>4002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7004,7 +7013,7 @@
         <v>5001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7015,7 +7024,7 @@
         <v>5002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7026,7 +7035,7 @@
         <v>5003</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7037,7 +7046,7 @@
         <v>5004</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7048,7 +7057,7 @@
         <v>5005</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7059,7 +7068,7 @@
         <v>5006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7070,7 +7079,7 @@
         <v>5007</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7081,7 +7090,7 @@
         <v>6001</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7092,7 +7101,7 @@
         <v>6002</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7103,7 +7112,7 @@
         <v>6003</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7114,7 +7123,7 @@
         <v>6004</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7125,7 +7134,7 @@
         <v>6005</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7136,7 +7145,7 @@
         <v>6006</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7147,7 +7156,7 @@
         <v>6007</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7158,7 +7167,7 @@
         <v>6008</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7169,7 +7178,7 @@
         <v>6009</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7180,7 +7189,7 @@
         <v>6010</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7206,7 +7215,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7233,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7244,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7255,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7266,7 +7275,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7277,7 +7286,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7288,7 +7297,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7299,7 +7308,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7310,7 +7319,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7321,7 +7330,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7332,7 +7341,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -7395,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7406,7 +7415,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -7469,7 +7478,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7480,7 +7489,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33">
@@ -7491,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58F6C50-C008-431D-8B51-4A592A55498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EB2570-7AE8-492F-9CC8-E54260EFE3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3105" windowWidth="34815" windowHeight="16545" tabRatio="717" firstSheet="5" activeTab="5" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="48870" yWindow="1395" windowWidth="27915" windowHeight="18000" tabRatio="717" firstSheet="5" activeTab="5" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -65,8 +65,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AA051968-3CD2-4ACE-BCBC-9D90CC9EEF9B}</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{AA051968-3CD2-4ACE-BCBC-9D90CC9EEF9B}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    10000 번대 : 스탯 기준 타겟 설정
+20000 번대 : 상태이상 기준 타겟 설정</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="663">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2299,6 +2318,327 @@
   </si>
   <si>
     <t>1001 리더 선택 (리더 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_P_DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_M_DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_PM_DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_P_DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 확인용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_M_DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_MAX_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_MAX_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_P_ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_P_ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001 현재 체력이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10002 현재 체력이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10003 최대 체력이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10004 최대 체력이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10005 물리 공격력이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10006 물리 공격력이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10007 마법 공격력이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10008 마법 공격력이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10009 물리/ 마법 공격력이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10010 물리/ 마법 공격력이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10011 물리 방어력이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10012 물리 방어력이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10013 마법 방어력이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10014 마법 방어력이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10015 물리/ 마법 방어력이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10016 물리/ 마법 방어력이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10025 명중이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10026 명중이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10027 회피가 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10028 회피가 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10031 회복량이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10032 회복량이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>10033 강인함이 가장 낮은 대상</t>
+  </si>
+  <si>
+    <t>10034 강인함이 가장 높은 대상</t>
+  </si>
+  <si>
+    <t>20001 상태이상 중인 대상</t>
+  </si>
+  <si>
+    <t>20002 기절 중인 대상</t>
+  </si>
+  <si>
+    <t>20003 결박 중인 대상</t>
+  </si>
+  <si>
+    <t>20004 침묵 중인 대상</t>
+  </si>
+  <si>
+    <t>20005 빙결 중인 대상</t>
+  </si>
+  <si>
+    <t>LOW_M_ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_M_ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_PM_ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_PM_ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_PM_DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10017 물리 크리티컬 확률이 가장 낮은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10018 물리 크리티컬 확률이 가장 높은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10019 마법 크리티컬 확률이 가장 낮은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10020 마법 크리티컬 확률이 가장 높은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10021 물리 크리티컬 추가 대미지가 가장 낮은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022 물리 크리티컬 추가 대미지가 가장 높은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_P_CRI_INC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_P_CRI_INC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_M_CRI_INC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_M_CRI_INC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_P_CRI_ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_P_CRI_ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_ACCURACY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_ACCURACY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_EVASION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_EVASION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_ATK_RECOVERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_ATK_RECOVERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10029 타격 시 회복량이 가장 낮은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030 타격 시 회복량이 가장 높은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_HEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_HEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_RESIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_RESIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF_ALL_PROGRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUFF_ALL_PROGRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_STUN_PROGRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_BIND_PROGRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_SILENCE_PROGRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_FREEZ_PROGRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_ALL_PROGRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20101 버프 상태 중인 대상</t>
+  </si>
+  <si>
+    <t>20201 디버프 상태 중인 대상</t>
+  </si>
+  <si>
+    <t>LOW_M_CRI_ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_M_CRI_ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10024 마법 크리티컬 추가 대미지가 가장 높은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10023 마법 크리티컬 추가 대미지가 가장 낮은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_HP_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_HP_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_HP_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_HP_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003 남은 체력 비율이 가장 높은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004 남은 체력 비율이 가장 낮은 대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2406,7 +2746,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2463,7 +2803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2583,7 +2929,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2684,6 +3030,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2700,6 +3052,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="예림 김" id="{BBCC332F-F338-43A2-9F06-C88BA7D1F8F2}" userId="e5ea80ba949d36f3" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2997,6 +3355,15 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D2" dT="2024-02-02T05:32:39.80" personId="{BBCC332F-F338-43A2-9F06-C88BA7D1F8F2}" id="{AA051968-3CD2-4ACE-BCBC-9D90CC9EEF9B}">
+    <text>10000 번대 : 스탯 기준 타겟 설정
+20000 번대 : 상태이상 기준 타겟 설정</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B354BBA0-F5FC-4C02-9AEA-ADCAC802EF0E}">
   <dimension ref="A1:C10"/>
@@ -6288,31 +6655,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CC8C9-CF48-4FE8-8453-BB548170FBB0}">
-  <dimension ref="A1:C82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CC8C9-CF48-4FE8-8453-BB548170FBB0}">
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="52.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33">
+    <row r="2" spans="1:4" ht="33">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6322,8 +6692,11 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -6334,7 +6707,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -6345,7 +6718,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -6356,7 +6729,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -6367,7 +6740,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>103</v>
       </c>
@@ -6378,7 +6751,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>102</v>
       </c>
@@ -6389,7 +6762,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
@@ -6400,7 +6773,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
@@ -6411,7 +6784,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>180</v>
       </c>
@@ -6422,7 +6795,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>181</v>
       </c>
@@ -6433,7 +6806,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>182</v>
       </c>
@@ -6444,7 +6817,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>183</v>
       </c>
@@ -6455,746 +6828,1228 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>3001</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>3003</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>3004</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>2003</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="7">
         <v>2004</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="39">
         <v>9999</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="39" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="7">
         <v>1001</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="7" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="7">
         <v>2001</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="7">
         <v>2002</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="7">
         <v>2006</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="7">
         <v>2007</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="7">
         <v>2008</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="7">
         <v>2009</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="7">
         <v>2010</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="7">
         <v>2011</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="7">
         <v>2012</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="7">
         <v>2013</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="7">
         <v>2014</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="7">
         <v>2015</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="7">
         <v>2016</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="7">
         <v>2017</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="7">
         <v>2018</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="7">
         <v>2019</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="7">
         <v>2020</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="7">
         <v>3002</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="7">
         <v>3005</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="7" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="7">
         <v>3006</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="7">
         <v>3007</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="7">
         <v>3008</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="7">
         <v>3009</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="7">
         <v>3010</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="7">
         <v>3011</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="7">
         <v>3012</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="7">
         <v>3013</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="7">
         <v>3014</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="7" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="7">
         <v>3015</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="7">
         <v>3016</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="7">
         <v>3017</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="7">
         <v>3018</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="7" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="7">
         <v>3019</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="7">
         <v>3020</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="7">
         <v>3021</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="7">
         <v>3022</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="7" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="7">
         <v>3023</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="7">
         <v>3024</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="7">
         <v>3025</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="7">
         <v>3026</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="7" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="7">
         <v>3027</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="7">
         <v>4001</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="7">
         <v>4002</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="7">
         <v>5001</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="7">
         <v>5002</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="7">
         <v>5003</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="7">
         <v>5004</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="7">
         <v>5005</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="7">
         <v>5006</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="7">
         <v>5007</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="7">
         <v>6001</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="7">
         <v>6002</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="7">
         <v>6003</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="7">
         <v>6004</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="7" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="7">
         <v>6005</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="7" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="7">
         <v>6006</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="7">
         <v>6007</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="7" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="7">
         <v>6008</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="7">
         <v>6009</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="7">
         <v>6010</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="7" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="37" t="s">
+        <v>659</v>
+      </c>
+      <c r="B83" s="37">
+        <v>10001</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="D83" s="38" t="str">
+        <f>"= "&amp;C16</f>
+        <v>= 3001 남은 체력이 가장 낮은 타겟 선택</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="B84" s="37">
+        <v>10002</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="D84" s="38" t="str">
+        <f>"= "&amp;C23</f>
+        <v>= 2001 남은 체력이 가장 많은 타겟 선택</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="B85" s="37">
+        <v>10003</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="B86" s="37">
+        <v>10004</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="B87" s="37">
+        <v>10005</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="B88" s="37">
+        <v>10006</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="B89" s="37">
+        <v>10007</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="B90" s="37">
+        <v>10008</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="B91" s="37">
+        <v>10009</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B92" s="37">
+        <v>10010</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="B93" s="37">
+        <v>10011</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="B94" s="37">
+        <v>10012</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B95" s="37">
+        <v>10013</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="B96" s="37">
+        <v>10014</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="B97" s="37">
+        <v>10015</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="B98" s="37">
+        <v>10016</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="B99" s="37">
+        <v>10017</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="B100" s="37">
+        <v>10018</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="B101" s="37">
+        <v>10019</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="B102" s="37">
+        <v>10020</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="B103" s="37">
+        <v>10021</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="B104" s="37">
+        <v>10022</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="B105" s="37">
+        <v>10023</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="B106" s="37">
+        <v>10024</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" s="37">
+        <v>10025</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="B108" s="37">
+        <v>10026</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="B109" s="37">
+        <v>10027</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="B110" s="37">
+        <v>10028</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="B111" s="37">
+        <v>10029</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="B112" s="37">
+        <v>10030</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="B113" s="37">
+        <v>10031</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="B114" s="37">
+        <v>10032</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="B115" s="37">
+        <v>10033</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="B116" s="37">
+        <v>10034</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="B117" s="37">
+        <v>10035</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="B118" s="37">
+        <v>10036</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B119" s="37">
+        <v>20001</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="B120" s="37">
+        <v>20002</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="B121" s="37">
+        <v>20003</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="B122" s="37">
+        <v>20004</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="B123" s="37">
+        <v>20005</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="B124" s="37">
+        <v>20101</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="B125" s="37">
+        <v>20201</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EB2570-7AE8-492F-9CC8-E54260EFE3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3C9B2-DA51-45AE-8DCF-355C13CD6AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48870" yWindow="1395" windowWidth="27915" windowHeight="18000" tabRatio="717" firstSheet="5" activeTab="5" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="5" activeTab="5" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -2746,7 +2746,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2810,6 +2810,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2929,7 +2935,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3034,6 +3040,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6659,8 +6668,8 @@
   <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="3" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" activeCellId="2" sqref="C113:C114 C118 C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7572,7 +7581,7 @@
       <c r="B83" s="37">
         <v>10001</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="40" t="s">
         <v>586</v>
       </c>
       <c r="D83" s="38" t="str">
@@ -7587,7 +7596,7 @@
       <c r="B84" s="37">
         <v>10002</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C84" s="40" t="s">
         <v>587</v>
       </c>
       <c r="D84" s="38" t="str">
@@ -7602,7 +7611,7 @@
       <c r="B85" s="37">
         <v>10003</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="40" t="s">
         <v>661</v>
       </c>
     </row>
@@ -7613,7 +7622,7 @@
       <c r="B86" s="37">
         <v>10004</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="40" t="s">
         <v>662</v>
       </c>
     </row>
@@ -7624,7 +7633,7 @@
       <c r="B87" s="37">
         <v>10005</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="40" t="s">
         <v>588</v>
       </c>
     </row>
@@ -7635,7 +7644,7 @@
       <c r="B88" s="37">
         <v>10006</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="40" t="s">
         <v>589</v>
       </c>
     </row>
@@ -7646,7 +7655,7 @@
       <c r="B89" s="37">
         <v>10007</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="40" t="s">
         <v>590</v>
       </c>
     </row>
@@ -7657,7 +7666,7 @@
       <c r="B90" s="37">
         <v>10008</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="40" t="s">
         <v>591</v>
       </c>
     </row>
@@ -7668,7 +7677,7 @@
       <c r="B91" s="37">
         <v>10009</v>
       </c>
-      <c r="C91" s="37" t="s">
+      <c r="C91" s="40" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7679,7 +7688,7 @@
       <c r="B92" s="37">
         <v>10010</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="40" t="s">
         <v>593</v>
       </c>
     </row>
@@ -7690,7 +7699,7 @@
       <c r="B93" s="37">
         <v>10011</v>
       </c>
-      <c r="C93" s="37" t="s">
+      <c r="C93" s="40" t="s">
         <v>594</v>
       </c>
     </row>
@@ -7701,7 +7710,7 @@
       <c r="B94" s="37">
         <v>10012</v>
       </c>
-      <c r="C94" s="37" t="s">
+      <c r="C94" s="40" t="s">
         <v>595</v>
       </c>
     </row>
@@ -7712,7 +7721,7 @@
       <c r="B95" s="37">
         <v>10013</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="40" t="s">
         <v>596</v>
       </c>
     </row>
@@ -7723,7 +7732,7 @@
       <c r="B96" s="37">
         <v>10014</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="40" t="s">
         <v>597</v>
       </c>
     </row>
@@ -7734,7 +7743,7 @@
       <c r="B97" s="37">
         <v>10015</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="40" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7745,7 +7754,7 @@
       <c r="B98" s="37">
         <v>10016</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="40" t="s">
         <v>599</v>
       </c>
     </row>
@@ -7756,7 +7765,7 @@
       <c r="B99" s="37">
         <v>10017</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="40" t="s">
         <v>600</v>
       </c>
     </row>
@@ -7767,7 +7776,7 @@
       <c r="B100" s="37">
         <v>10018</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="40" t="s">
         <v>601</v>
       </c>
     </row>
@@ -7778,7 +7787,7 @@
       <c r="B101" s="37">
         <v>10019</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C101" s="40" t="s">
         <v>620</v>
       </c>
     </row>
@@ -7789,7 +7798,7 @@
       <c r="B102" s="37">
         <v>10020</v>
       </c>
-      <c r="C102" s="37" t="s">
+      <c r="C102" s="40" t="s">
         <v>621</v>
       </c>
     </row>
@@ -7800,7 +7809,7 @@
       <c r="B103" s="37">
         <v>10021</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="C103" s="40" t="s">
         <v>622</v>
       </c>
     </row>
@@ -7811,7 +7820,7 @@
       <c r="B104" s="37">
         <v>10022</v>
       </c>
-      <c r="C104" s="37" t="s">
+      <c r="C104" s="40" t="s">
         <v>623</v>
       </c>
     </row>
@@ -7822,7 +7831,7 @@
       <c r="B105" s="37">
         <v>10023</v>
       </c>
-      <c r="C105" s="37" t="s">
+      <c r="C105" s="40" t="s">
         <v>624</v>
       </c>
     </row>
@@ -7833,7 +7842,7 @@
       <c r="B106" s="37">
         <v>10024</v>
       </c>
-      <c r="C106" s="37" t="s">
+      <c r="C106" s="40" t="s">
         <v>625</v>
       </c>
     </row>
@@ -7844,7 +7853,7 @@
       <c r="B107" s="37">
         <v>10025</v>
       </c>
-      <c r="C107" s="37" t="s">
+      <c r="C107" s="40" t="s">
         <v>656</v>
       </c>
     </row>
@@ -7855,7 +7864,7 @@
       <c r="B108" s="37">
         <v>10026</v>
       </c>
-      <c r="C108" s="37" t="s">
+      <c r="C108" s="40" t="s">
         <v>655</v>
       </c>
     </row>
@@ -7866,7 +7875,7 @@
       <c r="B109" s="37">
         <v>10027</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="C109" s="40" t="s">
         <v>602</v>
       </c>
     </row>
@@ -7877,7 +7886,7 @@
       <c r="B110" s="37">
         <v>10028</v>
       </c>
-      <c r="C110" s="37" t="s">
+      <c r="C110" s="40" t="s">
         <v>603</v>
       </c>
     </row>
@@ -7888,7 +7897,7 @@
       <c r="B111" s="37">
         <v>10029</v>
       </c>
-      <c r="C111" s="37" t="s">
+      <c r="C111" s="40" t="s">
         <v>604</v>
       </c>
     </row>
@@ -7899,7 +7908,7 @@
       <c r="B112" s="37">
         <v>10030</v>
       </c>
-      <c r="C112" s="37" t="s">
+      <c r="C112" s="40" t="s">
         <v>605</v>
       </c>
     </row>
@@ -7910,7 +7919,7 @@
       <c r="B113" s="37">
         <v>10031</v>
       </c>
-      <c r="C113" s="37" t="s">
+      <c r="C113" s="40" t="s">
         <v>638</v>
       </c>
     </row>
@@ -7921,7 +7930,7 @@
       <c r="B114" s="37">
         <v>10032</v>
       </c>
-      <c r="C114" s="37" t="s">
+      <c r="C114" s="40" t="s">
         <v>639</v>
       </c>
     </row>
@@ -7954,7 +7963,7 @@
       <c r="B117" s="37">
         <v>10035</v>
       </c>
-      <c r="C117" s="37" t="s">
+      <c r="C117" s="40" t="s">
         <v>608</v>
       </c>
     </row>
@@ -7965,7 +7974,7 @@
       <c r="B118" s="37">
         <v>10036</v>
       </c>
-      <c r="C118" s="37" t="s">
+      <c r="C118" s="40" t="s">
         <v>609</v>
       </c>
     </row>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3C9B2-DA51-45AE-8DCF-355C13CD6AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5114C-EEC9-4B01-9FE7-B95FAC12597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="5" activeTab="5" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="7" activeTab="9" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="@reward_type" sheetId="33" r:id="rId29"/>
     <sheet name="@effect_count_type" sheetId="34" r:id="rId30"/>
     <sheet name="@love_level_type" sheetId="36" r:id="rId31"/>
+    <sheet name="@attribute_type" sheetId="37" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="742">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,26 +447,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CRITICAL_RATE</t>
-  </si>
-  <si>
-    <t>CRITICAL_POWER</t>
-  </si>
-  <si>
-    <t>ACCURACY</t>
-  </si>
-  <si>
-    <t>EVASION</t>
-  </si>
-  <si>
     <t>ATTACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEFENSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX_LIFE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,23 +660,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ATK_UP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF_UP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>APPROACH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_DOWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF_DOWN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1363,46 +1332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 공격력을 기준으로 배율 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200 방어력을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300 최대 체력을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400 현재 체력을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700 명중률을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800 회피율을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900 피해량을 기준으로 계산을 하기 위한 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 왼쪽 팀(아군)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1419,46 +1348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 피해 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102 기절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103 침묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 결박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105 빙결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106 공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107 방어력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108 공격력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109 방어력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 시간 지속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1547,14 +1436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 데미지를 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 체력 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LIMIT_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2034,14 +1915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXCHANGE_ATK_DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110 공격력 방어력 스탯 교환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITEM_TYPE_V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2114,10 +1987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 빈 이펙트(일회성 효과는 없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CLICK</t>
   </si>
   <si>
@@ -2639,6 +2508,442 @@
   </si>
   <si>
     <t>10004 남은 체력 비율이 가장 낮은 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELECTRICITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEGETARIUM</t>
+  </si>
+  <si>
+    <t>전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리타리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITALITY</t>
+  </si>
+  <si>
+    <t>MAGIC</t>
+  </si>
+  <si>
+    <t>마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCURACY_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVASION_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#기획 복사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#기획 작성용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력 증가</t>
+  </si>
+  <si>
+    <t>빙결</t>
+  </si>
+  <si>
+    <t>결박</t>
+  </si>
+  <si>
+    <t>침묵</t>
+  </si>
+  <si>
+    <t>기절</t>
+  </si>
+  <si>
+    <t>중독</t>
+  </si>
+  <si>
+    <t>피해 감소</t>
+  </si>
+  <si>
+    <t>마법 방어력 증가</t>
+  </si>
+  <si>
+    <t>물리 방어력 증가</t>
+  </si>
+  <si>
+    <t>물리 공격력 증가</t>
+  </si>
+  <si>
+    <t>마법 공격력 마법 방어력 스탯 교환</t>
+  </si>
+  <si>
+    <t>물리 공격력 물리 방어력 스탯 교환</t>
+  </si>
+  <si>
+    <t>물리/마법 공격력 물리/ 마법 방어력 스탯 교환</t>
+  </si>
+  <si>
+    <t>마법 공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAL_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 확률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 확률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 추가 대미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 추가 대미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 시 회복량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAL_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 확률 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 확률 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 추가 대미지 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 추가 대미지 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 시 회복량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#기획 작성용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#복사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFENSE_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 기준 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 기준 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 기준 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 기준 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 확률을 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 확률을 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 파워 기준 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중률 기준 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중률 기준 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 기준 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 기준 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 기준 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 파워 기준 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_LIFE_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 기준 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 기준 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 체력 기준 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIFE_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 체력 기준 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAL_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAL_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 기준 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 기준 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICS_ATTACK_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_ATTACK_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICS_DEFEND_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_DEFEND_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICS_ATTACK_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_ATTACK_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICS_DEFEND_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_DEFEND_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCHANGE_PHYSICS_ATTACK_DEFEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCHANGE_MAGIC_ATTACK_DEFEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCHANGE_ATTACK_DEFEND_ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICS_CRITICAL_CHANCE_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_CRITICAL_CHANCE_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICS_CRITICAL_POWER_ADD_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_CRITICAL_POWER_ADD_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVASION_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCURACY_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICS_CRITICAL_CHANCE_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_CRITICAL_CHANCE_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICS_CRITICAL_POWER_ADD_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_CRITICAL_POWER_ADD_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_LIFE_RECOVERY_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_LIFE_RECOVERY_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVASION_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCURACY_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYSICS_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGIC_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFENSE_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL_CHANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL_CHANCE_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL_POWER_ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL_POWER_ADD_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVASION_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCURACY_VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2646,7 +2951,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2745,8 +3050,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2819,8 +3130,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2895,26 +3212,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -2935,7 +3232,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3011,28 +3308,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3044,6 +3335,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3070,9 +3383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3110,7 +3423,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3216,7 +3529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3358,7 +3671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3428,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3439,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3450,7 +3763,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3461,7 +3774,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3472,7 +3785,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3483,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3494,30 +3807,32 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F8F7E-7298-47B3-9FA4-ABE1EAA46F31}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="3" max="3" width="58.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3527,8 +3842,15 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="46"/>
+      <c r="E3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>98</v>
       </c>
@@ -3539,114 +3861,365 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="4" t="str">
+        <f>F5</f>
+        <v>100 공격력 기준 절대값 계산</v>
+      </c>
+      <c r="E5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F5" t="str">
+        <f>B5&amp;" "&amp;E5</f>
+        <v>100 공격력 기준 절대값 계산</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>108</v>
+        <v>734</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="4" t="str">
+        <f t="shared" ref="C6:C23" si="0">F6</f>
+        <v>101 공격력 기준 배율 계산</v>
+      </c>
+      <c r="E6" t="s">
+        <v>685</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F23" si="1">B6&amp;" "&amp;E6</f>
+        <v>101 공격력 기준 배율 계산</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B7" s="4">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>102 방어력 기준 절대값 계산</v>
+      </c>
+      <c r="E7" t="s">
+        <v>686</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>102 방어력 기준 절대값 계산</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="B8" s="45">
+        <v>103</v>
+      </c>
+      <c r="C8" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>103 방어력 기준 배율 계산</v>
+      </c>
+      <c r="E8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>103 방어력 기준 배율 계산</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="4">
+        <v>104</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>104 최대 체력 기준 절대값 계산</v>
+      </c>
+      <c r="E9" t="s">
+        <v>698</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>104 최대 체력 기준 절대값 계산</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="B10" s="45">
+        <v>105</v>
+      </c>
+      <c r="C10" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>105 최대 체력 기준 배율 계산</v>
+      </c>
+      <c r="E10" t="s">
+        <v>699</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>105 최대 체력 기준 배율 계산</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="4">
+        <v>106</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>106 현재 체력 기준 절대값 계산</v>
+      </c>
+      <c r="E11" t="s">
+        <v>700</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>106 현재 체력 기준 절대값 계산</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="B12" s="45">
+        <v>107</v>
+      </c>
+      <c r="C12" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>107 현재 체력 기준 배율 계산</v>
+      </c>
+      <c r="E12" t="s">
+        <v>702</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>107 현재 체력 기준 배율 계산</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B13" s="4">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>108 크리티컬 확률을 절대값 계산</v>
+      </c>
+      <c r="E13" t="s">
+        <v>688</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>108 크리티컬 확률을 절대값 계산</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="B14" s="45">
         <v>109</v>
       </c>
-      <c r="B7" s="4">
-        <v>200</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="C14" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>109 크리티컬 확률을 배율 계산</v>
+      </c>
+      <c r="E14" t="s">
+        <v>689</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>109 크리티컬 확률을 배율 계산</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="B15" s="4">
         <v>110</v>
       </c>
-      <c r="B8" s="4">
-        <v>300</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>110 크리티컬 파워 기준 절대값 계산</v>
+      </c>
+      <c r="E15" t="s">
+        <v>690</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>110 크리티컬 파워 기준 절대값 계산</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="B16" s="45">
         <v>111</v>
       </c>
-      <c r="B9" s="4">
-        <v>400</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="4">
-        <v>500</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="4">
-        <v>600</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="4">
-        <v>700</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="4">
-        <v>800</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="C16" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>111 크리티컬 파워 기준 배율 계산</v>
+      </c>
+      <c r="E16" t="s">
+        <v>696</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>111 크리티컬 파워 기준 배율 계산</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B17" s="4">
+        <v>112</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>112 명중률 기준 절대값 계산</v>
+      </c>
+      <c r="E17" t="s">
+        <v>691</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>112 명중률 기준 절대값 계산</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="B18" s="45">
+        <v>113</v>
+      </c>
+      <c r="C18" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>113 명중률 기준 배율 계산</v>
+      </c>
+      <c r="E18" t="s">
+        <v>692</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>113 명중률 기준 배율 계산</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B19" s="4">
+        <v>114</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>114 회피율 기준 절대값 계산</v>
+      </c>
+      <c r="E19" t="s">
+        <v>693</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>114 회피율 기준 절대값 계산</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="B20" s="45">
+        <v>115</v>
+      </c>
+      <c r="C20" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>115 회피율 기준 배율 계산</v>
+      </c>
+      <c r="E20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>115 회피율 기준 배율 계산</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="B21" s="45">
+        <v>116</v>
+      </c>
+      <c r="C21" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>116 회복량 기준 절대값 계산</v>
+      </c>
+      <c r="E21" t="s">
+        <v>705</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>116 회복량 기준 절대값 계산</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="B22" s="45">
+        <v>117</v>
+      </c>
+      <c r="C22" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>117 회복량 기준 배율 계산</v>
+      </c>
+      <c r="E22" t="s">
+        <v>706</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>117 회복량 기준 배율 계산</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="4">
-        <v>900</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>324</v>
+      <c r="B23" s="4">
+        <v>118</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>118 피해량 기준 배율 계산</v>
+      </c>
+      <c r="E23" t="s">
+        <v>695</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>118 피해량 기준 배율 계산</v>
       </c>
     </row>
   </sheetData>
@@ -3671,12 +4244,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3692,24 +4265,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3735,12 +4308,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3755,256 +4328,256 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>538</v>
+      <c r="C4" s="29" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="29">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="29">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" s="29">
+        <v>4</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" s="29">
+        <v>5</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="29">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" s="29">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" s="29">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="29">
+        <v>9</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="B14" s="29">
+        <v>10</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="B15" s="29">
+        <v>11</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="B16" s="29">
+        <v>12</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="B5" s="31">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="31" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" s="29">
+        <v>13</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="B6" s="31">
-        <v>2</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="B18" s="29">
+        <v>14</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="B7" s="31">
-        <v>3</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="31" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" s="29">
+        <v>15</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="B8" s="31">
-        <v>4</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="31" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="B20" s="29">
+        <v>16</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="B9" s="31">
-        <v>5</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="31" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="B21" s="29">
+        <v>17</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="B10" s="31">
-        <v>6</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="31" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="B22" s="29">
+        <v>18</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="B11" s="31">
-        <v>7</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="31" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="B23" s="29">
+        <v>19</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="B12" s="31">
-        <v>8</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="31" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="B24" s="29">
+        <v>20</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="B13" s="31">
-        <v>9</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="31" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" s="29">
+        <v>21</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="B14" s="31">
-        <v>10</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="31" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="B26" s="29">
+        <v>22</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>526</v>
-      </c>
-      <c r="B15" s="31">
-        <v>11</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="B16" s="31">
-        <v>12</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="B17" s="31">
-        <v>13</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="31" t="s">
-        <v>529</v>
-      </c>
-      <c r="B18" s="31">
-        <v>14</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="B19" s="31">
-        <v>15</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="B20" s="31">
-        <v>16</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="B21" s="31">
-        <v>17</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="B22" s="31">
-        <v>18</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="B23" s="31">
-        <v>19</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="B24" s="31">
-        <v>20</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="B25" s="31">
-        <v>21</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="B26" s="31">
-        <v>22</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -4029,23 +4602,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4055,52 +4628,52 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="31" t="s">
-        <v>508</v>
+      <c r="A5" s="29" t="s">
+        <v>474</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>512</v>
+      <c r="C5" s="29" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="31" t="s">
-        <v>509</v>
+      <c r="A6" s="29" t="s">
+        <v>475</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>513</v>
+      <c r="C6" s="29" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
-        <v>510</v>
+      <c r="A7" s="29" t="s">
+        <v>476</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>514</v>
+      <c r="C7" s="29" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="31" t="s">
-        <v>511</v>
+      <c r="A8" s="29" t="s">
+        <v>477</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>515</v>
+      <c r="C8" s="29" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4159,12 +4732,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4180,24 +4753,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4208,10 +4781,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201F026-80B2-4F4C-855C-FF8AD557BCE3}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4220,17 +4793,17 @@
     <col min="3" max="3" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4240,8 +4813,14 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4252,37 +4831,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>732</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="C5" s="4" t="str">
+        <f>F5</f>
+        <v>1 물리 대미지</v>
+      </c>
+      <c r="E5" t="s">
+        <v>678</v>
+      </c>
+      <c r="F5" t="str">
+        <f>B5&amp;" "&amp;E5</f>
+        <v>1 물리 대미지</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="B6" s="45">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="29" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="C6" s="45" t="str">
+        <f t="shared" ref="C6:C8" si="0">F6</f>
+        <v>2 마법 대미지</v>
+      </c>
+      <c r="E6" t="s">
+        <v>679</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F8" si="1">B6&amp;" "&amp;E6</f>
+        <v>2 마법 대미지</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>507</v>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3 체력 회복</v>
+      </c>
+      <c r="E7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>3 체력 회복</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4 빈 이펙트</v>
+      </c>
+      <c r="E8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>4 빈 이펙트</v>
       </c>
     </row>
   </sheetData>
@@ -4293,29 +4915,29 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4325,8 +4947,14 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4337,125 +4965,631 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="4" t="str">
+        <f>F5</f>
+        <v>1 피해 감소</v>
+      </c>
+      <c r="E5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F36" si="0">B5&amp;" "&amp;E5</f>
+        <v>1 피해 감소</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="4" t="str">
+        <f t="shared" ref="C6:C37" si="1">F6</f>
+        <v>101 중독</v>
+      </c>
+      <c r="E6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>101 중독</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>102 기절</v>
+      </c>
+      <c r="E7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>102 기절</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B8" s="4">
         <v>103</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>103 침묵</v>
+      </c>
+      <c r="E8" t="s">
+        <v>645</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>103 침묵</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>104 결박</v>
+      </c>
+      <c r="E9" t="s">
+        <v>644</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>104 결박</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>105 빙결</v>
+      </c>
+      <c r="E10" t="s">
+        <v>643</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>105 빙결</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>163</v>
+        <v>707</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>106 물리 공격력 증가</v>
+      </c>
+      <c r="E11" t="s">
+        <v>651</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>106 물리 공격력 증가</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="B12" s="45">
         <v>107</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>107 마법 공격력 증가</v>
+      </c>
+      <c r="E12" t="s">
+        <v>642</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>107 마법 공격력 증가</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>166</v>
+        <v>709</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>108 물리 방어력 증가</v>
+      </c>
+      <c r="E13" t="s">
+        <v>650</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>108 물리 방어력 증가</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="45" t="s">
+        <v>710</v>
+      </c>
+      <c r="B14" s="45">
         <v>109</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>109 마법 방어력 증가</v>
+      </c>
+      <c r="E14" t="s">
+        <v>649</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>109 마법 방어력 증가</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>487</v>
+        <v>711</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>488</v>
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>110 마법 공격력 감소</v>
+      </c>
+      <c r="E15" t="s">
+        <v>655</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>110 마법 공격력 감소</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="B16" s="45">
+        <v>111</v>
+      </c>
+      <c r="C16" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>111 마법 공격력 감소</v>
+      </c>
+      <c r="E16" t="s">
+        <v>655</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>111 마법 공격력 감소</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B17" s="4">
+        <v>112</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>112 물리 방어력 감소</v>
+      </c>
+      <c r="E17" t="s">
+        <v>664</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>112 물리 방어력 감소</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="B18" s="45">
+        <v>113</v>
+      </c>
+      <c r="C18" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>113 마법 방어력 감소</v>
+      </c>
+      <c r="E18" t="s">
+        <v>663</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>113 마법 방어력 감소</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B19" s="4">
+        <v>114</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>114 물리 공격력 물리 방어력 스탯 교환</v>
+      </c>
+      <c r="E19" t="s">
+        <v>653</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>114 물리 공격력 물리 방어력 스탯 교환</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="B20" s="45">
+        <v>115</v>
+      </c>
+      <c r="C20" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>115 마법 공격력 마법 방어력 스탯 교환</v>
+      </c>
+      <c r="E20" t="s">
+        <v>652</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>115 마법 공격력 마법 방어력 스탯 교환</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="B21" s="45">
+        <v>116</v>
+      </c>
+      <c r="C21" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>116 물리/마법 공격력 물리/ 마법 방어력 스탯 교환</v>
+      </c>
+      <c r="E21" t="s">
+        <v>654</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>116 물리/마법 공격력 물리/ 마법 방어력 스탯 교환</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="B22" s="45">
+        <v>117</v>
+      </c>
+      <c r="C22" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>117 물리 크리티컬 확률 증가</v>
+      </c>
+      <c r="E22" t="s">
+        <v>657</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>117 물리 크리티컬 확률 증가</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="45" t="s">
+        <v>719</v>
+      </c>
+      <c r="B23" s="45">
+        <v>118</v>
+      </c>
+      <c r="C23" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>118 마법 크리티컬 확률 증가</v>
+      </c>
+      <c r="E23" t="s">
+        <v>658</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>118 마법 크리티컬 확률 증가</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="45" t="s">
+        <v>720</v>
+      </c>
+      <c r="B24" s="45">
+        <v>119</v>
+      </c>
+      <c r="C24" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>119 물리 크리티컬 추가 대미지 증가</v>
+      </c>
+      <c r="E24" t="s">
+        <v>659</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>119 물리 크리티컬 추가 대미지 증가</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="B25" s="45">
+        <v>120</v>
+      </c>
+      <c r="C25" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>120 마법 크리티컬 추가 대미지 증가</v>
+      </c>
+      <c r="E25" t="s">
+        <v>660</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>120 마법 크리티컬 추가 대미지 증가</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="45" t="s">
+        <v>728</v>
+      </c>
+      <c r="B26" s="45">
+        <v>121</v>
+      </c>
+      <c r="C26" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>121 타격 시 회복량 증가</v>
+      </c>
+      <c r="E26" t="s">
+        <v>661</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>121 타격 시 회복량 증가</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="45" t="s">
+        <v>722</v>
+      </c>
+      <c r="B27" s="45">
+        <v>122</v>
+      </c>
+      <c r="C27" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>122 회피 증가</v>
+      </c>
+      <c r="E27" t="s">
+        <v>665</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>122 회피 증가</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="B28" s="45">
+        <v>123</v>
+      </c>
+      <c r="C28" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>123 명중 증가</v>
+      </c>
+      <c r="E28" t="s">
+        <v>666</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>123 명중 증가</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="45" t="s">
+        <v>656</v>
+      </c>
+      <c r="B29" s="45">
+        <v>124</v>
+      </c>
+      <c r="C29" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>124 회복량 증가</v>
+      </c>
+      <c r="E29" t="s">
+        <v>667</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>124 회복량 증가</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="B30" s="45">
+        <v>125</v>
+      </c>
+      <c r="C30" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>125 물리 크리티컬 확률 감소</v>
+      </c>
+      <c r="E30" t="s">
+        <v>668</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>125 물리 크리티컬 확률 감소</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="B31" s="45">
+        <v>126</v>
+      </c>
+      <c r="C31" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>126 마법 크리티컬 확률 감소</v>
+      </c>
+      <c r="E31" t="s">
+        <v>669</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>126 마법 크리티컬 확률 감소</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="B32" s="45">
+        <v>127</v>
+      </c>
+      <c r="C32" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>127 물리 크리티컬 추가 대미지 감소</v>
+      </c>
+      <c r="E32" t="s">
+        <v>670</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>127 물리 크리티컬 추가 대미지 감소</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="45" t="s">
+        <v>727</v>
+      </c>
+      <c r="B33" s="45">
+        <v>128</v>
+      </c>
+      <c r="C33" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>128 마법 크리티컬 추가 대미지 감소</v>
+      </c>
+      <c r="E33" t="s">
+        <v>671</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>128 마법 크리티컬 추가 대미지 감소</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="45" t="s">
+        <v>729</v>
+      </c>
+      <c r="B34" s="45">
+        <v>129</v>
+      </c>
+      <c r="C34" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>129 타격 시 회복량 감소</v>
+      </c>
+      <c r="E34" t="s">
+        <v>672</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>129 타격 시 회복량 감소</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="B35" s="45">
+        <v>130</v>
+      </c>
+      <c r="C35" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>130 회피 감소</v>
+      </c>
+      <c r="E35" t="s">
+        <v>673</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>130 회피 감소</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="B36" s="45">
+        <v>131</v>
+      </c>
+      <c r="C36" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>131 명중 감소</v>
+      </c>
+      <c r="E36" t="s">
+        <v>674</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>131 명중 감소</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="B37" s="45">
+        <v>132</v>
+      </c>
+      <c r="C37" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>132 회복량 감소</v>
+      </c>
+      <c r="E37" t="s">
+        <v>675</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" ref="F37" si="2">B37&amp;" "&amp;E37</f>
+        <v>132 회복량 감소</v>
       </c>
     </row>
   </sheetData>
@@ -4480,12 +5614,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4512,35 +5646,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4565,12 +5699,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4597,79 +5731,79 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B8" s="4">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B9" s="4">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B10" s="4">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B11" s="4">
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4694,12 +5828,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4726,68 +5860,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4813,12 +5947,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4851,29 +5985,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4898,12 +6032,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4930,46 +6064,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4995,12 +6129,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5027,24 +6161,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5070,27 +6204,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5106,178 +6240,178 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="B10" s="14">
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B11" s="14">
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="B12" s="14">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="13" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="B13" s="14">
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="B14" s="14">
         <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="13" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="B15" s="14">
         <v>11</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="27" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="B16" s="14">
         <v>100</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="B17" s="14">
         <v>101</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="B18" s="14">
         <v>1000</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="B19" s="14">
         <v>1001</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="B20" s="14">
         <v>1002</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -5302,27 +6436,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5338,24 +6472,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5381,27 +6515,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5417,35 +6551,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5470,27 +6604,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5506,57 +6640,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -5581,27 +6715,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5617,24 +6751,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -5660,27 +6794,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5696,57 +6830,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="B5" s="14">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -5771,27 +6905,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5807,68 +6941,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="B6" s="21">
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="B7" s="21">
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="B8" s="21">
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="B9" s="21">
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="B10" s="21">
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -5894,27 +7028,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5930,266 +7064,266 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="B6" s="21">
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B7" s="21">
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="B8" s="21">
         <v>4</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="B9" s="21">
         <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="B10" s="21">
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="15" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="B11" s="16">
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="15" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="B12" s="16">
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="B13" s="22">
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="19" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="B14" s="22">
         <v>10</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="19" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="B15" s="21">
         <v>101</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="19" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="B16" s="21">
         <v>102</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="B17" s="21">
         <v>103</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="19" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="B18" s="21">
         <v>104</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="19" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="B19" s="21">
         <v>105</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="19" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B20" s="21">
         <v>106</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="19" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="B21" s="21">
         <v>107</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="19" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="B22" s="21">
         <v>108</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="19" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="B23" s="21">
         <v>109</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="19" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="B24" s="21">
         <v>110</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="19" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="B25" s="21">
         <v>111</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="19" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="B26" s="21">
         <v>112</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="19" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B27" s="21">
         <v>113</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="19" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="B28" s="21">
         <v>114</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -6251,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6262,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6273,7 +7407,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6299,27 +7433,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6335,24 +7469,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -6366,7 +7500,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6376,94 +7510,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="A1" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>152</v>
+      <c r="A3" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="B5" s="31">
+      <c r="A5" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" s="29">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>564</v>
+      <c r="C5" s="29" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="B6" s="36">
+      <c r="A6" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>566</v>
+      <c r="C6" s="29" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
-        <v>567</v>
-      </c>
-      <c r="B7" s="31">
+      <c r="A7" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" s="29">
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>568</v>
+      <c r="C7" s="29" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="31" t="s">
-        <v>569</v>
-      </c>
-      <c r="B8" s="31">
+      <c r="A8" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" s="29">
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>570</v>
+      <c r="C8" s="29" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31" t="s">
-        <v>571</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="A9" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" s="29">
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>572</v>
+      <c r="C9" s="29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E649F-A5FD-4CBA-8C35-B48F46A25F32}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="42">
+        <v>0</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25">
+      <c r="A5" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25">
+      <c r="A6" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="44">
+        <v>2</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25">
+      <c r="A7" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="B7" s="42">
+        <v>3</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25">
+      <c r="A8" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="B8" s="42">
+        <v>4</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -6487,12 +7720,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6519,46 +7752,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6572,7 +7805,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6621,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6632,7 +7865,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6643,7 +7876,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6654,7 +7887,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6667,9 +7900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CC8C9-CF48-4FE8-8453-BB548170FBB0}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" activeCellId="2" sqref="C113:C114 C118 C117"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6688,7 +7921,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6702,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6713,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6724,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6735,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6746,7 +7979,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6757,7 +7990,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6768,7 +8001,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6779,7 +8012,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6790,51 +8023,51 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6845,7 +8078,7 @@
         <v>3001</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6856,7 +8089,7 @@
         <v>3003</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6867,7 +8100,7 @@
         <v>3004</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6878,7 +8111,7 @@
         <v>2003</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6889,18 +8122,18 @@
         <v>2004</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="39">
+      <c r="A21" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="37">
         <v>9999</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>241</v>
+      <c r="C21" s="37" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6911,7 +8144,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6922,7 +8155,7 @@
         <v>2001</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6933,7 +8166,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6944,7 +8177,7 @@
         <v>2006</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6955,7 +8188,7 @@
         <v>2007</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6966,7 +8199,7 @@
         <v>2008</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6977,7 +8210,7 @@
         <v>2009</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6988,7 +8221,7 @@
         <v>2010</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6999,7 +8232,7 @@
         <v>2011</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7010,7 +8243,7 @@
         <v>2012</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7021,7 +8254,7 @@
         <v>2013</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7032,7 +8265,7 @@
         <v>2014</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7043,7 +8276,7 @@
         <v>2015</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7054,7 +8287,7 @@
         <v>2016</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7065,7 +8298,7 @@
         <v>2017</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7076,7 +8309,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7087,7 +8320,7 @@
         <v>2019</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7098,7 +8331,7 @@
         <v>2020</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7109,7 +8342,7 @@
         <v>3002</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7120,7 +8353,7 @@
         <v>3005</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7131,7 +8364,7 @@
         <v>3006</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7142,7 +8375,7 @@
         <v>3007</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7153,7 +8386,7 @@
         <v>3008</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7164,7 +8397,7 @@
         <v>3009</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7175,7 +8408,7 @@
         <v>3010</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7186,7 +8419,7 @@
         <v>3011</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7197,7 +8430,7 @@
         <v>3012</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7208,7 +8441,7 @@
         <v>3013</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7219,7 +8452,7 @@
         <v>3014</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7230,7 +8463,7 @@
         <v>3015</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7241,7 +8474,7 @@
         <v>3016</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7252,7 +8485,7 @@
         <v>3017</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7263,7 +8496,7 @@
         <v>3018</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7274,7 +8507,7 @@
         <v>3019</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7285,7 +8518,7 @@
         <v>3020</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7296,7 +8529,7 @@
         <v>3021</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7307,7 +8540,7 @@
         <v>3022</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7318,7 +8551,7 @@
         <v>3023</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7329,7 +8562,7 @@
         <v>3024</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7340,7 +8573,7 @@
         <v>3025</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7351,7 +8584,7 @@
         <v>3026</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7362,7 +8595,7 @@
         <v>3027</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7373,7 +8606,7 @@
         <v>4001</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7384,7 +8617,7 @@
         <v>4002</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7395,7 +8628,7 @@
         <v>5001</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7406,7 +8639,7 @@
         <v>5002</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7417,7 +8650,7 @@
         <v>5003</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7428,7 +8661,7 @@
         <v>5004</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7439,7 +8672,7 @@
         <v>5005</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7450,7 +8683,7 @@
         <v>5006</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7461,7 +8694,7 @@
         <v>5007</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7472,7 +8705,7 @@
         <v>6001</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7483,7 +8716,7 @@
         <v>6002</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7494,7 +8727,7 @@
         <v>6003</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7505,7 +8738,7 @@
         <v>6004</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7516,7 +8749,7 @@
         <v>6005</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7527,7 +8760,7 @@
         <v>6006</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7538,7 +8771,7 @@
         <v>6007</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7549,7 +8782,7 @@
         <v>6008</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7560,7 +8793,7 @@
         <v>6009</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7571,488 +8804,488 @@
         <v>6010</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="37" t="s">
-        <v>659</v>
-      </c>
-      <c r="B83" s="37">
+      <c r="A83" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="B83" s="35">
         <v>10001</v>
       </c>
-      <c r="C83" s="40" t="s">
-        <v>586</v>
-      </c>
-      <c r="D83" s="38" t="str">
+      <c r="C83" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="D83" s="36" t="str">
         <f>"= "&amp;C16</f>
         <v>= 3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="37" t="s">
-        <v>660</v>
-      </c>
-      <c r="B84" s="37">
+      <c r="A84" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="B84" s="35">
         <v>10002</v>
       </c>
-      <c r="C84" s="40" t="s">
-        <v>587</v>
-      </c>
-      <c r="D84" s="38" t="str">
+      <c r="C84" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="D84" s="36" t="str">
         <f>"= "&amp;C23</f>
         <v>= 2001 남은 체력이 가장 많은 타겟 선택</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="B85" s="37">
+        <v>623</v>
+      </c>
+      <c r="B85" s="35">
         <v>10003</v>
       </c>
-      <c r="C85" s="40" t="s">
-        <v>661</v>
+      <c r="C85" s="38" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="B86" s="37">
+        <v>624</v>
+      </c>
+      <c r="B86" s="35">
         <v>10004</v>
       </c>
-      <c r="C86" s="40" t="s">
-        <v>662</v>
+      <c r="C86" s="38" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="B87" s="35">
+        <v>10005</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="B88" s="35">
+        <v>10006</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="B89" s="35">
+        <v>10007</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="B90" s="35">
+        <v>10008</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="B91" s="35">
+        <v>10009</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="B87" s="37">
-        <v>10005</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="37" t="s">
+      <c r="B92" s="35">
+        <v>10010</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="B88" s="37">
-        <v>10006</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="37" t="s">
+      <c r="B93" s="35">
+        <v>10011</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="B89" s="37">
-        <v>10007</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="B90" s="37">
-        <v>10008</v>
-      </c>
-      <c r="C90" s="40" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="B91" s="37">
-        <v>10009</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="37" t="s">
-        <v>616</v>
-      </c>
-      <c r="B92" s="37">
-        <v>10010</v>
-      </c>
-      <c r="C92" s="40" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="B93" s="37">
-        <v>10011</v>
-      </c>
-      <c r="C93" s="40" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="37" t="s">
-        <v>618</v>
-      </c>
-      <c r="B94" s="37">
+      <c r="B94" s="35">
         <v>10012</v>
       </c>
-      <c r="C94" s="40" t="s">
-        <v>595</v>
+      <c r="C94" s="38" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="B95" s="37">
+        <v>544</v>
+      </c>
+      <c r="B95" s="35">
         <v>10013</v>
       </c>
-      <c r="C95" s="40" t="s">
-        <v>596</v>
+      <c r="C95" s="38" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="B96" s="37">
+        <v>541</v>
+      </c>
+      <c r="B96" s="35">
         <v>10014</v>
       </c>
-      <c r="C96" s="40" t="s">
-        <v>597</v>
+      <c r="C96" s="38" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="B97" s="37">
+        <v>547</v>
+      </c>
+      <c r="B97" s="35">
         <v>10015</v>
       </c>
-      <c r="C97" s="40" t="s">
-        <v>598</v>
+      <c r="C97" s="38" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="B98" s="37">
+        <v>542</v>
+      </c>
+      <c r="B98" s="35">
         <v>10016</v>
       </c>
-      <c r="C98" s="40" t="s">
-        <v>599</v>
+      <c r="C98" s="38" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="B99" s="37">
+        <v>585</v>
+      </c>
+      <c r="B99" s="35">
         <v>10017</v>
       </c>
-      <c r="C99" s="40" t="s">
-        <v>600</v>
+      <c r="C99" s="38" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B100" s="35">
+        <v>10018</v>
+      </c>
+      <c r="C100" s="38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="B101" s="35">
+        <v>10019</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="B102" s="35">
+        <v>10020</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="B103" s="35">
+        <v>10021</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="35" t="s">
+        <v>595</v>
+      </c>
+      <c r="B104" s="35">
+        <v>10022</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="B105" s="35">
+        <v>10023</v>
+      </c>
+      <c r="C105" s="38" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="B106" s="35">
+        <v>10024</v>
+      </c>
+      <c r="C106" s="38" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="B107" s="35">
+        <v>10025</v>
+      </c>
+      <c r="C107" s="38" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="B108" s="35">
+        <v>10026</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="B109" s="35">
+        <v>10027</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="35" t="s">
+        <v>599</v>
+      </c>
+      <c r="B110" s="35">
+        <v>10028</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="B111" s="35">
+        <v>10029</v>
+      </c>
+      <c r="C111" s="38" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="B112" s="35">
+        <v>10030</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="B113" s="35">
+        <v>10031</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="35" t="s">
+        <v>603</v>
+      </c>
+      <c r="B114" s="35">
+        <v>10032</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="B115" s="35">
+        <v>10033</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="B116" s="35">
+        <v>10034</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="B117" s="35">
+        <v>10035</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="35" t="s">
+        <v>609</v>
+      </c>
+      <c r="B118" s="35">
+        <v>10036</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="B119" s="35">
+        <v>20001</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="B120" s="35">
+        <v>20002</v>
+      </c>
+      <c r="C120" s="35" t="s">
         <v>577</v>
       </c>
-      <c r="B100" s="37">
-        <v>10018</v>
-      </c>
-      <c r="C100" s="40" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="37" t="s">
-        <v>626</v>
-      </c>
-      <c r="B101" s="37">
-        <v>10019</v>
-      </c>
-      <c r="C101" s="40" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="B102" s="37">
-        <v>10020</v>
-      </c>
-      <c r="C102" s="40" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="37" t="s">
-        <v>628</v>
-      </c>
-      <c r="B103" s="37">
-        <v>10021</v>
-      </c>
-      <c r="C103" s="40" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="B104" s="37">
-        <v>10022</v>
-      </c>
-      <c r="C104" s="40" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="37" t="s">
-        <v>630</v>
-      </c>
-      <c r="B105" s="37">
-        <v>10023</v>
-      </c>
-      <c r="C105" s="40" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="37" t="s">
-        <v>631</v>
-      </c>
-      <c r="B106" s="37">
-        <v>10024</v>
-      </c>
-      <c r="C106" s="40" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="37" t="s">
-        <v>653</v>
-      </c>
-      <c r="B107" s="37">
-        <v>10025</v>
-      </c>
-      <c r="C107" s="40" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="37" t="s">
-        <v>654</v>
-      </c>
-      <c r="B108" s="37">
-        <v>10026</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="37" t="s">
-        <v>632</v>
-      </c>
-      <c r="B109" s="37">
-        <v>10027</v>
-      </c>
-      <c r="C109" s="40" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="B110" s="37">
-        <v>10028</v>
-      </c>
-      <c r="C110" s="40" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="37" t="s">
-        <v>634</v>
-      </c>
-      <c r="B111" s="37">
-        <v>10029</v>
-      </c>
-      <c r="C111" s="40" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="37" t="s">
-        <v>635</v>
-      </c>
-      <c r="B112" s="37">
-        <v>10030</v>
-      </c>
-      <c r="C112" s="40" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="37" t="s">
-        <v>636</v>
-      </c>
-      <c r="B113" s="37">
-        <v>10031</v>
-      </c>
-      <c r="C113" s="40" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="37" t="s">
-        <v>637</v>
-      </c>
-      <c r="B114" s="37">
-        <v>10032</v>
-      </c>
-      <c r="C114" s="40" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="37" t="s">
-        <v>640</v>
-      </c>
-      <c r="B115" s="37">
-        <v>10033</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="37" t="s">
-        <v>641</v>
-      </c>
-      <c r="B116" s="37">
-        <v>10034</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="B117" s="37">
-        <v>10035</v>
-      </c>
-      <c r="C117" s="40" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="37" t="s">
-        <v>643</v>
-      </c>
-      <c r="B118" s="37">
-        <v>10036</v>
-      </c>
-      <c r="C118" s="40" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="37" t="s">
-        <v>650</v>
-      </c>
-      <c r="B119" s="37">
-        <v>20001</v>
-      </c>
-      <c r="C119" s="37" t="s">
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="35" t="s">
+        <v>613</v>
+      </c>
+      <c r="B121" s="35">
+        <v>20003</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="35" t="s">
+        <v>614</v>
+      </c>
+      <c r="B122" s="35">
+        <v>20004</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="B123" s="35">
+        <v>20005</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="35" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="37" t="s">
-        <v>646</v>
-      </c>
-      <c r="B120" s="37">
-        <v>20002</v>
-      </c>
-      <c r="C120" s="37" t="s">
+      <c r="B124" s="35">
+        <v>20101</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="35" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="37" t="s">
-        <v>647</v>
-      </c>
-      <c r="B121" s="37">
-        <v>20003</v>
-      </c>
-      <c r="C121" s="37" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="37" t="s">
-        <v>648</v>
-      </c>
-      <c r="B122" s="37">
-        <v>20004</v>
-      </c>
-      <c r="C122" s="37" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="37" t="s">
-        <v>649</v>
-      </c>
-      <c r="B123" s="37">
-        <v>20005</v>
-      </c>
-      <c r="C123" s="37" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="B124" s="37">
-        <v>20101</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="37" t="s">
-        <v>645</v>
-      </c>
-      <c r="B125" s="37">
+      <c r="B125" s="35">
         <v>20201</v>
       </c>
-      <c r="C125" s="37" t="s">
-        <v>652</v>
+      <c r="C125" s="35" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -8079,12 +9312,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8100,112 +9333,112 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -8230,12 +9463,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="66">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8262,24 +9495,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -8309,7 +9542,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8342,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8353,7 +9586,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33">
@@ -8364,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5114C-EEC9-4B01-9FE7-B95FAC12597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E8BB5-69A5-452A-9450-B791143CF8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="7" activeTab="9" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="46050" yWindow="1155" windowWidth="28680" windowHeight="18420" tabRatio="717" firstSheet="7" activeTab="9" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -2715,82 +2715,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 기준 절대값 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 기준 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 기준 절대값 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 기준 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 확률을 절대값 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 확률을 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 파워 기준 절대값 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명중률 기준 절대값 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명중률 기준 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율 기준 절대값 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율 기준 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량 기준 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 파워 기준 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX_LIFE_RATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 체력 기준 절대값 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 체력 기준 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 체력 기준 절대값 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LIFE_RATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 체력 기준 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HEAL_VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2799,14 +2731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회복량 기준 절대값 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량 기준 배율 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PHYSICS_ATTACK_UP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2944,6 +2868,82 @@
   </si>
   <si>
     <t>ACCURACY_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 절대 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 절대값 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 배율 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 체력 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 확률 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 파워 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중률 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 배율 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 체력 절대 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 확률 절대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 파워 절대 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중률 절대 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 절대 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복량 절대 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3383,9 +3383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3423,7 +3423,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3529,7 +3529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3671,7 +3671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3810,7 +3810,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3870,337 +3870,337 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>F5</f>
-        <v>100 공격력 기준 절대값 계산</v>
+        <v>100 공격력 절대값 계산</v>
       </c>
       <c r="E5" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="F5" t="str">
         <f>B5&amp;" "&amp;E5</f>
-        <v>100 공격력 기준 절대값 계산</v>
+        <v>100 공격력 절대값 계산</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f t="shared" ref="C6:C23" si="0">F6</f>
-        <v>101 공격력 기준 배율 계산</v>
+        <f>F6</f>
+        <v>101 방어력 절대값 계산</v>
       </c>
       <c r="E6" t="s">
-        <v>685</v>
+        <v>725</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6:F23" si="1">B6&amp;" "&amp;E6</f>
-        <v>101 공격력 기준 배율 계산</v>
+        <f>B6&amp;" "&amp;E6</f>
+        <v>101 방어력 절대값 계산</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>735</v>
+        <v>105</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>102 방어력 기준 절대값 계산</v>
+        <f>F7</f>
+        <v>102 최대 체력 절대 값</v>
       </c>
       <c r="E7" t="s">
-        <v>686</v>
+        <v>723</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>102 방어력 기준 절대값 계산</v>
+        <f>B7&amp;" "&amp;E7</f>
+        <v>102 최대 체력 절대 값</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="B8" s="45">
+      <c r="A8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4">
         <v>103</v>
       </c>
-      <c r="C8" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>103 방어력 기준 배율 계산</v>
+      <c r="C8" s="4" t="str">
+        <f>F8</f>
+        <v>103 현재 체력 절대 값</v>
       </c>
       <c r="E8" t="s">
-        <v>687</v>
+        <v>736</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>103 방어력 기준 배율 계산</v>
+        <f>B8&amp;" "&amp;E8</f>
+        <v>103 현재 체력 절대 값</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>105</v>
+        <v>717</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>104 최대 체력 기준 절대값 계산</v>
+        <f>F9</f>
+        <v>104 크리티컬 확률 절대값</v>
       </c>
       <c r="E9" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>104 최대 체력 기준 절대값 계산</v>
+        <f>B9&amp;" "&amp;E9</f>
+        <v>104 크리티컬 확률 절대값</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="45" t="s">
-        <v>697</v>
-      </c>
-      <c r="B10" s="45">
+      <c r="A10" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B10" s="4">
         <v>105</v>
       </c>
-      <c r="C10" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>105 최대 체력 기준 배율 계산</v>
+      <c r="C10" s="4" t="str">
+        <f>F10</f>
+        <v>105 크리티컬 파워 절대 값</v>
       </c>
       <c r="E10" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>105 최대 체력 기준 배율 계산</v>
+        <f>B10&amp;" "&amp;E10</f>
+        <v>105 크리티컬 파워 절대 값</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>106</v>
+        <v>722</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>106 현재 체력 기준 절대값 계산</v>
+        <f>F11</f>
+        <v>106 명중률 절대 값</v>
       </c>
       <c r="E11" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>106 현재 체력 기준 절대값 계산</v>
+        <f>B11&amp;" "&amp;E11</f>
+        <v>106 명중률 절대 값</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="45" t="s">
-        <v>701</v>
-      </c>
-      <c r="B12" s="45">
+      <c r="A12" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B12" s="4">
         <v>107</v>
       </c>
-      <c r="C12" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>107 현재 체력 기준 배율 계산</v>
+      <c r="C12" s="4" t="str">
+        <f>F12</f>
+        <v>107 회피율 절대 값</v>
       </c>
       <c r="E12" t="s">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>107 현재 체력 기준 배율 계산</v>
+        <f>B12&amp;" "&amp;E12</f>
+        <v>107 회피율 절대 값</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>736</v>
+      <c r="A13" s="45" t="s">
+        <v>686</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
       </c>
-      <c r="C13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>108 크리티컬 확률을 절대값 계산</v>
+      <c r="C13" s="45" t="str">
+        <f>F13</f>
+        <v>108 회복량 절대 값</v>
       </c>
       <c r="E13" t="s">
-        <v>688</v>
+        <v>741</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>108 크리티컬 확률을 절대값 계산</v>
+        <f>B13&amp;" "&amp;E13</f>
+        <v>108 회복량 절대 값</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="45" t="s">
-        <v>737</v>
-      </c>
-      <c r="B14" s="45">
-        <v>109</v>
-      </c>
-      <c r="C14" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>109 크리티컬 확률을 배율 계산</v>
+      <c r="A14" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B14" s="4">
+        <v>201</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>F14</f>
+        <v>201 공격력 배율 계산</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>726</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>109 크리티컬 확률을 배율 계산</v>
+        <f>B14&amp;" "&amp;E14</f>
+        <v>201 공격력 배율 계산</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>738</v>
+      <c r="A15" s="45" t="s">
+        <v>683</v>
       </c>
       <c r="B15" s="4">
-        <v>110</v>
-      </c>
-      <c r="C15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>110 크리티컬 파워 기준 절대값 계산</v>
+        <v>202</v>
+      </c>
+      <c r="C15" s="45" t="str">
+        <f t="shared" ref="C15:C23" si="0">F15</f>
+        <v>202 방어력 배율 계산</v>
       </c>
       <c r="E15" t="s">
-        <v>690</v>
+        <v>727</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>110 크리티컬 파워 기준 절대값 계산</v>
+        <f t="shared" ref="F15:F23" si="1">B15&amp;" "&amp;E15</f>
+        <v>202 방어력 배율 계산</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>739</v>
-      </c>
-      <c r="B16" s="45">
-        <v>111</v>
+        <v>684</v>
+      </c>
+      <c r="B16" s="4">
+        <v>203</v>
       </c>
       <c r="C16" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>111 크리티컬 파워 기준 배율 계산</v>
+        <v>203 최대 체력 배율 값</v>
       </c>
       <c r="E16" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>111 크리티컬 파워 기준 배율 계산</v>
+        <v>203 최대 체력 배율 값</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>741</v>
+      <c r="A17" s="45" t="s">
+        <v>685</v>
       </c>
       <c r="B17" s="4">
-        <v>112</v>
-      </c>
-      <c r="C17" s="4" t="str">
+        <v>204</v>
+      </c>
+      <c r="C17" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>112 명중률 기준 절대값 계산</v>
+        <v>204 현재 체력 배율 계산</v>
       </c>
       <c r="E17" t="s">
-        <v>691</v>
+        <v>729</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>112 명중률 기준 절대값 계산</v>
+        <v>204 현재 체력 배율 계산</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>638</v>
-      </c>
-      <c r="B18" s="45">
-        <v>113</v>
+        <v>718</v>
+      </c>
+      <c r="B18" s="4">
+        <v>205</v>
       </c>
       <c r="C18" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>113 명중률 기준 배율 계산</v>
+        <v>205 크리티컬 확률 배율 계산</v>
       </c>
       <c r="E18" t="s">
-        <v>692</v>
+        <v>730</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>113 명중률 기준 배율 계산</v>
+        <v>205 크리티컬 확률 배율 계산</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>740</v>
+      <c r="A19" s="45" t="s">
+        <v>720</v>
       </c>
       <c r="B19" s="4">
-        <v>114</v>
-      </c>
-      <c r="C19" s="4" t="str">
+        <v>206</v>
+      </c>
+      <c r="C19" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>114 회피율 기준 절대값 계산</v>
+        <v>206 크리티컬 파워 배율 계산</v>
       </c>
       <c r="E19" t="s">
-        <v>693</v>
+        <v>731</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>114 회피율 기준 절대값 계산</v>
+        <v>206 크리티컬 파워 배율 계산</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>639</v>
-      </c>
-      <c r="B20" s="45">
-        <v>115</v>
+        <v>638</v>
+      </c>
+      <c r="B20" s="4">
+        <v>207</v>
       </c>
       <c r="C20" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>115 회피율 기준 배율 계산</v>
+        <v>207 명중률 배율 계산</v>
       </c>
       <c r="E20" t="s">
-        <v>694</v>
+        <v>732</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>115 회피율 기준 배율 계산</v>
+        <v>207 명중률 배율 계산</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>703</v>
-      </c>
-      <c r="B21" s="45">
-        <v>116</v>
+        <v>639</v>
+      </c>
+      <c r="B21" s="4">
+        <v>208</v>
       </c>
       <c r="C21" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>116 회복량 기준 절대값 계산</v>
+        <v>208 회피율 배율 계산</v>
       </c>
       <c r="E21" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>116 회복량 기준 절대값 계산</v>
+        <v>208 회피율 배율 계산</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>704</v>
-      </c>
-      <c r="B22" s="45">
-        <v>117</v>
+        <v>687</v>
+      </c>
+      <c r="B22" s="4">
+        <v>209</v>
       </c>
       <c r="C22" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>117 회복량 기준 배율 계산</v>
+        <v>209 회복량 배율 계산</v>
       </c>
       <c r="E22" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>117 회복량 기준 배율 계산</v>
+        <v>209 회복량 배율 계산</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4208,18 +4208,18 @@
         <v>99</v>
       </c>
       <c r="B23" s="4">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>118 피해량 기준 배율 계산</v>
+        <v>210 피해량 배율 계산</v>
       </c>
       <c r="E23" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>118 피해량 기준 배율 계산</v>
+        <v>210 피해량 배율 계산</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="45" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="B6" s="45">
         <v>2</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="45" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="B12" s="45">
         <v>107</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="45" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="B14" s="45">
         <v>109</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="B16" s="45">
         <v>111</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="B17" s="4">
         <v>112</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="B18" s="45">
         <v>113</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="B19" s="4">
         <v>114</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="B20" s="45">
         <v>115</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="B21" s="45">
         <v>116</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="B22" s="45">
         <v>117</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="45" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="B23" s="45">
         <v>118</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="45" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="B24" s="45">
         <v>119</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="45" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="B25" s="45">
         <v>120</v>
@@ -5366,7 +5366,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="45" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="B26" s="45">
         <v>121</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="45" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="B27" s="45">
         <v>122</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="45" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="B28" s="45">
         <v>123</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="45" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="B30" s="45">
         <v>125</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="45" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="B31" s="45">
         <v>126</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="45" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="B32" s="45">
         <v>127</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="45" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="B33" s="45">
         <v>128</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="45" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="B34" s="45">
         <v>129</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="45" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="B35" s="45">
         <v>130</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="45" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="B36" s="45">
         <v>131</v>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E8BB5-69A5-452A-9450-B791143CF8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9578F-F0A8-4241-9B33-B198A3115C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46050" yWindow="1155" windowWidth="28680" windowHeight="18420" tabRatio="717" firstSheet="7" activeTab="9" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="39585" yWindow="1560" windowWidth="37215" windowHeight="18660" tabRatio="717" firstSheet="19" activeTab="31" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -2530,12 +2530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VITALITY</t>
-  </si>
-  <si>
-    <t>MAGIC</t>
-  </si>
-  <si>
     <t>마력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2944,6 +2938,14 @@
   </si>
   <si>
     <t>회복량 절대 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3383,9 +3385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3423,7 +3425,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3529,7 +3531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3671,7 +3673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3809,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F8F7E-7298-47B3-9FA4-ABE1EAA46F31}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3844,10 +3846,10 @@
       </c>
       <c r="D3" s="46"/>
       <c r="E3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3869,33 +3871,33 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>F5</f>
+        <f t="shared" ref="C5:C14" si="0">F5</f>
         <v>100 공격력 절대값 계산</v>
       </c>
       <c r="E5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F5" t="str">
-        <f>B5&amp;" "&amp;E5</f>
+        <f t="shared" ref="F5:F14" si="1">B5&amp;" "&amp;E5</f>
         <v>100 공격력 절대값 계산</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>F6</f>
+        <f t="shared" si="0"/>
         <v>101 방어력 절대값 계산</v>
       </c>
       <c r="E6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F6" t="str">
-        <f>B6&amp;" "&amp;E6</f>
+        <f t="shared" si="1"/>
         <v>101 방어력 절대값 계산</v>
       </c>
     </row>
@@ -3907,14 +3909,14 @@
         <v>102</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>F7</f>
+        <f t="shared" si="0"/>
         <v>102 최대 체력 절대 값</v>
       </c>
       <c r="E7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F7" t="str">
-        <f>B7&amp;" "&amp;E7</f>
+        <f t="shared" si="1"/>
         <v>102 최대 체력 절대 값</v>
       </c>
     </row>
@@ -3926,280 +3928,280 @@
         <v>103</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>F8</f>
+        <f t="shared" si="0"/>
         <v>103 현재 체력 절대 값</v>
       </c>
       <c r="E8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F8" t="str">
-        <f>B8&amp;" "&amp;E8</f>
+        <f t="shared" si="1"/>
         <v>103 현재 체력 절대 값</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>F9</f>
+        <f t="shared" si="0"/>
         <v>104 크리티컬 확률 절대값</v>
       </c>
       <c r="E9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F9" t="str">
-        <f>B9&amp;" "&amp;E9</f>
+        <f t="shared" si="1"/>
         <v>104 크리티컬 확률 절대값</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>F10</f>
+        <f t="shared" si="0"/>
         <v>105 크리티컬 파워 절대 값</v>
       </c>
       <c r="E10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F10" t="str">
-        <f>B10&amp;" "&amp;E10</f>
+        <f t="shared" si="1"/>
         <v>105 크리티컬 파워 절대 값</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>F11</f>
+        <f t="shared" si="0"/>
         <v>106 명중률 절대 값</v>
       </c>
       <c r="E11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F11" t="str">
-        <f>B11&amp;" "&amp;E11</f>
+        <f t="shared" si="1"/>
         <v>106 명중률 절대 값</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B12" s="4">
         <v>107</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>F12</f>
+        <f t="shared" si="0"/>
         <v>107 회피율 절대 값</v>
       </c>
       <c r="E12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F12" t="str">
-        <f>B12&amp;" "&amp;E12</f>
+        <f t="shared" si="1"/>
         <v>107 회피율 절대 값</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="45" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
       </c>
       <c r="C13" s="45" t="str">
-        <f>F13</f>
+        <f t="shared" si="0"/>
         <v>108 회복량 절대 값</v>
       </c>
       <c r="E13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F13" t="str">
-        <f>B13&amp;" "&amp;E13</f>
+        <f t="shared" si="1"/>
         <v>108 회복량 절대 값</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B14" s="4">
         <v>201</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>F14</f>
+        <f t="shared" si="0"/>
         <v>201 공격력 배율 계산</v>
       </c>
       <c r="E14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F14" t="str">
-        <f>B14&amp;" "&amp;E14</f>
+        <f t="shared" si="1"/>
         <v>201 공격력 배율 계산</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B15" s="4">
         <v>202</v>
       </c>
       <c r="C15" s="45" t="str">
-        <f t="shared" ref="C15:C23" si="0">F15</f>
+        <f t="shared" ref="C15:C23" si="2">F15</f>
         <v>202 방어력 배율 계산</v>
       </c>
       <c r="E15" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ref="F15:F23" si="1">B15&amp;" "&amp;E15</f>
+        <f t="shared" ref="F15:F23" si="3">B15&amp;" "&amp;E15</f>
         <v>202 방어력 배율 계산</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B16" s="4">
         <v>203</v>
       </c>
       <c r="C16" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>203 최대 체력 배율 값</v>
       </c>
       <c r="E16" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>203 최대 체력 배율 값</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B17" s="4">
         <v>204</v>
       </c>
       <c r="C17" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>204 현재 체력 배율 계산</v>
       </c>
       <c r="E17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>204 현재 체력 배율 계산</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B18" s="4">
         <v>205</v>
       </c>
       <c r="C18" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>205 크리티컬 확률 배율 계산</v>
       </c>
       <c r="E18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>205 크리티컬 확률 배율 계산</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B19" s="4">
         <v>206</v>
       </c>
       <c r="C19" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>206 크리티컬 파워 배율 계산</v>
       </c>
       <c r="E19" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>206 크리티컬 파워 배율 계산</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B20" s="4">
         <v>207</v>
       </c>
       <c r="C20" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>207 명중률 배율 계산</v>
       </c>
       <c r="E20" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>207 명중률 배율 계산</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B21" s="4">
         <v>208</v>
       </c>
       <c r="C21" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>208 회피율 배율 계산</v>
       </c>
       <c r="E21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>208 회피율 배율 계산</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B22" s="4">
         <v>209</v>
       </c>
       <c r="C22" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>209 회복량 배율 계산</v>
       </c>
       <c r="E22" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>209 회복량 배율 계산</v>
       </c>
     </row>
@@ -4211,14 +4213,14 @@
         <v>210</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>210 피해량 배율 계산</v>
       </c>
       <c r="E23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>210 피해량 배율 계산</v>
       </c>
     </row>
@@ -4814,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4833,7 +4835,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -4843,7 +4845,7 @@
         <v>1 물리 대미지</v>
       </c>
       <c r="E5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F5" t="str">
         <f>B5&amp;" "&amp;E5</f>
@@ -4852,7 +4854,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B6" s="45">
         <v>2</v>
@@ -4862,7 +4864,7 @@
         <v>2 마법 대미지</v>
       </c>
       <c r="E6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ref="F6:F8" si="1">B6&amp;" "&amp;E6</f>
@@ -4881,7 +4883,7 @@
         <v>3 체력 회복</v>
       </c>
       <c r="E7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -4900,7 +4902,7 @@
         <v>4 빈 이펙트</v>
       </c>
       <c r="E8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -4948,10 +4950,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4977,7 +4979,7 @@
         <v>1 피해 감소</v>
       </c>
       <c r="E5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F36" si="0">B5&amp;" "&amp;E5</f>
@@ -4996,7 +4998,7 @@
         <v>101 중독</v>
       </c>
       <c r="E6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -5015,7 +5017,7 @@
         <v>102 기절</v>
       </c>
       <c r="E7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -5034,7 +5036,7 @@
         <v>103 침묵</v>
       </c>
       <c r="E8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -5053,7 +5055,7 @@
         <v>104 결박</v>
       </c>
       <c r="E9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -5072,7 +5074,7 @@
         <v>105 빙결</v>
       </c>
       <c r="E10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -5081,7 +5083,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -5091,7 +5093,7 @@
         <v>106 물리 공격력 증가</v>
       </c>
       <c r="E11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -5100,7 +5102,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="45" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B12" s="45">
         <v>107</v>
@@ -5110,7 +5112,7 @@
         <v>107 마법 공격력 증가</v>
       </c>
       <c r="E12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -5119,7 +5121,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
@@ -5129,7 +5131,7 @@
         <v>108 물리 방어력 증가</v>
       </c>
       <c r="E13" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -5138,7 +5140,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="45" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B14" s="45">
         <v>109</v>
@@ -5148,7 +5150,7 @@
         <v>109 마법 방어력 증가</v>
       </c>
       <c r="E14" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -5157,7 +5159,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
@@ -5167,7 +5169,7 @@
         <v>110 마법 공격력 감소</v>
       </c>
       <c r="E15" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -5176,7 +5178,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B16" s="45">
         <v>111</v>
@@ -5186,7 +5188,7 @@
         <v>111 마법 공격력 감소</v>
       </c>
       <c r="E16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -5195,7 +5197,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B17" s="4">
         <v>112</v>
@@ -5205,7 +5207,7 @@
         <v>112 물리 방어력 감소</v>
       </c>
       <c r="E17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -5214,7 +5216,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B18" s="45">
         <v>113</v>
@@ -5224,7 +5226,7 @@
         <v>113 마법 방어력 감소</v>
       </c>
       <c r="E18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -5233,7 +5235,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B19" s="4">
         <v>114</v>
@@ -5243,7 +5245,7 @@
         <v>114 물리 공격력 물리 방어력 스탯 교환</v>
       </c>
       <c r="E19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -5252,7 +5254,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B20" s="45">
         <v>115</v>
@@ -5262,7 +5264,7 @@
         <v>115 마법 공격력 마법 방어력 스탯 교환</v>
       </c>
       <c r="E20" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -5271,7 +5273,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B21" s="45">
         <v>116</v>
@@ -5281,7 +5283,7 @@
         <v>116 물리/마법 공격력 물리/ 마법 방어력 스탯 교환</v>
       </c>
       <c r="E21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -5290,7 +5292,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B22" s="45">
         <v>117</v>
@@ -5300,7 +5302,7 @@
         <v>117 물리 크리티컬 확률 증가</v>
       </c>
       <c r="E22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -5309,7 +5311,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="45" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B23" s="45">
         <v>118</v>
@@ -5319,7 +5321,7 @@
         <v>118 마법 크리티컬 확률 증가</v>
       </c>
       <c r="E23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -5328,7 +5330,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="45" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B24" s="45">
         <v>119</v>
@@ -5338,7 +5340,7 @@
         <v>119 물리 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -5347,7 +5349,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="45" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B25" s="45">
         <v>120</v>
@@ -5357,7 +5359,7 @@
         <v>120 마법 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E25" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -5366,7 +5368,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="45" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B26" s="45">
         <v>121</v>
@@ -5376,7 +5378,7 @@
         <v>121 타격 시 회복량 증가</v>
       </c>
       <c r="E26" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -5385,7 +5387,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="45" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B27" s="45">
         <v>122</v>
@@ -5395,7 +5397,7 @@
         <v>122 회피 증가</v>
       </c>
       <c r="E27" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -5404,7 +5406,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="45" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B28" s="45">
         <v>123</v>
@@ -5414,7 +5416,7 @@
         <v>123 명중 증가</v>
       </c>
       <c r="E28" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -5423,7 +5425,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="45" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B29" s="45">
         <v>124</v>
@@ -5433,7 +5435,7 @@
         <v>124 회복량 증가</v>
       </c>
       <c r="E29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -5442,7 +5444,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="45" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B30" s="45">
         <v>125</v>
@@ -5452,7 +5454,7 @@
         <v>125 물리 크리티컬 확률 감소</v>
       </c>
       <c r="E30" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -5461,7 +5463,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="45" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B31" s="45">
         <v>126</v>
@@ -5471,7 +5473,7 @@
         <v>126 마법 크리티컬 확률 감소</v>
       </c>
       <c r="E31" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -5480,7 +5482,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="45" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B32" s="45">
         <v>127</v>
@@ -5490,7 +5492,7 @@
         <v>127 물리 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E32" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -5499,7 +5501,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="45" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B33" s="45">
         <v>128</v>
@@ -5509,7 +5511,7 @@
         <v>128 마법 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -5518,7 +5520,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="45" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B34" s="45">
         <v>129</v>
@@ -5528,7 +5530,7 @@
         <v>129 타격 시 회복량 감소</v>
       </c>
       <c r="E34" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -5537,7 +5539,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="45" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B35" s="45">
         <v>130</v>
@@ -5547,7 +5549,7 @@
         <v>130 회피 감소</v>
       </c>
       <c r="E35" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -5556,7 +5558,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="45" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B36" s="45">
         <v>131</v>
@@ -5566,7 +5568,7 @@
         <v>131 명중 감소</v>
       </c>
       <c r="E36" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -5575,7 +5577,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="45" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B37" s="45">
         <v>132</v>
@@ -5585,7 +5587,7 @@
         <v>132 회복량 감소</v>
       </c>
       <c r="E37" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ref="F37" si="2">B37&amp;" "&amp;E37</f>
@@ -7610,8 +7612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E649F-A5FD-4CBA-8C35-B48F46A25F32}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7623,7 +7625,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7679,24 +7681,24 @@
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="43" t="s">
-        <v>634</v>
+        <v>740</v>
       </c>
       <c r="B7" s="42">
         <v>3</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="43" t="s">
-        <v>635</v>
+        <v>741</v>
       </c>
       <c r="B8" s="42">
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -9300,7 +9302,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9578F-F0A8-4241-9B33-B198A3115C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12A73C0-0CE0-4ECB-9B57-5CB300E85F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39585" yWindow="1560" windowWidth="37215" windowHeight="18660" tabRatio="717" firstSheet="19" activeTab="31" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="38760" yWindow="1305" windowWidth="37215" windowHeight="18660" tabRatio="717" firstSheet="19" activeTab="28" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -1839,10 +1839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>106 던전 입장 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>107 정련석(장비 성장)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2946,6 +2942,10 @@
   </si>
   <si>
     <t>MANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 보스전 입장 횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3846,10 +3846,10 @@
       </c>
       <c r="D3" s="46"/>
       <c r="E3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3875,7 +3875,7 @@
         <v>100 공격력 절대값 계산</v>
       </c>
       <c r="E5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F14" si="1">B5&amp;" "&amp;E5</f>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -3894,7 +3894,7 @@
         <v>101 방어력 절대값 계산</v>
       </c>
       <c r="E6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -3913,7 +3913,7 @@
         <v>102 최대 체력 절대 값</v>
       </c>
       <c r="E7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -3932,7 +3932,7 @@
         <v>103 현재 체력 절대 값</v>
       </c>
       <c r="E8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
@@ -3951,7 +3951,7 @@
         <v>104 크리티컬 확률 절대값</v>
       </c>
       <c r="E9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
@@ -3970,7 +3970,7 @@
         <v>105 크리티컬 파워 절대 값</v>
       </c>
       <c r="E10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -3989,7 +3989,7 @@
         <v>106 명중률 절대 값</v>
       </c>
       <c r="E11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B12" s="4">
         <v>107</v>
@@ -4008,7 +4008,7 @@
         <v>107 회피율 절대 값</v>
       </c>
       <c r="E12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
@@ -4027,7 +4027,7 @@
         <v>108 회복량 절대 값</v>
       </c>
       <c r="E13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B14" s="4">
         <v>201</v>
@@ -4046,7 +4046,7 @@
         <v>201 공격력 배율 계산</v>
       </c>
       <c r="E14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B15" s="4">
         <v>202</v>
@@ -4065,7 +4065,7 @@
         <v>202 방어력 배율 계산</v>
       </c>
       <c r="E15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ref="F15:F23" si="3">B15&amp;" "&amp;E15</f>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B16" s="4">
         <v>203</v>
@@ -4084,7 +4084,7 @@
         <v>203 최대 체력 배율 값</v>
       </c>
       <c r="E16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B17" s="4">
         <v>204</v>
@@ -4103,7 +4103,7 @@
         <v>204 현재 체력 배율 계산</v>
       </c>
       <c r="E17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B18" s="4">
         <v>205</v>
@@ -4122,7 +4122,7 @@
         <v>205 크리티컬 확률 배율 계산</v>
       </c>
       <c r="E18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B19" s="4">
         <v>206</v>
@@ -4141,7 +4141,7 @@
         <v>206 크리티컬 파워 배율 계산</v>
       </c>
       <c r="E19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B20" s="4">
         <v>207</v>
@@ -4160,7 +4160,7 @@
         <v>207 명중률 배율 계산</v>
       </c>
       <c r="E20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B21" s="4">
         <v>208</v>
@@ -4179,7 +4179,7 @@
         <v>208 회피율 배율 계산</v>
       </c>
       <c r="E21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B22" s="4">
         <v>209</v>
@@ -4198,7 +4198,7 @@
         <v>209 회복량 배율 계산</v>
       </c>
       <c r="E22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
@@ -4217,7 +4217,7 @@
         <v>210 피해량 배율 계산</v>
       </c>
       <c r="E23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
@@ -4337,249 +4337,249 @@
         <v>0</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" s="29">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B9" s="29">
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B10" s="29">
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B11" s="29">
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B12" s="29">
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B13" s="29">
         <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B14" s="29">
         <v>10</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B15" s="29">
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B16" s="29">
         <v>12</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B17" s="29">
         <v>13</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B18" s="29">
         <v>14</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B19" s="29">
         <v>15</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B20" s="29">
         <v>16</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B21" s="29">
         <v>17</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B22" s="29">
         <v>18</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B23" s="29">
         <v>19</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B24" s="29">
         <v>20</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B25" s="29">
         <v>21</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B26" s="29">
         <v>22</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4636,46 +4636,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4816,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4835,7 +4835,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -4845,7 +4845,7 @@
         <v>1 물리 대미지</v>
       </c>
       <c r="E5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F5" t="str">
         <f>B5&amp;" "&amp;E5</f>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="45" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B6" s="45">
         <v>2</v>
@@ -4864,7 +4864,7 @@
         <v>2 마법 대미지</v>
       </c>
       <c r="E6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ref="F6:F8" si="1">B6&amp;" "&amp;E6</f>
@@ -4883,7 +4883,7 @@
         <v>3 체력 회복</v>
       </c>
       <c r="E7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -4902,7 +4902,7 @@
         <v>4 빈 이펙트</v>
       </c>
       <c r="E8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -4950,10 +4950,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4979,7 +4979,7 @@
         <v>1 피해 감소</v>
       </c>
       <c r="E5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F36" si="0">B5&amp;" "&amp;E5</f>
@@ -4998,7 +4998,7 @@
         <v>101 중독</v>
       </c>
       <c r="E6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -5017,7 +5017,7 @@
         <v>102 기절</v>
       </c>
       <c r="E7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -5036,7 +5036,7 @@
         <v>103 침묵</v>
       </c>
       <c r="E8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -5055,7 +5055,7 @@
         <v>104 결박</v>
       </c>
       <c r="E9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -5074,7 +5074,7 @@
         <v>105 빙결</v>
       </c>
       <c r="E10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -5093,7 +5093,7 @@
         <v>106 물리 공격력 증가</v>
       </c>
       <c r="E11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B12" s="45">
         <v>107</v>
@@ -5112,7 +5112,7 @@
         <v>107 마법 공격력 증가</v>
       </c>
       <c r="E12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
@@ -5131,7 +5131,7 @@
         <v>108 물리 방어력 증가</v>
       </c>
       <c r="E13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B14" s="45">
         <v>109</v>
@@ -5150,7 +5150,7 @@
         <v>109 마법 방어력 증가</v>
       </c>
       <c r="E14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
@@ -5169,7 +5169,7 @@
         <v>110 마법 공격력 감소</v>
       </c>
       <c r="E15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B16" s="45">
         <v>111</v>
@@ -5188,7 +5188,7 @@
         <v>111 마법 공격력 감소</v>
       </c>
       <c r="E16" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B17" s="4">
         <v>112</v>
@@ -5207,7 +5207,7 @@
         <v>112 물리 방어력 감소</v>
       </c>
       <c r="E17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B18" s="45">
         <v>113</v>
@@ -5226,7 +5226,7 @@
         <v>113 마법 방어력 감소</v>
       </c>
       <c r="E18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B19" s="4">
         <v>114</v>
@@ -5245,7 +5245,7 @@
         <v>114 물리 공격력 물리 방어력 스탯 교환</v>
       </c>
       <c r="E19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B20" s="45">
         <v>115</v>
@@ -5264,7 +5264,7 @@
         <v>115 마법 공격력 마법 방어력 스탯 교환</v>
       </c>
       <c r="E20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B21" s="45">
         <v>116</v>
@@ -5283,7 +5283,7 @@
         <v>116 물리/마법 공격력 물리/ 마법 방어력 스탯 교환</v>
       </c>
       <c r="E21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B22" s="45">
         <v>117</v>
@@ -5302,7 +5302,7 @@
         <v>117 물리 크리티컬 확률 증가</v>
       </c>
       <c r="E22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B23" s="45">
         <v>118</v>
@@ -5321,7 +5321,7 @@
         <v>118 마법 크리티컬 확률 증가</v>
       </c>
       <c r="E23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B24" s="45">
         <v>119</v>
@@ -5340,7 +5340,7 @@
         <v>119 물리 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B25" s="45">
         <v>120</v>
@@ -5359,7 +5359,7 @@
         <v>120 마법 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="45" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B26" s="45">
         <v>121</v>
@@ -5378,7 +5378,7 @@
         <v>121 타격 시 회복량 증가</v>
       </c>
       <c r="E26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="45" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B27" s="45">
         <v>122</v>
@@ -5397,7 +5397,7 @@
         <v>122 회피 증가</v>
       </c>
       <c r="E27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B28" s="45">
         <v>123</v>
@@ -5416,7 +5416,7 @@
         <v>123 명중 증가</v>
       </c>
       <c r="E28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B29" s="45">
         <v>124</v>
@@ -5435,7 +5435,7 @@
         <v>124 회복량 증가</v>
       </c>
       <c r="E29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B30" s="45">
         <v>125</v>
@@ -5454,7 +5454,7 @@
         <v>125 물리 크리티컬 확률 감소</v>
       </c>
       <c r="E30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B31" s="45">
         <v>126</v>
@@ -5473,7 +5473,7 @@
         <v>126 마법 크리티컬 확률 감소</v>
       </c>
       <c r="E31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B32" s="45">
         <v>127</v>
@@ -5492,7 +5492,7 @@
         <v>127 물리 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="45" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B33" s="45">
         <v>128</v>
@@ -5511,7 +5511,7 @@
         <v>128 마법 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="45" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B34" s="45">
         <v>129</v>
@@ -5530,7 +5530,7 @@
         <v>129 타격 시 회복량 감소</v>
       </c>
       <c r="E34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B35" s="45">
         <v>130</v>
@@ -5549,7 +5549,7 @@
         <v>130 회피 감소</v>
       </c>
       <c r="E35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="45" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B36" s="45">
         <v>131</v>
@@ -5568,7 +5568,7 @@
         <v>131 명중 감소</v>
       </c>
       <c r="E36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="45" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B37" s="45">
         <v>132</v>
@@ -5587,7 +5587,7 @@
         <v>132 회복량 감소</v>
       </c>
       <c r="E37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ref="F37" si="2">B37&amp;" "&amp;E37</f>
@@ -6206,14 +6206,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6374,13 +6374,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B17" s="14">
         <v>101</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6396,24 +6396,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B19" s="14">
         <v>1001</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B20" s="14">
         <v>1002</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6491,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6575,13 +6575,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6896,7 +6896,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7017,8 +7017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7030,7 +7030,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7149,7 +7149,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7160,7 +7160,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7171,7 +7171,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7237,7 +7237,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>437</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7248,7 +7248,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7259,7 +7259,7 @@
         <v>108</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7270,7 +7270,7 @@
         <v>109</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7281,7 +7281,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7292,40 +7292,40 @@
         <v>111</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B26" s="21">
         <v>112</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B27" s="21">
         <v>113</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B28" s="21">
         <v>114</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -7435,14 +7435,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7471,24 +7471,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -7513,14 +7513,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -7549,57 +7549,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B6" s="34">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B9" s="29">
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -7612,7 +7612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E649F-A5FD-4CBA-8C35-B48F46A25F32}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -7625,12 +7625,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="39" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -7659,46 +7659,46 @@
     </row>
     <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="42">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B6" s="44">
         <v>2</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B7" s="42">
         <v>3</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B8" s="42">
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -7923,7 +7923,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7937,7 +7937,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8811,13 +8811,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B83" s="35">
         <v>10001</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D83" s="36" t="str">
         <f>"= "&amp;C16</f>
@@ -8826,13 +8826,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B84" s="35">
         <v>10002</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D84" s="36" t="str">
         <f>"= "&amp;C23</f>
@@ -8841,453 +8841,453 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B85" s="35">
         <v>10003</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B86" s="35">
         <v>10004</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B87" s="35">
         <v>10005</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B88" s="35">
         <v>10006</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B89" s="35">
         <v>10007</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B90" s="35">
         <v>10008</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B91" s="35">
         <v>10009</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B92" s="35">
         <v>10010</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B93" s="35">
         <v>10011</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B94" s="35">
         <v>10012</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B95" s="35">
         <v>10013</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B96" s="35">
         <v>10014</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B97" s="35">
         <v>10015</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B98" s="35">
         <v>10016</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B99" s="35">
         <v>10017</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B100" s="35">
         <v>10018</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B101" s="35">
         <v>10019</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B102" s="35">
         <v>10020</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B103" s="35">
         <v>10021</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B104" s="35">
         <v>10022</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B105" s="35">
         <v>10023</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B106" s="35">
         <v>10024</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B107" s="35">
         <v>10025</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B108" s="35">
         <v>10026</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B109" s="35">
         <v>10027</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="35" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B110" s="35">
         <v>10028</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B111" s="35">
         <v>10029</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B112" s="35">
         <v>10030</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B113" s="35">
         <v>10031</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B114" s="35">
         <v>10032</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B115" s="35">
         <v>10033</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B116" s="35">
         <v>10034</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B117" s="35">
         <v>10035</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="35" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B118" s="35">
         <v>10036</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B119" s="35">
         <v>20001</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B120" s="35">
         <v>20002</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B121" s="35">
         <v>20003</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B122" s="35">
         <v>20004</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B123" s="35">
         <v>20005</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="35" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B124" s="35">
         <v>20101</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B125" s="35">
         <v>20201</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9514,7 +9514,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12A73C0-0CE0-4ECB-9B57-5CB300E85F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC1039E-88C6-429D-9708-6B018FC33E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38760" yWindow="1305" windowWidth="37215" windowHeight="18660" tabRatio="717" firstSheet="19" activeTab="28" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="1965" yWindow="1665" windowWidth="34815" windowHeight="16545" tabRatio="717" firstSheet="15" activeTab="15" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="743">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2946,6 +2946,10 @@
   </si>
   <si>
     <t>106 보스전 입장 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_DUNGEON_TICKET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3059,7 +3063,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3135,6 +3139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3234,7 +3244,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3359,6 +3369,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4919,8 +4932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" activeCellId="3" sqref="A11 A13 A15 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4968,7 +4981,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="47" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="4">
@@ -4987,7 +5000,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="47" t="s">
         <v>139</v>
       </c>
       <c r="B6" s="4">
@@ -5006,7 +5019,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="47" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="4">
@@ -5082,7 +5095,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="47" t="s">
         <v>685</v>
       </c>
       <c r="B11" s="4">
@@ -5120,7 +5133,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="47" t="s">
         <v>687</v>
       </c>
       <c r="B13" s="4">
@@ -5158,7 +5171,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="47" t="s">
         <v>689</v>
       </c>
       <c r="B15" s="4">
@@ -5196,7 +5209,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="47" t="s">
         <v>691</v>
       </c>
       <c r="B17" s="4">
@@ -7017,8 +7030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7231,7 +7244,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="19" t="s">
-        <v>348</v>
+        <v>742</v>
       </c>
       <c r="B20" s="21">
         <v>106</v>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC1039E-88C6-429D-9708-6B018FC33E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3F2077-F41D-4637-8730-B7B67A7E2D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1665" windowWidth="34815" windowHeight="16545" tabRatio="717" firstSheet="15" activeTab="15" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="41265" yWindow="3825" windowWidth="34815" windowHeight="16545" tabRatio="717" firstSheet="15" activeTab="16" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -29,22 +29,23 @@
     <sheet name="@target_type" sheetId="10" r:id="rId14"/>
     <sheet name="@onetime_effect_type" sheetId="11" r:id="rId15"/>
     <sheet name="@duration_effect_type" sheetId="12" r:id="rId16"/>
-    <sheet name="@persistence_type" sheetId="13" r:id="rId17"/>
-    <sheet name="@projectile_type" sheetId="14" r:id="rId18"/>
-    <sheet name="@inequality_type" sheetId="18" r:id="rId19"/>
-    <sheet name="@skill_type" sheetId="20" r:id="rId20"/>
-    <sheet name="@Limit" sheetId="26" r:id="rId21"/>
-    <sheet name="@item_type_v2" sheetId="27" r:id="rId22"/>
-    <sheet name="@goods_type" sheetId="35" r:id="rId23"/>
-    <sheet name="@piece_type" sheetId="28" r:id="rId24"/>
-    <sheet name="@eqipment_type" sheetId="29" r:id="rId25"/>
-    <sheet name="@drop_type" sheetId="30" r:id="rId26"/>
-    <sheet name="@repeat_type" sheetId="31" r:id="rId27"/>
-    <sheet name="@charge_type" sheetId="32" r:id="rId28"/>
-    <sheet name="@reward_type" sheetId="33" r:id="rId29"/>
-    <sheet name="@effect_count_type" sheetId="34" r:id="rId30"/>
-    <sheet name="@love_level_type" sheetId="36" r:id="rId31"/>
-    <sheet name="@attribute_type" sheetId="37" r:id="rId32"/>
+    <sheet name="@game_type" sheetId="38" r:id="rId17"/>
+    <sheet name="@persistence_type" sheetId="13" r:id="rId18"/>
+    <sheet name="@projectile_type" sheetId="14" r:id="rId19"/>
+    <sheet name="@inequality_type" sheetId="18" r:id="rId20"/>
+    <sheet name="@skill_type" sheetId="20" r:id="rId21"/>
+    <sheet name="@Limit" sheetId="26" r:id="rId22"/>
+    <sheet name="@item_type_v2" sheetId="27" r:id="rId23"/>
+    <sheet name="@goods_type" sheetId="35" r:id="rId24"/>
+    <sheet name="@piece_type" sheetId="28" r:id="rId25"/>
+    <sheet name="@eqipment_type" sheetId="29" r:id="rId26"/>
+    <sheet name="@drop_type" sheetId="30" r:id="rId27"/>
+    <sheet name="@repeat_type" sheetId="31" r:id="rId28"/>
+    <sheet name="@charge_type" sheetId="32" r:id="rId29"/>
+    <sheet name="@reward_type" sheetId="33" r:id="rId30"/>
+    <sheet name="@effect_count_type" sheetId="34" r:id="rId31"/>
+    <sheet name="@love_level_type" sheetId="36" r:id="rId32"/>
+    <sheet name="@attribute_type" sheetId="37" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="753">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2950,6 +2951,46 @@
   </si>
   <si>
     <t>BOSS_DUNGEON_TICKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAME_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 타입(던전 타입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORY_MODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_DUNGEON_MODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDITOR_SKILL_PREVIEW_MODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDITOR_SKILL_EDIT_MODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 스토리 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 보스 던전 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 에디터에서 스킬 미리보기 모드(에디터에서만 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002 에디터에서 스킬 편집 모드(에디터에서만 사용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3063,7 +3104,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3145,6 +3186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3244,7 +3291,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3371,6 +3418,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4932,7 +4982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A17" activeCellId="3" sqref="A11 A13 A15 A17"/>
     </sheetView>
   </sheetViews>
@@ -5614,11 +5664,108 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F8EDD-5865-43AE-A92C-7D4C04EA2B55}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="48" t="s">
+        <v>747</v>
+      </c>
+      <c r="B7" s="48">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="48" t="s">
+        <v>748</v>
+      </c>
+      <c r="B8" s="48">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7275B3A-402E-463A-AAC9-1AACFCF8908E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5698,7 +5845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BA9FE-5AA8-4EF6-AC09-35EB34A6EAAF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -5819,124 +5966,6 @@
       </c>
       <c r="C11" s="4" t="s">
         <v>319</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6032,6 +6061,124 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5228C81A-9763-459F-949C-CED5163BD88B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -6127,7 +6274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240FE169-3136-4679-B292-EDADF74521B3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6202,7 +6349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA1088A-6383-4970-B62A-7C454CE419D1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -6435,7 +6582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2F89EF-0F0F-4075-904C-1C3C96CA34C5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6513,7 +6660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186929D7-17CE-4E2C-A241-4DB8004E32D1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -6603,7 +6750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253C689-5915-46B0-9A11-3A87439C791E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6714,7 +6861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0553439-B289-4B44-829E-DF7C62935DF1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6792,7 +6939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F1C228-FB57-41C9-B960-3C2B62DD9EAC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6904,7 +7051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ED69EA-3163-4C88-A042-C08C12B28836}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7018,327 +7165,6 @@
       </c>
       <c r="C10" s="19" t="s">
         <v>410</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="21">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="B6" s="21">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="21">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B8" s="21">
-        <v>4</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="B9" s="21">
-        <v>5</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="21">
-        <v>6</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B11" s="16">
-        <v>7</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" s="16">
-        <v>8</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="B13" s="22">
-        <v>9</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B14" s="22">
-        <v>10</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B15" s="21">
-        <v>101</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="21">
-        <v>102</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="B17" s="21">
-        <v>103</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="21">
-        <v>104</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="21">
-        <v>105</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="B20" s="21">
-        <v>106</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="B21" s="21">
-        <v>107</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="B22" s="21">
-        <v>108</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="B23" s="21">
-        <v>109</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="B24" s="21">
-        <v>110</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="B25" s="21">
-        <v>111</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="B26" s="21">
-        <v>112</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="B27" s="21">
-        <v>113</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="21">
-        <v>114</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -7432,6 +7258,327 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="21">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="21">
+        <v>5</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="21">
+        <v>6</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="16">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="22">
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B14" s="22">
+        <v>10</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" s="21">
+        <v>101</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" s="21">
+        <v>102</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="21">
+        <v>103</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="21">
+        <v>104</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="21">
+        <v>105</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="B20" s="21">
+        <v>106</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="21">
+        <v>107</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="21">
+        <v>108</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B23" s="21">
+        <v>109</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" s="21">
+        <v>110</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" s="21">
+        <v>111</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" s="21">
+        <v>112</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="B27" s="21">
+        <v>113</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" s="21">
+        <v>114</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F896994F-4B61-40D5-A99E-60DC53E2EA3A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -7510,7 +7657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2968D76-F4EB-40C4-B6BF-B73A7C24BD94}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7621,7 +7768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E649F-A5FD-4CBA-8C35-B48F46A25F32}">
   <dimension ref="A1:C8"/>
   <sheetViews>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3F2077-F41D-4637-8730-B7B67A7E2D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD7FDB-9108-4596-9DF3-C98DB21DE20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41265" yWindow="3825" windowWidth="34815" windowHeight="16545" tabRatio="717" firstSheet="15" activeTab="16" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="38805" yWindow="2175" windowWidth="37950" windowHeight="18660" tabRatio="717" firstSheet="7" activeTab="15" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="754">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2991,6 +2991,10 @@
   </si>
   <si>
     <t>1002 에디터에서 스킬 편집 모드(에디터에서만 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4982,14 +4986,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" activeCellId="3" sqref="A11 A13 A15 A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5229,14 +5234,14 @@
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>110 마법 공격력 감소</v>
+        <v>110 물리 공격력 감소</v>
       </c>
       <c r="E15" t="s">
-        <v>652</v>
+        <v>753</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>110 마법 공격력 감소</v>
+        <v>110 물리 공격력 감소</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5667,8 +5672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F8EDD-5865-43AE-A92C-7D4C04EA2B55}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD7FDB-9108-4596-9DF3-C98DB21DE20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03B13C-0863-4F85-94DF-7127047A35DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38805" yWindow="2175" windowWidth="37950" windowHeight="18660" tabRatio="717" firstSheet="7" activeTab="15" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="660" yWindow="1635" windowWidth="36255" windowHeight="18660" tabRatio="717" firstSheet="18" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="754">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1864,10 +1864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXP_SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REWARD_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2995,6 +2991,10 @@
   </si>
   <si>
     <t>물리 공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3108,7 +3108,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3196,6 +3196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3295,7 +3301,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3426,6 +3432,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3913,10 +3923,10 @@
       </c>
       <c r="D3" s="46"/>
       <c r="E3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3942,7 +3952,7 @@
         <v>100 공격력 절대값 계산</v>
       </c>
       <c r="E5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F14" si="1">B5&amp;" "&amp;E5</f>
@@ -3951,7 +3961,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -3961,7 +3971,7 @@
         <v>101 방어력 절대값 계산</v>
       </c>
       <c r="E6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -3980,7 +3990,7 @@
         <v>102 최대 체력 절대 값</v>
       </c>
       <c r="E7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -3999,7 +4009,7 @@
         <v>103 현재 체력 절대 값</v>
       </c>
       <c r="E8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -4008,7 +4018,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
@@ -4018,7 +4028,7 @@
         <v>104 크리티컬 확률 절대값</v>
       </c>
       <c r="E9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -4027,7 +4037,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
@@ -4037,7 +4047,7 @@
         <v>105 크리티컬 파워 절대 값</v>
       </c>
       <c r="E10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -4046,7 +4056,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -4056,7 +4066,7 @@
         <v>106 명중률 절대 값</v>
       </c>
       <c r="E11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -4065,7 +4075,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B12" s="4">
         <v>107</v>
@@ -4075,7 +4085,7 @@
         <v>107 회피율 절대 값</v>
       </c>
       <c r="E12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -4084,7 +4094,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
@@ -4094,7 +4104,7 @@
         <v>108 회복량 절대 값</v>
       </c>
       <c r="E13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -4103,7 +4113,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B14" s="4">
         <v>201</v>
@@ -4113,7 +4123,7 @@
         <v>201 공격력 배율 계산</v>
       </c>
       <c r="E14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -4122,7 +4132,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B15" s="4">
         <v>202</v>
@@ -4132,7 +4142,7 @@
         <v>202 방어력 배율 계산</v>
       </c>
       <c r="E15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ref="F15:F23" si="3">B15&amp;" "&amp;E15</f>
@@ -4141,7 +4151,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B16" s="4">
         <v>203</v>
@@ -4151,7 +4161,7 @@
         <v>203 최대 체력 배율 값</v>
       </c>
       <c r="E16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -4160,7 +4170,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B17" s="4">
         <v>204</v>
@@ -4170,7 +4180,7 @@
         <v>204 현재 체력 배율 계산</v>
       </c>
       <c r="E17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -4179,7 +4189,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B18" s="4">
         <v>205</v>
@@ -4189,7 +4199,7 @@
         <v>205 크리티컬 확률 배율 계산</v>
       </c>
       <c r="E18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -4198,7 +4208,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B19" s="4">
         <v>206</v>
@@ -4208,7 +4218,7 @@
         <v>206 크리티컬 파워 배율 계산</v>
       </c>
       <c r="E19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -4217,7 +4227,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B20" s="4">
         <v>207</v>
@@ -4227,7 +4237,7 @@
         <v>207 명중률 배율 계산</v>
       </c>
       <c r="E20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -4236,7 +4246,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B21" s="4">
         <v>208</v>
@@ -4246,7 +4256,7 @@
         <v>208 회피율 배율 계산</v>
       </c>
       <c r="E21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -4255,7 +4265,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B22" s="4">
         <v>209</v>
@@ -4265,7 +4275,7 @@
         <v>209 회복량 배율 계산</v>
       </c>
       <c r="E22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
@@ -4284,7 +4294,7 @@
         <v>210 피해량 배율 계산</v>
       </c>
       <c r="E23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
@@ -4404,249 +4414,249 @@
         <v>0</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" s="29">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B9" s="29">
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B10" s="29">
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11" s="29">
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B12" s="29">
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B13" s="29">
         <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B14" s="29">
         <v>10</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B15" s="29">
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B16" s="29">
         <v>12</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B17" s="29">
         <v>13</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B18" s="29">
         <v>14</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B19" s="29">
         <v>15</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B20" s="29">
         <v>16</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B21" s="29">
         <v>17</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B22" s="29">
         <v>18</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B23" s="29">
         <v>19</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B24" s="29">
         <v>20</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B25" s="29">
         <v>21</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B26" s="29">
         <v>22</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4703,46 +4713,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4883,10 +4893,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4902,7 +4912,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -4912,7 +4922,7 @@
         <v>1 물리 대미지</v>
       </c>
       <c r="E5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F5" t="str">
         <f>B5&amp;" "&amp;E5</f>
@@ -4921,7 +4931,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="45" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B6" s="45">
         <v>2</v>
@@ -4931,7 +4941,7 @@
         <v>2 마법 대미지</v>
       </c>
       <c r="E6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ref="F6:F8" si="1">B6&amp;" "&amp;E6</f>
@@ -4950,7 +4960,7 @@
         <v>3 체력 회복</v>
       </c>
       <c r="E7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -4959,7 +4969,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -4969,7 +4979,7 @@
         <v>4 빈 이펙트</v>
       </c>
       <c r="E8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -4986,8 +4996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EEEA3-871E-409D-84CD-5067910B3928}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5018,10 +5028,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5047,7 +5057,7 @@
         <v>1 피해 감소</v>
       </c>
       <c r="E5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F36" si="0">B5&amp;" "&amp;E5</f>
@@ -5066,7 +5076,7 @@
         <v>101 중독</v>
       </c>
       <c r="E6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -5085,7 +5095,7 @@
         <v>102 기절</v>
       </c>
       <c r="E7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -5104,7 +5114,7 @@
         <v>103 침묵</v>
       </c>
       <c r="E8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -5123,7 +5133,7 @@
         <v>104 결박</v>
       </c>
       <c r="E9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -5142,7 +5152,7 @@
         <v>105 빙결</v>
       </c>
       <c r="E10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -5151,7 +5161,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="47" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -5161,7 +5171,7 @@
         <v>106 물리 공격력 증가</v>
       </c>
       <c r="E11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -5170,7 +5180,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B12" s="45">
         <v>107</v>
@@ -5180,7 +5190,7 @@
         <v>107 마법 공격력 증가</v>
       </c>
       <c r="E12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -5189,7 +5199,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
@@ -5199,7 +5209,7 @@
         <v>108 물리 방어력 증가</v>
       </c>
       <c r="E13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -5208,7 +5218,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B14" s="45">
         <v>109</v>
@@ -5218,7 +5228,7 @@
         <v>109 마법 방어력 증가</v>
       </c>
       <c r="E14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -5227,7 +5237,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="47" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
@@ -5237,7 +5247,7 @@
         <v>110 물리 공격력 감소</v>
       </c>
       <c r="E15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -5246,7 +5256,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B16" s="45">
         <v>111</v>
@@ -5256,7 +5266,7 @@
         <v>111 마법 공격력 감소</v>
       </c>
       <c r="E16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -5265,7 +5275,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B17" s="4">
         <v>112</v>
@@ -5275,7 +5285,7 @@
         <v>112 물리 방어력 감소</v>
       </c>
       <c r="E17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -5284,7 +5294,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B18" s="45">
         <v>113</v>
@@ -5294,7 +5304,7 @@
         <v>113 마법 방어력 감소</v>
       </c>
       <c r="E18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -5303,7 +5313,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B19" s="4">
         <v>114</v>
@@ -5313,7 +5323,7 @@
         <v>114 물리 공격력 물리 방어력 스탯 교환</v>
       </c>
       <c r="E19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -5322,7 +5332,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B20" s="45">
         <v>115</v>
@@ -5332,7 +5342,7 @@
         <v>115 마법 공격력 마법 방어력 스탯 교환</v>
       </c>
       <c r="E20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -5341,7 +5351,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B21" s="45">
         <v>116</v>
@@ -5351,7 +5361,7 @@
         <v>116 물리/마법 공격력 물리/ 마법 방어력 스탯 교환</v>
       </c>
       <c r="E21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -5360,7 +5370,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B22" s="45">
         <v>117</v>
@@ -5370,7 +5380,7 @@
         <v>117 물리 크리티컬 확률 증가</v>
       </c>
       <c r="E22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -5379,7 +5389,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="45" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B23" s="45">
         <v>118</v>
@@ -5389,7 +5399,7 @@
         <v>118 마법 크리티컬 확률 증가</v>
       </c>
       <c r="E23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -5398,7 +5408,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="45" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B24" s="45">
         <v>119</v>
@@ -5408,7 +5418,7 @@
         <v>119 물리 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -5417,7 +5427,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B25" s="45">
         <v>120</v>
@@ -5427,7 +5437,7 @@
         <v>120 마법 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -5436,7 +5446,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="45" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B26" s="45">
         <v>121</v>
@@ -5446,7 +5456,7 @@
         <v>121 타격 시 회복량 증가</v>
       </c>
       <c r="E26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -5455,7 +5465,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B27" s="45">
         <v>122</v>
@@ -5465,7 +5475,7 @@
         <v>122 회피 증가</v>
       </c>
       <c r="E27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -5474,7 +5484,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="45" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B28" s="45">
         <v>123</v>
@@ -5484,7 +5494,7 @@
         <v>123 명중 증가</v>
       </c>
       <c r="E28" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -5493,7 +5503,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B29" s="45">
         <v>124</v>
@@ -5503,7 +5513,7 @@
         <v>124 회복량 증가</v>
       </c>
       <c r="E29" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -5512,7 +5522,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B30" s="45">
         <v>125</v>
@@ -5522,7 +5532,7 @@
         <v>125 물리 크리티컬 확률 감소</v>
       </c>
       <c r="E30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -5531,7 +5541,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B31" s="45">
         <v>126</v>
@@ -5541,7 +5551,7 @@
         <v>126 마법 크리티컬 확률 감소</v>
       </c>
       <c r="E31" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -5550,7 +5560,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B32" s="45">
         <v>127</v>
@@ -5560,7 +5570,7 @@
         <v>127 물리 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -5569,7 +5579,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B33" s="45">
         <v>128</v>
@@ -5579,7 +5589,7 @@
         <v>128 마법 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -5588,7 +5598,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="45" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B34" s="45">
         <v>129</v>
@@ -5598,7 +5608,7 @@
         <v>129 타격 시 회복량 감소</v>
       </c>
       <c r="E34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -5607,7 +5617,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="45" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B35" s="45">
         <v>130</v>
@@ -5617,7 +5627,7 @@
         <v>130 회피 감소</v>
       </c>
       <c r="E35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -5626,7 +5636,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B36" s="45">
         <v>131</v>
@@ -5636,7 +5646,7 @@
         <v>131 명중 감소</v>
       </c>
       <c r="E36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -5645,7 +5655,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B37" s="45">
         <v>132</v>
@@ -5655,7 +5665,7 @@
         <v>132 회복량 감소</v>
       </c>
       <c r="E37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ref="F37" si="2">B37&amp;" "&amp;E37</f>
@@ -5685,12 +5695,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5717,46 +5727,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="48" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B7" s="48">
         <v>1001</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="48" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B8" s="48">
         <v>1002</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -6371,14 +6381,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6539,13 +6549,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B17" s="14">
         <v>101</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6561,24 +6571,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B19" s="14">
         <v>1001</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B20" s="14">
         <v>1002</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -6610,7 +6620,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6645,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6656,7 +6666,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6740,13 +6750,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -7264,10 +7274,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7279,7 +7289,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7398,7 +7408,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7409,7 +7419,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7420,116 +7430,116 @@
         <v>10</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="50">
         <v>101</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="49" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="50">
         <v>102</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="49" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="50">
         <v>103</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="49" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="50">
         <v>104</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="49" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="50">
         <v>105</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="49" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B20" s="21">
         <v>106</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="50">
         <v>107</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="49" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="50">
         <v>108</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="49" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="50">
         <v>109</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="49" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="50">
         <v>110</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="49" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7546,7 +7556,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B26" s="21">
         <v>112</v>
@@ -7557,24 +7567,35 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B27" s="21">
         <v>113</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="21">
+      <c r="A28" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" s="50">
         <v>114</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>538</v>
+      <c r="C28" s="49" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -7600,14 +7621,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7636,24 +7657,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -7678,14 +7699,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -7714,57 +7735,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B6" s="34">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B9" s="29">
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -7790,12 +7811,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="39" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -7824,46 +7845,46 @@
     </row>
     <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B5" s="42">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B6" s="44">
         <v>2</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="43" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B7" s="42">
         <v>3</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B8" s="42">
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -8088,7 +8109,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8102,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8311,7 +8332,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8976,13 +8997,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B83" s="35">
         <v>10001</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D83" s="36" t="str">
         <f>"= "&amp;C16</f>
@@ -8991,13 +9012,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B84" s="35">
         <v>10002</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D84" s="36" t="str">
         <f>"= "&amp;C23</f>
@@ -9006,453 +9027,453 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B85" s="35">
         <v>10003</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B86" s="35">
         <v>10004</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B87" s="35">
         <v>10005</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B88" s="35">
         <v>10006</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B89" s="35">
         <v>10007</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B90" s="35">
         <v>10008</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B91" s="35">
         <v>10009</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B92" s="35">
         <v>10010</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B93" s="35">
         <v>10011</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B94" s="35">
         <v>10012</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B95" s="35">
         <v>10013</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B96" s="35">
         <v>10014</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B97" s="35">
         <v>10015</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B98" s="35">
         <v>10016</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B99" s="35">
         <v>10017</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B100" s="35">
         <v>10018</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B101" s="35">
         <v>10019</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B102" s="35">
         <v>10020</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B103" s="35">
         <v>10021</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B104" s="35">
         <v>10022</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B105" s="35">
         <v>10023</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B106" s="35">
         <v>10024</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B107" s="35">
         <v>10025</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B108" s="35">
         <v>10026</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B109" s="35">
         <v>10027</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B110" s="35">
         <v>10028</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="35" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B111" s="35">
         <v>10029</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B112" s="35">
         <v>10030</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B113" s="35">
         <v>10031</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B114" s="35">
         <v>10032</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B115" s="35">
         <v>10033</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B116" s="35">
         <v>10034</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B117" s="35">
         <v>10035</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B118" s="35">
         <v>10036</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B119" s="35">
         <v>20001</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B120" s="35">
         <v>20002</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B121" s="35">
         <v>20003</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B122" s="35">
         <v>20004</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B123" s="35">
         <v>20005</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="35" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B124" s="35">
         <v>20101</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="35" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B125" s="35">
         <v>20201</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -9668,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9679,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03B13C-0863-4F85-94DF-7127047A35DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29D1F0-6C58-4D9C-B7AE-894673BC7CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1635" windowWidth="36255" windowHeight="18660" tabRatio="717" firstSheet="18" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="18" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="742">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1812,50 +1812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXP_POTION_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP_POTION_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102 캐릭터 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101 플레이어 경험치 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103 스테미나 회복 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 호감도 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105 스테이지 스킵 티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107 정련석(장비 성장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109 보상 선택 티켓(1개를 선택 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 보상 랜덤 티켓(1개를 확률 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110 보상 패키지 티켓(모든 보상 획득)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>111 장비 조각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2173,10 +2129,6 @@
   </si>
   <si>
     <t>5 사랑함</t>
-  </si>
-  <si>
-    <t>114 스킬 경험치 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1001 리더 선택 (리더 없음)</t>
@@ -3108,7 +3060,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3196,12 +3148,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3301,7 +3247,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3432,10 +3378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3923,10 +3865,10 @@
       </c>
       <c r="D3" s="46"/>
       <c r="E3" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3952,7 +3894,7 @@
         <v>100 공격력 절대값 계산</v>
       </c>
       <c r="E5" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F14" si="1">B5&amp;" "&amp;E5</f>
@@ -3961,7 +3903,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -3971,7 +3913,7 @@
         <v>101 방어력 절대값 계산</v>
       </c>
       <c r="E6" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -3990,7 +3932,7 @@
         <v>102 최대 체력 절대 값</v>
       </c>
       <c r="E7" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -4009,7 +3951,7 @@
         <v>103 현재 체력 절대 값</v>
       </c>
       <c r="E8" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -4018,7 +3960,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
@@ -4028,7 +3970,7 @@
         <v>104 크리티컬 확률 절대값</v>
       </c>
       <c r="E9" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -4037,7 +3979,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
@@ -4047,7 +3989,7 @@
         <v>105 크리티컬 파워 절대 값</v>
       </c>
       <c r="E10" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -4056,7 +3998,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -4066,7 +4008,7 @@
         <v>106 명중률 절대 값</v>
       </c>
       <c r="E11" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -4075,7 +4017,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B12" s="4">
         <v>107</v>
@@ -4085,7 +4027,7 @@
         <v>107 회피율 절대 값</v>
       </c>
       <c r="E12" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -4094,7 +4036,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="45" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
@@ -4104,7 +4046,7 @@
         <v>108 회복량 절대 값</v>
       </c>
       <c r="E13" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -4113,7 +4055,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="B14" s="4">
         <v>201</v>
@@ -4123,7 +4065,7 @@
         <v>201 공격력 배율 계산</v>
       </c>
       <c r="E14" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -4132,7 +4074,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="45" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="B15" s="4">
         <v>202</v>
@@ -4142,7 +4084,7 @@
         <v>202 방어력 배율 계산</v>
       </c>
       <c r="E15" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ref="F15:F23" si="3">B15&amp;" "&amp;E15</f>
@@ -4151,7 +4093,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B16" s="4">
         <v>203</v>
@@ -4161,7 +4103,7 @@
         <v>203 최대 체력 배율 값</v>
       </c>
       <c r="E16" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -4170,7 +4112,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="45" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B17" s="4">
         <v>204</v>
@@ -4180,7 +4122,7 @@
         <v>204 현재 체력 배율 계산</v>
       </c>
       <c r="E17" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -4189,7 +4131,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B18" s="4">
         <v>205</v>
@@ -4199,7 +4141,7 @@
         <v>205 크리티컬 확률 배율 계산</v>
       </c>
       <c r="E18" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -4208,7 +4150,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="45" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="B19" s="4">
         <v>206</v>
@@ -4218,7 +4160,7 @@
         <v>206 크리티컬 파워 배율 계산</v>
       </c>
       <c r="E19" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -4227,7 +4169,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B20" s="4">
         <v>207</v>
@@ -4237,7 +4179,7 @@
         <v>207 명중률 배율 계산</v>
       </c>
       <c r="E20" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -4246,7 +4188,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B21" s="4">
         <v>208</v>
@@ -4256,7 +4198,7 @@
         <v>208 회피율 배율 계산</v>
       </c>
       <c r="E21" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -4265,7 +4207,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B22" s="4">
         <v>209</v>
@@ -4275,7 +4217,7 @@
         <v>209 회복량 배율 계산</v>
       </c>
       <c r="E22" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
@@ -4294,7 +4236,7 @@
         <v>210 피해량 배율 계산</v>
       </c>
       <c r="E23" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
@@ -4414,249 +4356,249 @@
         <v>0</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B6" s="29">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B9" s="29">
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="29" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B10" s="29">
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="29" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B11" s="29">
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="29" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B12" s="29">
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="29" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B13" s="29">
         <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="29" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B14" s="29">
         <v>10</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="29" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B15" s="29">
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B16" s="29">
         <v>12</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B17" s="29">
         <v>13</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="29" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B18" s="29">
         <v>14</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="29" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B19" s="29">
         <v>15</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="29" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B20" s="29">
         <v>16</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B21" s="29">
         <v>17</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B22" s="29">
         <v>18</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B23" s="29">
         <v>19</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="29" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B24" s="29">
         <v>20</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="29" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B25" s="29">
         <v>21</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="29" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B26" s="29">
         <v>22</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -4713,46 +4655,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4893,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F3" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4912,7 +4854,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -4922,7 +4864,7 @@
         <v>1 물리 대미지</v>
       </c>
       <c r="E5" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F5" t="str">
         <f>B5&amp;" "&amp;E5</f>
@@ -4931,7 +4873,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="45" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="B6" s="45">
         <v>2</v>
@@ -4941,7 +4883,7 @@
         <v>2 마법 대미지</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ref="F6:F8" si="1">B6&amp;" "&amp;E6</f>
@@ -4960,7 +4902,7 @@
         <v>3 체력 회복</v>
       </c>
       <c r="E7" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -4969,7 +4911,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -4979,7 +4921,7 @@
         <v>4 빈 이펙트</v>
       </c>
       <c r="E8" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -5028,10 +4970,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5057,7 +4999,7 @@
         <v>1 피해 감소</v>
       </c>
       <c r="E5" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F36" si="0">B5&amp;" "&amp;E5</f>
@@ -5076,7 +5018,7 @@
         <v>101 중독</v>
       </c>
       <c r="E6" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -5095,7 +5037,7 @@
         <v>102 기절</v>
       </c>
       <c r="E7" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -5114,7 +5056,7 @@
         <v>103 침묵</v>
       </c>
       <c r="E8" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -5133,7 +5075,7 @@
         <v>104 결박</v>
       </c>
       <c r="E9" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -5152,7 +5094,7 @@
         <v>105 빙결</v>
       </c>
       <c r="E10" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -5161,7 +5103,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="47" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -5171,7 +5113,7 @@
         <v>106 물리 공격력 증가</v>
       </c>
       <c r="E11" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -5180,7 +5122,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="45" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B12" s="45">
         <v>107</v>
@@ -5190,7 +5132,7 @@
         <v>107 마법 공격력 증가</v>
       </c>
       <c r="E12" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -5199,7 +5141,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="47" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
@@ -5209,7 +5151,7 @@
         <v>108 물리 방어력 증가</v>
       </c>
       <c r="E13" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -5218,7 +5160,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="45" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="B14" s="45">
         <v>109</v>
@@ -5228,7 +5170,7 @@
         <v>109 마법 방어력 증가</v>
       </c>
       <c r="E14" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -5237,7 +5179,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="47" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
@@ -5247,7 +5189,7 @@
         <v>110 물리 공격력 감소</v>
       </c>
       <c r="E15" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -5256,7 +5198,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="45" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="B16" s="45">
         <v>111</v>
@@ -5266,7 +5208,7 @@
         <v>111 마법 공격력 감소</v>
       </c>
       <c r="E16" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -5275,7 +5217,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="47" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="B17" s="4">
         <v>112</v>
@@ -5285,7 +5227,7 @@
         <v>112 물리 방어력 감소</v>
       </c>
       <c r="E17" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -5294,7 +5236,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="45" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="B18" s="45">
         <v>113</v>
@@ -5304,7 +5246,7 @@
         <v>113 마법 방어력 감소</v>
       </c>
       <c r="E18" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -5313,7 +5255,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="B19" s="4">
         <v>114</v>
@@ -5323,7 +5265,7 @@
         <v>114 물리 공격력 물리 방어력 스탯 교환</v>
       </c>
       <c r="E19" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -5332,7 +5274,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="45" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="B20" s="45">
         <v>115</v>
@@ -5342,7 +5284,7 @@
         <v>115 마법 공격력 마법 방어력 스탯 교환</v>
       </c>
       <c r="E20" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -5351,7 +5293,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="45" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B21" s="45">
         <v>116</v>
@@ -5361,7 +5303,7 @@
         <v>116 물리/마법 공격력 물리/ 마법 방어력 스탯 교환</v>
       </c>
       <c r="E21" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -5370,7 +5312,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="45" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="B22" s="45">
         <v>117</v>
@@ -5380,7 +5322,7 @@
         <v>117 물리 크리티컬 확률 증가</v>
       </c>
       <c r="E22" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -5389,7 +5331,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="45" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B23" s="45">
         <v>118</v>
@@ -5399,7 +5341,7 @@
         <v>118 마법 크리티컬 확률 증가</v>
       </c>
       <c r="E23" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -5408,7 +5350,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="45" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="B24" s="45">
         <v>119</v>
@@ -5418,7 +5360,7 @@
         <v>119 물리 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E24" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -5427,7 +5369,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="45" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B25" s="45">
         <v>120</v>
@@ -5437,7 +5379,7 @@
         <v>120 마법 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E25" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -5446,7 +5388,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="45" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="B26" s="45">
         <v>121</v>
@@ -5456,7 +5398,7 @@
         <v>121 타격 시 회복량 증가</v>
       </c>
       <c r="E26" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -5465,7 +5407,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="45" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="B27" s="45">
         <v>122</v>
@@ -5475,7 +5417,7 @@
         <v>122 회피 증가</v>
       </c>
       <c r="E27" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -5484,7 +5426,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="45" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="B28" s="45">
         <v>123</v>
@@ -5494,7 +5436,7 @@
         <v>123 명중 증가</v>
       </c>
       <c r="E28" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -5503,7 +5445,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="45" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B29" s="45">
         <v>124</v>
@@ -5513,7 +5455,7 @@
         <v>124 회복량 증가</v>
       </c>
       <c r="E29" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -5522,7 +5464,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="45" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B30" s="45">
         <v>125</v>
@@ -5532,7 +5474,7 @@
         <v>125 물리 크리티컬 확률 감소</v>
       </c>
       <c r="E30" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -5541,7 +5483,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="45" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B31" s="45">
         <v>126</v>
@@ -5551,7 +5493,7 @@
         <v>126 마법 크리티컬 확률 감소</v>
       </c>
       <c r="E31" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -5560,7 +5502,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="45" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="B32" s="45">
         <v>127</v>
@@ -5570,7 +5512,7 @@
         <v>127 물리 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E32" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -5579,7 +5521,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="45" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="B33" s="45">
         <v>128</v>
@@ -5589,7 +5531,7 @@
         <v>128 마법 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E33" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -5598,7 +5540,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="45" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="B34" s="45">
         <v>129</v>
@@ -5608,7 +5550,7 @@
         <v>129 타격 시 회복량 감소</v>
       </c>
       <c r="E34" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -5617,7 +5559,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="45" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="B35" s="45">
         <v>130</v>
@@ -5627,7 +5569,7 @@
         <v>130 회피 감소</v>
       </c>
       <c r="E35" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -5636,7 +5578,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="45" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="B36" s="45">
         <v>131</v>
@@ -5646,7 +5588,7 @@
         <v>131 명중 감소</v>
       </c>
       <c r="E36" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -5655,7 +5597,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="45" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="B37" s="45">
         <v>132</v>
@@ -5665,7 +5607,7 @@
         <v>132 회복량 감소</v>
       </c>
       <c r="E37" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ref="F37" si="2">B37&amp;" "&amp;E37</f>
@@ -5695,12 +5637,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5727,46 +5669,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="48" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="B7" s="48">
         <v>1001</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="48" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="B8" s="48">
         <v>1002</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -6381,14 +6323,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6549,13 +6491,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B17" s="14">
         <v>101</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6571,24 +6513,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B19" s="14">
         <v>1001</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B20" s="14">
         <v>1002</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -6620,7 +6562,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6655,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6666,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -6750,13 +6692,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -7274,10 +7216,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7289,7 +7231,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7408,7 +7350,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7419,7 +7361,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7430,172 +7372,62 @@
         <v>10</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="B15" s="21">
+        <v>106</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="21">
+        <v>111</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="B15" s="50">
-        <v>101</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="49" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B17" s="21">
+        <v>112</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="50">
-        <v>102</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="B17" s="50">
-        <v>103</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>434</v>
-      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="50">
-        <v>104</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>435</v>
+      <c r="A18" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="B18" s="21">
+        <v>113</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="50">
-        <v>105</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="19" t="s">
+      <c r="A19" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>741</v>
-      </c>
-      <c r="B20" s="21">
-        <v>106</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="B21" s="50">
-        <v>107</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="B22" s="50">
-        <v>108</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="B23" s="50">
-        <v>109</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="B24" s="50">
-        <v>110</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="B25" s="21">
-        <v>111</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="B26" s="21">
-        <v>112</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="B27" s="21">
-        <v>113</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="B28" s="50">
-        <v>114</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="21">
-        <v>1000</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -7621,14 +7453,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7657,24 +7489,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -7699,14 +7531,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="30" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -7735,57 +7567,57 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B6" s="34">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="29" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B9" s="29">
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -7811,12 +7643,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="39" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -7845,46 +7677,46 @@
     </row>
     <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="43" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B5" s="42">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="43" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B6" s="44">
         <v>2</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="43" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="B7" s="42">
         <v>3</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="43" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="B8" s="42">
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -8109,7 +7941,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8123,7 +7955,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8332,7 +8164,7 @@
         <v>1001</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8997,13 +8829,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="35" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B83" s="35">
         <v>10001</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="D83" s="36" t="str">
         <f>"= "&amp;C16</f>
@@ -9012,13 +8844,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="35" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B84" s="35">
         <v>10002</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="D84" s="36" t="str">
         <f>"= "&amp;C23</f>
@@ -9027,453 +8859,453 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="20" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B85" s="35">
         <v>10003</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="20" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B86" s="35">
         <v>10004</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="35" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B87" s="35">
         <v>10005</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="35" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B88" s="35">
         <v>10006</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="35" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B89" s="35">
         <v>10007</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="35" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B90" s="35">
         <v>10008</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="35" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B91" s="35">
         <v>10009</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="35" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B92" s="35">
         <v>10010</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="35" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B93" s="35">
         <v>10011</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="35" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B94" s="35">
         <v>10012</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="20" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B95" s="35">
         <v>10013</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="20" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B96" s="35">
         <v>10014</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="20" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B97" s="35">
         <v>10015</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="20" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B98" s="35">
         <v>10016</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="20" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B99" s="35">
         <v>10017</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="20" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B100" s="35">
         <v>10018</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="35" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B101" s="35">
         <v>10019</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="35" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B102" s="35">
         <v>10020</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="35" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B103" s="35">
         <v>10021</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="35" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B104" s="35">
         <v>10022</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="35" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B105" s="35">
         <v>10023</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="35" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B106" s="35">
         <v>10024</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="35" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B107" s="35">
         <v>10025</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="35" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="B108" s="35">
         <v>10026</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="35" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B109" s="35">
         <v>10027</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="35" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B110" s="35">
         <v>10028</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="35" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B111" s="35">
         <v>10029</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="35" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B112" s="35">
         <v>10030</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="35" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B113" s="35">
         <v>10031</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="35" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B114" s="35">
         <v>10032</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="35" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B115" s="35">
         <v>10033</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="35" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B116" s="35">
         <v>10034</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="35" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B117" s="35">
         <v>10035</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="35" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B118" s="35">
         <v>10036</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="35" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B119" s="35">
         <v>20001</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="35" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B120" s="35">
         <v>20002</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="35" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B121" s="35">
         <v>20003</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="35" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B122" s="35">
         <v>20004</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="35" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B123" s="35">
         <v>20005</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="35" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B124" s="35">
         <v>20101</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="35" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B125" s="35">
         <v>20201</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -9689,7 +9521,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9700,7 +9532,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29D1F0-6C58-4D9C-B7AE-894673BC7CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8701A1-8F36-4FE8-8B8E-D078CF7C5066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="18" activeTab="29" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="20" activeTab="33" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="@effect_count_type" sheetId="34" r:id="rId31"/>
     <sheet name="@love_level_type" sheetId="36" r:id="rId32"/>
     <sheet name="@attribute_type" sheetId="37" r:id="rId33"/>
+    <sheet name="@res_type" sheetId="39" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="919">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2947,6 +2948,700 @@
   </si>
   <si>
     <t>1000 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESPONSE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL_UP_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_EFFECT_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_CLEAR_STAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_ENOUGH_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_ENOUGH_GOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_ENOUGH_EQUIPMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_ENOUGH_SLOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_ENOUGH_DIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_WORK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVER_MAX_ITEM_BOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_OPEN_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_CONDITION_MET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_READY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUPLICATE_NICKNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_MAINTERNANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_DEVICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_WITHDRAW_ING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEED_FORCE_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEED_REFRESH_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALREADY_RECV_REWARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALREADY_EQUIPED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMAIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVALID_DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_ENABLE_WORK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_EXIST_EMPTY_SLOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALREADY_COMPLETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_CONNECT_NETWORK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCEPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPTY_BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL_RESPONSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON_PARSE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUPLICATION_REQUEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRED_ACCESS_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRE_REFRESH_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCEEDED_RETRY_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALIDATE_FAILED_ACCESS_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALIDATE_FAILED_REFRESH_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCEPTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NON_AUTHORITATIVE_INFORMATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESET_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTIAL_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTIPLE_CHOICES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVED_PERMANENTRLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_MODIFIED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_PROXY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPORARY_REDIRECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAD_REQUEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNAUTHORIZED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYMENT_REQUIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_FOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METHOD_NOT_ALLOWED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_ACCEPTABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROXY_AUTHENTICATION_REQUIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUEST_TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFLICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LENGTH_REQUIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRECONDITION_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUEST_ENTITY_TOO_LARGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUEST_URL_TO_LARGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSUPPORTED_MEDIA_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANGE_NOT_SATISFIABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTATION_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNPROCESSABLE_ENTITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCKED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAILED_DEPENDENCY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADED_REQUIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRECONDITION_REQUIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_MANY_REQUESTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUEST_HEADER_FIELDS_TOO_LARGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNECTION_CLOSED_WITHOUT_RESPONSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNAVAILABLE_FOR_LEGAL_REASONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERNAL_SERVER_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_IMPLEMENTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAD_GATEWAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GATEWAY_TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVICE_UNAVAILABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP_VERSION_NOT_SUPPORTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSUFFICIENT_STORAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEED_CREATE_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUPLICATION_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_FOUND_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 사항 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용됨 (요청은 접수하였지만, 처리가 완료되지 않았다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신뢰 할 수 없는 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리는 성공하였지만 클라이언트에게 돌려줄 컨텐츠가 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 재설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠의 일부만을 보낸다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리 결과의 스테이터스가 여러 개다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 항목이 여러 개 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 리소스가 새로운 URI로 이동하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 리소스를 다른 URI에서 찾았다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 위치로 요청 하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEE_OTHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 요청 이후 요청한 페이지는 수정되지 않았다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 리소스에 엑세스 하려면 프록시를 통해야 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시로 리다이렉션 요청이 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청의 구문이 잘못되었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 리소스에 대한 액세스 권한이 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 리소스를 액세스 하기 위해서는 결제가 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 리소스를 찾을 수 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 리소스에 대한 액세스가 금지되었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 URI가 지정한 메소드를 지원하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 Accept-* 헤더에 지정한 항목에 관해 처리할 수 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트는 프록시 서버에 인증이 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청을 기다리다 서버에서 타임아웃 하였다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버가 요청을 수행하는 중에 충돌이 발생하였다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 리소스가 이전에는 존재하였지만, 현재는 존재하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 헤더에 Content-Length를 지정해야 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If-Match와 같은 조건부 요청에서 지정한 사전 조건이 서버와 맞지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 메시지가 너무 크다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 uri가 너무 길다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 지정한 미디어 타입을 서버가 지원하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 지정한 리소스의 범위가 서버의 리소스 사이즈와 맞지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 지정한 expect 헤더를 서버가 이해할 수 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(WebDAV) 클라이언트가 송신한  XML이 구문은 맞지만, 의미상 오류가 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(WebDAV) 지정한 리소스는 잠겨 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(WebDAV) 다른 작업의 실패로 인해 본 요청도 실패하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 주어진 시간 동안 너무 많은 요청을 보냈다.</t>
+  </si>
+  <si>
+    <t>법적으로 문제가 있는 리소스를 요청하였다.</t>
+  </si>
+  <si>
+    <t>클라이언트의 프로토콜의 업그레이드가 필요하다.</t>
+  </si>
+  <si>
+    <t>If-Match와 같은 사전조건을 지정하는 헤더가 필요하다.</t>
+  </si>
+  <si>
+    <t>헤더의 길이가 너무 크다.</t>
+  </si>
+  <si>
+    <t>(NGINX) 응답을 보내지 않고 연결을 종료하였다.</t>
+  </si>
+  <si>
+    <t>서버에 에러가 발생하였다.</t>
+  </si>
+  <si>
+    <t>요청한 URI의 메소드에 대해 서버가 구현하고 있지 않다.</t>
+  </si>
+  <si>
+    <t>게이트웨이 또는 프록시 역할을 하는 서버가 그 뒷단의 서버로부터 잘못된 응답을 받았다.</t>
+  </si>
+  <si>
+    <t>현재 서버에서 서비스를 제공할 수 없다.</t>
+  </si>
+  <si>
+    <t>게이트웨이 또는 프록시 역할을 하는 서버가 그 뒷단의 서버로부터 응답을 기다리다 타임아웃이 발생하였다.</t>
+  </si>
+  <si>
+    <t>클라이언트가 요청에 사용한 HTTP 버전을 서버가 지원하지 않는다.</t>
+  </si>
+  <si>
+    <t>(WebDAV) 서버에 저장 공간 부족으로 처리에 실패하였다.</t>
+  </si>
+  <si>
+    <t>유저를 생성해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 네임 중복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 찾을 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 성공(클라 전용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 효과 없음(클라 전용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 스테이지 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아 부족(유료 재화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬롯 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무것도 하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템의 최대치를 초과할 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 열린 컨텐츠가 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건이 충족되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 준비되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 최대 레벨임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 중복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 점검중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단당한 디바이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강제 업데이트 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰 리프레쉬 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 받은 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 장착함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 남아 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용 시간이 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 슬롯이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 완료 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크에 연결되어 있지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 반환 타입(서버, 클라이언트 공통 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_ENOUGH_ALL</t>
+  </si>
+  <si>
+    <t>뭐든 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALREADY_MAX_LEVEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7218,7 +7913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADA46DF-9317-4A44-BF13-F766FBE06A2C}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -7631,7 +8326,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7717,6 +8412,1052 @@
       </c>
       <c r="C8" s="42" t="s">
         <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319AD559-CB21-46EF-81DB-A183EB854D48}">
+  <dimension ref="A1:C96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="39" t="s">
+        <v>915</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B16" s="4">
+        <v>200</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B17" s="4">
+        <v>201</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B18" s="4">
+        <v>202</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B19" s="4">
+        <v>203</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B20" s="4">
+        <v>204</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B21" s="4">
+        <v>205</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B22" s="4">
+        <v>206</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B23" s="4">
+        <v>207</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B24" s="4">
+        <v>300</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B25" s="4">
+        <v>301</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B26" s="4">
+        <v>302</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B27" s="4">
+        <v>303</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B28" s="4">
+        <v>304</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B29" s="4">
+        <v>305</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B30" s="4">
+        <v>306</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B31" s="4">
+        <v>400</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B32" s="4">
+        <v>401</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B33" s="4">
+        <v>402</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B34" s="4">
+        <v>403</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B35" s="4">
+        <v>404</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B36" s="4">
+        <v>405</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B37" s="4">
+        <v>406</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B38" s="4">
+        <v>407</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B39" s="4">
+        <v>408</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B40" s="4">
+        <v>409</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B41" s="4">
+        <v>410</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B42" s="4">
+        <v>411</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B43" s="4">
+        <v>412</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B44" s="4">
+        <v>413</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B45" s="4">
+        <v>414</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B46" s="4">
+        <v>415</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B47" s="4">
+        <v>416</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B48" s="4">
+        <v>417</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B49" s="4">
+        <v>418</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B50" s="4">
+        <v>419</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B51" s="4">
+        <v>420</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B52" s="4">
+        <v>421</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B53" s="4">
+        <v>422</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B54" s="4">
+        <v>423</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B55" s="4">
+        <v>424</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B56" s="4">
+        <v>425</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B57" s="4">
+        <v>426</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B58" s="4">
+        <v>500</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B59" s="4">
+        <v>501</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B60" s="4">
+        <v>502</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B61" s="4">
+        <v>503</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B62" s="4">
+        <v>504</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B63" s="4">
+        <v>505</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B64" s="4">
+        <v>506</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B68" s="4">
+        <v>2001</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B71" s="4">
+        <v>2004</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B72" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B73" s="4">
+        <v>2006</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B74" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B75" s="4">
+        <v>4001</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B76" s="4">
+        <v>4002</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B77" s="4">
+        <v>4003</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B78" s="4">
+        <v>4004</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B79" s="4">
+        <v>4005</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B80" s="4">
+        <v>4006</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B81" s="4">
+        <v>4007</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B82" s="4">
+        <v>4008</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B83" s="4">
+        <v>4009</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B84" s="4">
+        <v>4010</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B85" s="4">
+        <v>4011</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B86" s="4">
+        <v>4012</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B87" s="4">
+        <v>4013</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B88" s="4">
+        <v>4014</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B89" s="4">
+        <v>4015</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B90" s="4">
+        <v>4016</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B91" s="4">
+        <v>4017</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B92" s="4">
+        <v>4018</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B93" s="4">
+        <v>5001</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B94" s="4">
+        <v>10001</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B95" s="4">
+        <v>10002</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B96" s="4">
+        <v>10003</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>886</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8701A1-8F36-4FE8-8B8E-D078CF7C5066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCAF800-2F41-478E-B0A8-AF09DE1F8678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="717" firstSheet="20" activeTab="33" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="1680" yWindow="1875" windowWidth="34815" windowHeight="16545" tabRatio="717" firstSheet="11" activeTab="20" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="967">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3642,6 +3642,156 @@
   </si>
   <si>
     <t>ALREADY_MAX_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Part 3</t>
+  </si>
+  <si>
+    <t>Part 4</t>
+  </si>
+  <si>
+    <t>Part 5</t>
+  </si>
+  <si>
+    <t>Part 6</t>
+  </si>
+  <si>
+    <t>Part 7</t>
+  </si>
+  <si>
+    <t>Part 8</t>
+  </si>
+  <si>
+    <t>Part 9</t>
+  </si>
+  <si>
+    <t>Part 10</t>
+  </si>
+  <si>
+    <t>Part 11</t>
+  </si>
+  <si>
+    <t>Part 12</t>
+  </si>
+  <si>
+    <t>Part 13</t>
+  </si>
+  <si>
+    <t>Part 14</t>
+  </si>
+  <si>
+    <t>Part 15</t>
+  </si>
+  <si>
+    <t>Part 16</t>
+  </si>
+  <si>
+    <t>Part 17</t>
+  </si>
+  <si>
+    <t>Part 18</t>
+  </si>
+  <si>
+    <t>PART1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART2</t>
+  </si>
+  <si>
+    <t>PART3</t>
+  </si>
+  <si>
+    <t>PART4</t>
+  </si>
+  <si>
+    <t>PART5</t>
+  </si>
+  <si>
+    <t>PART6</t>
+  </si>
+  <si>
+    <t>PART7</t>
+  </si>
+  <si>
+    <t>PART8</t>
+  </si>
+  <si>
+    <t>PART9</t>
+  </si>
+  <si>
+    <t>PART10</t>
+  </si>
+  <si>
+    <t>PART11</t>
+  </si>
+  <si>
+    <t>PART12</t>
+  </si>
+  <si>
+    <t>PART13</t>
+  </si>
+  <si>
+    <t>PART14</t>
+  </si>
+  <si>
+    <t>PART15</t>
+  </si>
+  <si>
+    <t>PART16</t>
+  </si>
+  <si>
+    <t>PART17</t>
+  </si>
+  <si>
+    <t>PART18</t>
+  </si>
+  <si>
+    <t>PART19</t>
+  </si>
+  <si>
+    <t>PART20</t>
+  </si>
+  <si>
+    <t>PART21</t>
+  </si>
+  <si>
+    <t>PART22</t>
+  </si>
+  <si>
+    <t>Part 19</t>
+  </si>
+  <si>
+    <t>Part 20</t>
+  </si>
+  <si>
+    <t>Part 21</t>
+  </si>
+  <si>
+    <t>Part 22</t>
+  </si>
+  <si>
+    <t>#기존_Type_메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#기존_네이밍_메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSIVE_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 패시브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3942,7 +4092,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4072,6 +4222,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5009,10 +5162,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C46B0-C1E7-4A60-9920-59C9054E0FB6}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5020,19 +5173,20 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="4" max="5" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5042,8 +5196,14 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>963</v>
+      </c>
+      <c r="E3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="29" t="s">
         <v>98</v>
       </c>
@@ -5054,245 +5214,377 @@
         <v>491</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="29" t="s">
-        <v>469</v>
+        <v>937</v>
       </c>
       <c r="B5" s="29">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>919</v>
+      </c>
+      <c r="D5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E5" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="29" t="s">
-        <v>470</v>
+        <v>938</v>
       </c>
       <c r="B6" s="29">
         <v>2</v>
       </c>
       <c r="C6" s="29" t="s">
+        <v>920</v>
+      </c>
+      <c r="D6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" s="29" t="s">
-        <v>471</v>
+        <v>939</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>921</v>
+      </c>
+      <c r="D7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E7" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" s="29" t="s">
-        <v>472</v>
+        <v>940</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>922</v>
+      </c>
+      <c r="D8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" s="29" t="s">
-        <v>473</v>
+        <v>941</v>
       </c>
       <c r="B9" s="29">
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>923</v>
+      </c>
+      <c r="D9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" s="29" t="s">
-        <v>474</v>
+        <v>942</v>
       </c>
       <c r="B10" s="29">
         <v>6</v>
       </c>
       <c r="C10" s="29" t="s">
+        <v>924</v>
+      </c>
+      <c r="D10" t="s">
+        <v>474</v>
+      </c>
+      <c r="E10" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11" s="29" t="s">
-        <v>475</v>
+        <v>943</v>
       </c>
       <c r="B11" s="29">
         <v>7</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>925</v>
+      </c>
+      <c r="D11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12" s="29" t="s">
-        <v>476</v>
+        <v>944</v>
       </c>
       <c r="B12" s="29">
         <v>8</v>
       </c>
       <c r="C12" s="29" t="s">
+        <v>926</v>
+      </c>
+      <c r="D12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E12" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5">
       <c r="A13" s="29" t="s">
-        <v>477</v>
+        <v>945</v>
       </c>
       <c r="B13" s="29">
         <v>9</v>
       </c>
       <c r="C13" s="29" t="s">
+        <v>927</v>
+      </c>
+      <c r="D13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E13" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5">
       <c r="A14" s="29" t="s">
-        <v>478</v>
+        <v>946</v>
       </c>
       <c r="B14" s="29">
         <v>10</v>
       </c>
       <c r="C14" s="29" t="s">
+        <v>928</v>
+      </c>
+      <c r="D14" t="s">
+        <v>478</v>
+      </c>
+      <c r="E14" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="A15" s="29" t="s">
-        <v>479</v>
+        <v>947</v>
       </c>
       <c r="B15" s="29">
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="D15" t="s">
+        <v>479</v>
+      </c>
+      <c r="E15" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="A16" s="29" t="s">
-        <v>480</v>
+        <v>948</v>
       </c>
       <c r="B16" s="29">
         <v>12</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>930</v>
+      </c>
+      <c r="D16" t="s">
+        <v>480</v>
+      </c>
+      <c r="E16" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:5">
       <c r="A17" s="29" t="s">
-        <v>481</v>
+        <v>949</v>
       </c>
       <c r="B17" s="29">
         <v>13</v>
       </c>
       <c r="C17" s="29" t="s">
+        <v>931</v>
+      </c>
+      <c r="D17" t="s">
+        <v>481</v>
+      </c>
+      <c r="E17" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" s="29" t="s">
-        <v>482</v>
+        <v>950</v>
       </c>
       <c r="B18" s="29">
         <v>14</v>
       </c>
       <c r="C18" s="29" t="s">
+        <v>932</v>
+      </c>
+      <c r="D18" t="s">
+        <v>482</v>
+      </c>
+      <c r="E18" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19" s="29" t="s">
-        <v>483</v>
+        <v>951</v>
       </c>
       <c r="B19" s="29">
         <v>15</v>
       </c>
       <c r="C19" s="29" t="s">
+        <v>933</v>
+      </c>
+      <c r="D19" t="s">
+        <v>483</v>
+      </c>
+      <c r="E19" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" s="29" t="s">
-        <v>484</v>
+        <v>952</v>
       </c>
       <c r="B20" s="29">
         <v>16</v>
       </c>
       <c r="C20" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="D20" t="s">
+        <v>484</v>
+      </c>
+      <c r="E20" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" s="29" t="s">
-        <v>485</v>
+        <v>953</v>
       </c>
       <c r="B21" s="29">
         <v>17</v>
       </c>
       <c r="C21" s="29" t="s">
+        <v>935</v>
+      </c>
+      <c r="D21" t="s">
+        <v>485</v>
+      </c>
+      <c r="E21" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:5">
       <c r="A22" s="29" t="s">
-        <v>486</v>
+        <v>954</v>
       </c>
       <c r="B22" s="29">
         <v>18</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="D22" t="s">
+        <v>486</v>
+      </c>
+      <c r="E22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5">
       <c r="A23" s="29" t="s">
-        <v>487</v>
+        <v>955</v>
       </c>
       <c r="B23" s="29">
         <v>19</v>
       </c>
       <c r="C23" s="29" t="s">
+        <v>959</v>
+      </c>
+      <c r="D23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E23" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" s="29" t="s">
-        <v>488</v>
+        <v>956</v>
       </c>
       <c r="B24" s="29">
         <v>20</v>
       </c>
       <c r="C24" s="29" t="s">
+        <v>960</v>
+      </c>
+      <c r="D24" t="s">
+        <v>488</v>
+      </c>
+      <c r="E24" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5">
       <c r="A25" s="29" t="s">
-        <v>489</v>
+        <v>957</v>
       </c>
       <c r="B25" s="29">
         <v>21</v>
       </c>
       <c r="C25" s="29" t="s">
+        <v>961</v>
+      </c>
+      <c r="D25" t="s">
+        <v>489</v>
+      </c>
+      <c r="E25" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5">
       <c r="A26" s="29" t="s">
-        <v>490</v>
+        <v>958</v>
       </c>
       <c r="B26" s="29">
         <v>22</v>
       </c>
       <c r="C26" s="29" t="s">
+        <v>962</v>
+      </c>
+      <c r="D26" t="s">
+        <v>490</v>
+      </c>
+      <c r="E26" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6832,10 +7124,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="A3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6918,6 +7210,17 @@
       </c>
       <c r="C8" s="4" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="49" t="s">
+        <v>965</v>
+      </c>
+      <c r="B9" s="49">
+        <v>5</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -8424,8 +8727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319AD559-CB21-46EF-81DB-A183EB854D48}">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/Enums_01.xlsx
+++ b/Android/ExcelData/Enums_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCAF800-2F41-478E-B0A8-AF09DE1F8678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BA43B9-FEC9-448B-A57A-9603D177E0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1875" windowWidth="34815" windowHeight="16545" tabRatio="717" firstSheet="11" activeTab="20" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
+    <workbookView xWindow="2385" yWindow="2910" windowWidth="34815" windowHeight="16545" tabRatio="717" firstSheet="5" activeTab="5" xr2:uid="{71B2F0D5-2254-4EAE-ABF3-3AAC897198E5}"/>
   </bookViews>
   <sheets>
     <sheet name="@tribe" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <sheet name="@res_type" sheetId="39" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="847">
   <si>
     <t>TRIBE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,217 +204,6 @@
     <t>ALL_WITHOUT_ME</t>
   </si>
   <si>
-    <t>LEADER_HIGH_PRIORITY</t>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_VALUE</t>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_RATE</t>
-  </si>
-  <si>
-    <t>HIGHEST_ATTACK</t>
-  </si>
-  <si>
-    <t>HIGHEST_DEFENSE</t>
-  </si>
-  <si>
-    <t>HIGHEST_ACCURACY</t>
-  </si>
-  <si>
-    <t>HIGHEST_EVASION</t>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_VALUE_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_RATE_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>HIGHEST_ATTACK_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>HIGHEST_DEFENSE_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>HIGHEST_RAPIDITY_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>HIGHEST_ACCURACY_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>HIGHEST_EVASION_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE</t>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_RATE</t>
-  </si>
-  <si>
-    <t>LOWEST_ATTACK</t>
-  </si>
-  <si>
-    <t>LOWEST_DEFENSE</t>
-  </si>
-  <si>
-    <t>LOWEST_ACCUM_RAPIDITY_POINT</t>
-  </si>
-  <si>
-    <t>LOWEST_ACCURACY</t>
-  </si>
-  <si>
-    <t>LOWEST_EVASION</t>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_RATE_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_ATTACK_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_DEFENSE_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_RAPIDITY_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_ACCURACY_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_EVASION_WITHOUT_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_WITH_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_RATE_WITH_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_ATTACK_WITH_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_DEFENSE_WITH_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_RAPIDITY_WITH_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_ACCURACY_WITH_ME</t>
-  </si>
-  <si>
-    <t>LOWEST_EVASION_WITH_ME</t>
-  </si>
-  <si>
-    <t>WEAK_ELEMENT</t>
-  </si>
-  <si>
-    <t>STRONG_ELEMENT</t>
-  </si>
-  <si>
-    <t>GAIN_BUFF_DURATION</t>
-  </si>
-  <si>
-    <t>GAIN_BUFF_DURATION_ATTACK_INC</t>
-  </si>
-  <si>
-    <t>GAIN_BUFF_DURATION_DEFENSE_INC</t>
-  </si>
-  <si>
-    <t>GAIN_BUFF_DURATION_RAPIDITY_INC</t>
-  </si>
-  <si>
-    <t>GAIN_BUFF_DURATION_EVASION_INC</t>
-  </si>
-  <si>
-    <t>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</t>
-  </si>
-  <si>
-    <t>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</t>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION</t>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION_ATTACK_DEC</t>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION_DEFENSE_DEC</t>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION_BURN</t>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION_BLEEDING</t>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION_POISON</t>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</t>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION_SLEEP</t>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAIN_DEBUFF_DURATION_ACCURACY_DEC</t>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_VALUE_HUMAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_VALUE_ELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_VALUE_WEREBEAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_VALUE_ANDROID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_VALUE_DEVIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGHEST_LIFE_VALUE_ANGEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_HUMAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_ELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_WEREBEAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_ANDROID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_DEVIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOWEST_LIFE_VALUE_ANGEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NEAREST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,10 +449,6 @@
   </si>
   <si>
     <t>INEQUALITY_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPROACH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -939,348 +725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3001 남은 체력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3003 공격력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3004 방어력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003 공격력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004 방어력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001 남은 체력이 가장 많은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002 남은 체력 비율이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2006 명중률이 가장 높은 타겟 선택 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(명중률 속성이 있다면)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2007 회피율이 가장 높은 타겟 선택 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(회피율 속성이 있다면)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008 남은 체력이 가장 높은 인간 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009 남은 체력이 가장 높은 엘프 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010 남은 체력이 가장 높은 수인 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011 남은 체력이 가장 높은 안드로이드 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012 남은 체력이 가장 높은 악마 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013 남은 체력이 가장 높은 천사 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014 자신을 제외한 체력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015 자신을 제외한 체력 비율이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016 자신을 제외한 공격력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017 자신을 제외한 방어력이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018 자신을 제외한 공속이 가장 높은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2019 자신을 제외한 명중률이 가장 높은 타겟 선택 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(명중률 속성이 있다면)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2020 자신을 제외한 회피율이 가장 높은 타겟 선택 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(회피율 속성이 있다면)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002 남은 체력 비율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3005 속도게이지가 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3006 명중률이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3007 회피율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3008 남은 체력이 가장 낮은 인간 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3009 남은 체력이 가장 낮은 엘프 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3010 남은 체력이 가장 낮은 수인 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3011 남은 체력이 가장 낮은 안드로이드 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3012 남은 체력이 가장 낮은 악마 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3013 남은 체력이 가장 낮은 천사 종족 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3014 자신을 제외한 남은 체력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3015 자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3016 자신을 제외한 공격력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3017 자신을 제외한 방어력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3018 자신을 제외한 공속이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3019 자신을 제외한 명중률이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3020 자신을 제외한 회피율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3021 자신을 포함한 남은 체력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3022 자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3023 자신을 포함한 공격력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3024 자신을 포함한 방어력이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3025 자신을 포함한 공속이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3026 자신을 포함한 명중률이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3027 자신을 포함한 회피율이 가장 낮은 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4001 자신보다 약한 속성 타겟 선택 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(상성 시스템이 있을 경우)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4002 자신보다 강한 속성 타겟 선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (상성 시스템이 있을 경우)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001 버프 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5002 버프 효과 중 공격력 증가 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5003 버프 효과 중 방어력 증가 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004 버프 효과 중 공속 증가 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5005 버프 효과 중 회피율 증가 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5006 버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5007 버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001 디버프 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6002 디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6003 디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6004 디버프 효과 중 화상 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6005 디버프 효과 중 출혈 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6006 디버프 효과 중 중독 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6007 디버프 효과 중 공속 감소 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6008 디버프 효과 중 수면 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6009 디버프 효과 중 치명상 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 캐릭터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2132,10 +1576,6 @@
     <t>5 사랑함</t>
   </si>
   <si>
-    <t>1001 리더 선택 (리더 없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HIGH_P_DEF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3792,6 +3232,62 @@
   </si>
   <si>
     <t>5 패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 나를 포함한 내 주변 지정 거리 이내 아군 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 나를 포함한 내 뒤 지정 거리 이내 아군 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 나를 포함한 내 앞 지정 거리 이내 아군 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 나를 제외한 내 주변 지정 거리 이내 아군 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 나를 제외한 내 뒤 지정 거리 이내 아군 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 나를 제외한 내 앞 지정 거리 이내 아군 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARROUND_RANGE_WITH_ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_RANGE_WITH_ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRONT_RANGE_WITH_ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARROUND_RANGE_WITHOUT_ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_RANGE_WITHOUT_ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRONT_RANGE_WITHOUT_ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROACH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999 접근 거리 타겟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3799,7 +3295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3819,14 +3315,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -3905,7 +3393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3927,12 +3415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3963,12 +3445,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4090,9 +3566,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4117,114 +3593,108 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4610,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4621,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4632,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4643,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4654,7 +4124,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4665,7 +4135,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4693,12 +4163,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4711,28 +4181,28 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="44"/>
       <c r="E3" t="s">
-        <v>625</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>624</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
@@ -4742,7 +4212,7 @@
         <v>100 공격력 절대값 계산</v>
       </c>
       <c r="E5" t="s">
-        <v>708</v>
+        <v>574</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F14" si="1">B5&amp;" "&amp;E5</f>
@@ -4751,7 +4221,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>700</v>
+        <v>566</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -4761,7 +4231,7 @@
         <v>101 방어력 절대값 계산</v>
       </c>
       <c r="E6" t="s">
-        <v>709</v>
+        <v>575</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -4770,7 +4240,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
@@ -4780,7 +4250,7 @@
         <v>102 최대 체력 절대 값</v>
       </c>
       <c r="E7" t="s">
-        <v>707</v>
+        <v>573</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -4789,7 +4259,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4">
         <v>103</v>
@@ -4799,7 +4269,7 @@
         <v>103 현재 체력 절대 값</v>
       </c>
       <c r="E8" t="s">
-        <v>720</v>
+        <v>586</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -4808,7 +4278,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>701</v>
+        <v>567</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
@@ -4818,7 +4288,7 @@
         <v>104 크리티컬 확률 절대값</v>
       </c>
       <c r="E9" t="s">
-        <v>721</v>
+        <v>587</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -4827,7 +4297,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>703</v>
+        <v>569</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
@@ -4837,7 +4307,7 @@
         <v>105 크리티컬 파워 절대 값</v>
       </c>
       <c r="E10" t="s">
-        <v>722</v>
+        <v>588</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -4846,7 +4316,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>706</v>
+        <v>572</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -4856,7 +4326,7 @@
         <v>106 명중률 절대 값</v>
       </c>
       <c r="E11" t="s">
-        <v>723</v>
+        <v>589</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -4865,7 +4335,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>705</v>
+        <v>571</v>
       </c>
       <c r="B12" s="4">
         <v>107</v>
@@ -4875,7 +4345,7 @@
         <v>107 회피율 절대 값</v>
       </c>
       <c r="E12" t="s">
-        <v>724</v>
+        <v>590</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -4883,18 +4353,18 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="45" t="s">
-        <v>670</v>
+      <c r="A13" s="43" t="s">
+        <v>536</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
       </c>
-      <c r="C13" s="45" t="str">
+      <c r="C13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>108 회복량 절대 값</v>
       </c>
       <c r="E13" t="s">
-        <v>725</v>
+        <v>591</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -4903,7 +4373,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>699</v>
+        <v>565</v>
       </c>
       <c r="B14" s="4">
         <v>201</v>
@@ -4913,7 +4383,7 @@
         <v>201 공격력 배율 계산</v>
       </c>
       <c r="E14" t="s">
-        <v>710</v>
+        <v>576</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -4921,18 +4391,18 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45" t="s">
-        <v>667</v>
+      <c r="A15" s="43" t="s">
+        <v>533</v>
       </c>
       <c r="B15" s="4">
         <v>202</v>
       </c>
-      <c r="C15" s="45" t="str">
+      <c r="C15" s="43" t="str">
         <f t="shared" ref="C15:C23" si="2">F15</f>
         <v>202 방어력 배율 계산</v>
       </c>
       <c r="E15" t="s">
-        <v>711</v>
+        <v>577</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ref="F15:F23" si="3">B15&amp;" "&amp;E15</f>
@@ -4940,18 +4410,18 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="45" t="s">
-        <v>668</v>
+      <c r="A16" s="43" t="s">
+        <v>534</v>
       </c>
       <c r="B16" s="4">
         <v>203</v>
       </c>
-      <c r="C16" s="45" t="str">
+      <c r="C16" s="43" t="str">
         <f t="shared" si="2"/>
         <v>203 최대 체력 배율 값</v>
       </c>
       <c r="E16" t="s">
-        <v>712</v>
+        <v>578</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -4959,18 +4429,18 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="45" t="s">
-        <v>669</v>
+      <c r="A17" s="43" t="s">
+        <v>535</v>
       </c>
       <c r="B17" s="4">
         <v>204</v>
       </c>
-      <c r="C17" s="45" t="str">
+      <c r="C17" s="43" t="str">
         <f t="shared" si="2"/>
         <v>204 현재 체력 배율 계산</v>
       </c>
       <c r="E17" t="s">
-        <v>713</v>
+        <v>579</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -4978,18 +4448,18 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="45" t="s">
-        <v>702</v>
+      <c r="A18" s="43" t="s">
+        <v>568</v>
       </c>
       <c r="B18" s="4">
         <v>205</v>
       </c>
-      <c r="C18" s="45" t="str">
+      <c r="C18" s="43" t="str">
         <f t="shared" si="2"/>
         <v>205 크리티컬 확률 배율 계산</v>
       </c>
       <c r="E18" t="s">
-        <v>714</v>
+        <v>580</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -4997,18 +4467,18 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="45" t="s">
-        <v>704</v>
+      <c r="A19" s="43" t="s">
+        <v>570</v>
       </c>
       <c r="B19" s="4">
         <v>206</v>
       </c>
-      <c r="C19" s="45" t="str">
+      <c r="C19" s="43" t="str">
         <f t="shared" si="2"/>
         <v>206 크리티컬 파워 배율 계산</v>
       </c>
       <c r="E19" t="s">
-        <v>715</v>
+        <v>581</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -5016,18 +4486,18 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45" t="s">
-        <v>622</v>
+      <c r="A20" s="43" t="s">
+        <v>488</v>
       </c>
       <c r="B20" s="4">
         <v>207</v>
       </c>
-      <c r="C20" s="45" t="str">
+      <c r="C20" s="43" t="str">
         <f t="shared" si="2"/>
         <v>207 명중률 배율 계산</v>
       </c>
       <c r="E20" t="s">
-        <v>716</v>
+        <v>582</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -5035,18 +4505,18 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45" t="s">
-        <v>623</v>
+      <c r="A21" s="43" t="s">
+        <v>489</v>
       </c>
       <c r="B21" s="4">
         <v>208</v>
       </c>
-      <c r="C21" s="45" t="str">
+      <c r="C21" s="43" t="str">
         <f t="shared" si="2"/>
         <v>208 회피율 배율 계산</v>
       </c>
       <c r="E21" t="s">
-        <v>717</v>
+        <v>583</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -5054,18 +4524,18 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="45" t="s">
-        <v>671</v>
+      <c r="A22" s="43" t="s">
+        <v>537</v>
       </c>
       <c r="B22" s="4">
         <v>209</v>
       </c>
-      <c r="C22" s="45" t="str">
+      <c r="C22" s="43" t="str">
         <f t="shared" si="2"/>
         <v>209 회복량 배율 계산</v>
       </c>
       <c r="E22" t="s">
-        <v>718</v>
+        <v>584</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
@@ -5074,7 +4544,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4">
         <v>210</v>
@@ -5084,7 +4554,7 @@
         <v>210 피해량 배율 계산</v>
       </c>
       <c r="E23" t="s">
-        <v>719</v>
+        <v>585</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
@@ -5113,12 +4583,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5134,24 +4604,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>306</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5178,12 +4648,12 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5197,395 +4667,395 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>963</v>
+        <v>829</v>
       </c>
       <c r="E3" t="s">
-        <v>964</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="A4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="28">
         <v>0</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>491</v>
+      <c r="C4" s="28" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29" t="s">
-        <v>937</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="A5" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>919</v>
+      <c r="C5" s="28" t="s">
+        <v>785</v>
       </c>
       <c r="D5" t="s">
-        <v>469</v>
+        <v>336</v>
       </c>
       <c r="E5" t="s">
-        <v>492</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="29" t="s">
-        <v>938</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>920</v>
+      <c r="C6" s="28" t="s">
+        <v>786</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>337</v>
       </c>
       <c r="E6" t="s">
-        <v>493</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29" t="s">
-        <v>939</v>
-      </c>
-      <c r="B7" s="29">
+      <c r="A7" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>921</v>
+      <c r="C7" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="D7" t="s">
-        <v>471</v>
+        <v>338</v>
       </c>
       <c r="E7" t="s">
-        <v>494</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="29" t="s">
-        <v>940</v>
-      </c>
-      <c r="B8" s="29">
+      <c r="A8" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>922</v>
+      <c r="C8" s="28" t="s">
+        <v>788</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
+        <v>339</v>
       </c>
       <c r="E8" t="s">
-        <v>495</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="29" t="s">
-        <v>941</v>
-      </c>
-      <c r="B9" s="29">
+      <c r="A9" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>923</v>
+      <c r="C9" s="28" t="s">
+        <v>789</v>
       </c>
       <c r="D9" t="s">
-        <v>473</v>
+        <v>340</v>
       </c>
       <c r="E9" t="s">
-        <v>496</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="29" t="s">
-        <v>942</v>
-      </c>
-      <c r="B10" s="29">
+      <c r="A10" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="B10" s="28">
         <v>6</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>924</v>
+      <c r="C10" s="28" t="s">
+        <v>790</v>
       </c>
       <c r="D10" t="s">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="E10" t="s">
-        <v>497</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="29" t="s">
-        <v>943</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="A11" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="B11" s="28">
         <v>7</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>925</v>
+      <c r="C11" s="28" t="s">
+        <v>791</v>
       </c>
       <c r="D11" t="s">
-        <v>475</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>498</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="29" t="s">
-        <v>944</v>
-      </c>
-      <c r="B12" s="29">
+      <c r="A12" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="B12" s="28">
         <v>8</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>926</v>
+      <c r="C12" s="28" t="s">
+        <v>792</v>
       </c>
       <c r="D12" t="s">
-        <v>476</v>
+        <v>343</v>
       </c>
       <c r="E12" t="s">
-        <v>499</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="29" t="s">
-        <v>945</v>
-      </c>
-      <c r="B13" s="29">
+      <c r="A13" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="B13" s="28">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>927</v>
+      <c r="C13" s="28" t="s">
+        <v>793</v>
       </c>
       <c r="D13" t="s">
-        <v>477</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
-        <v>500</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="29" t="s">
-        <v>946</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="A14" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="B14" s="28">
         <v>10</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>928</v>
+      <c r="C14" s="28" t="s">
+        <v>794</v>
       </c>
       <c r="D14" t="s">
-        <v>478</v>
+        <v>345</v>
       </c>
       <c r="E14" t="s">
-        <v>501</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="29" t="s">
-        <v>947</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="A15" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="B15" s="28">
         <v>11</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>929</v>
+      <c r="C15" s="28" t="s">
+        <v>795</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>502</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="29" t="s">
-        <v>948</v>
-      </c>
-      <c r="B16" s="29">
+      <c r="A16" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="B16" s="28">
         <v>12</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>930</v>
+      <c r="C16" s="28" t="s">
+        <v>796</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="E16" t="s">
-        <v>503</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="29" t="s">
-        <v>949</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="A17" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="B17" s="28">
         <v>13</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>931</v>
+      <c r="C17" s="28" t="s">
+        <v>797</v>
       </c>
       <c r="D17" t="s">
-        <v>481</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s">
-        <v>504</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="29" t="s">
-        <v>950</v>
-      </c>
-      <c r="B18" s="29">
+      <c r="A18" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="B18" s="28">
         <v>14</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>932</v>
+      <c r="C18" s="28" t="s">
+        <v>798</v>
       </c>
       <c r="D18" t="s">
-        <v>482</v>
+        <v>349</v>
       </c>
       <c r="E18" t="s">
-        <v>505</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="29" t="s">
-        <v>951</v>
-      </c>
-      <c r="B19" s="29">
+      <c r="A19" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="B19" s="28">
         <v>15</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>933</v>
+      <c r="C19" s="28" t="s">
+        <v>799</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="E19" t="s">
-        <v>506</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29" t="s">
-        <v>952</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="A20" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="B20" s="28">
         <v>16</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>934</v>
+      <c r="C20" s="28" t="s">
+        <v>800</v>
       </c>
       <c r="D20" t="s">
-        <v>484</v>
+        <v>351</v>
       </c>
       <c r="E20" t="s">
-        <v>507</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="29" t="s">
-        <v>953</v>
-      </c>
-      <c r="B21" s="29">
+      <c r="A21" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="B21" s="28">
         <v>17</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>935</v>
+      <c r="C21" s="28" t="s">
+        <v>801</v>
       </c>
       <c r="D21" t="s">
-        <v>485</v>
+        <v>352</v>
       </c>
       <c r="E21" t="s">
-        <v>508</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="29" t="s">
-        <v>954</v>
-      </c>
-      <c r="B22" s="29">
+      <c r="A22" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="B22" s="28">
         <v>18</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>936</v>
+      <c r="C22" s="28" t="s">
+        <v>802</v>
       </c>
       <c r="D22" t="s">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="E22" t="s">
-        <v>509</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="29" t="s">
-        <v>955</v>
-      </c>
-      <c r="B23" s="29">
+      <c r="A23" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="B23" s="28">
         <v>19</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>959</v>
+      <c r="C23" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="D23" t="s">
-        <v>487</v>
+        <v>354</v>
       </c>
       <c r="E23" t="s">
-        <v>510</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="29" t="s">
-        <v>956</v>
-      </c>
-      <c r="B24" s="29">
+      <c r="A24" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="B24" s="28">
         <v>20</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>960</v>
+      <c r="C24" s="28" t="s">
+        <v>826</v>
       </c>
       <c r="D24" t="s">
-        <v>488</v>
+        <v>355</v>
       </c>
       <c r="E24" t="s">
-        <v>511</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="29" t="s">
-        <v>957</v>
-      </c>
-      <c r="B25" s="29">
+      <c r="A25" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="B25" s="28">
         <v>21</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>961</v>
+      <c r="C25" s="28" t="s">
+        <v>827</v>
       </c>
       <c r="D25" t="s">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="E25" t="s">
-        <v>512</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="29" t="s">
-        <v>958</v>
-      </c>
-      <c r="B26" s="29">
+      <c r="A26" s="28" t="s">
+        <v>824</v>
+      </c>
+      <c r="B26" s="28">
         <v>22</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>962</v>
+      <c r="C26" s="28" t="s">
+        <v>828</v>
       </c>
       <c r="D26" t="s">
-        <v>490</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
-        <v>513</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5610,78 +5080,78 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>98</v>
+      <c r="C4" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="29" t="s">
-        <v>461</v>
+      <c r="A5" s="28" t="s">
+        <v>328</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>465</v>
+      <c r="C5" s="28" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="29" t="s">
-        <v>462</v>
+      <c r="A6" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>466</v>
+      <c r="C6" s="28" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="29" t="s">
-        <v>463</v>
+      <c r="A7" s="28" t="s">
+        <v>330</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>467</v>
+      <c r="C7" s="28" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="29" t="s">
-        <v>464</v>
+      <c r="A8" s="28" t="s">
+        <v>331</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>468</v>
+      <c r="C8" s="28" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5740,12 +5210,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5761,24 +5231,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>308</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>309</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5803,12 +5273,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5822,10 +5292,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>661</v>
+        <v>527</v>
       </c>
       <c r="F3" t="s">
-        <v>666</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5841,7 +5311,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>697</v>
+        <v>563</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -5851,7 +5321,7 @@
         <v>1 물리 대미지</v>
       </c>
       <c r="E5" t="s">
-        <v>662</v>
+        <v>528</v>
       </c>
       <c r="F5" t="str">
         <f>B5&amp;" "&amp;E5</f>
@@ -5859,18 +5329,18 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="45" t="s">
-        <v>698</v>
-      </c>
-      <c r="B6" s="45">
+      <c r="A6" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="B6" s="43">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="str">
+      <c r="C6" s="43" t="str">
         <f t="shared" ref="C6:C8" si="0">F6</f>
         <v>2 마법 대미지</v>
       </c>
       <c r="E6" t="s">
-        <v>663</v>
+        <v>529</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ref="F6:F8" si="1">B6&amp;" "&amp;E6</f>
@@ -5879,7 +5349,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -5889,7 +5359,7 @@
         <v>3 체력 회복</v>
       </c>
       <c r="E7" t="s">
-        <v>664</v>
+        <v>530</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -5898,7 +5368,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>460</v>
+        <v>327</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -5908,7 +5378,7 @@
         <v>4 빈 이펙트</v>
       </c>
       <c r="E8" t="s">
-        <v>665</v>
+        <v>531</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -5938,12 +5408,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5957,10 +5427,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>625</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>624</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5975,8 +5445,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="47" t="s">
-        <v>124</v>
+      <c r="A5" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -5986,7 +5456,7 @@
         <v>1 피해 감소</v>
       </c>
       <c r="E5" t="s">
-        <v>632</v>
+        <v>498</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F36" si="0">B5&amp;" "&amp;E5</f>
@@ -5994,8 +5464,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="47" t="s">
-        <v>139</v>
+      <c r="A6" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -6005,7 +5475,7 @@
         <v>101 중독</v>
       </c>
       <c r="E6" t="s">
-        <v>631</v>
+        <v>497</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -6013,8 +5483,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="47" t="s">
-        <v>140</v>
+      <c r="A7" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="B7" s="4">
         <v>102</v>
@@ -6024,7 +5494,7 @@
         <v>102 기절</v>
       </c>
       <c r="E7" t="s">
-        <v>630</v>
+        <v>496</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -6033,7 +5503,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4">
         <v>103</v>
@@ -6043,7 +5513,7 @@
         <v>103 침묵</v>
       </c>
       <c r="E8" t="s">
-        <v>629</v>
+        <v>495</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -6052,7 +5522,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="B9" s="4">
         <v>104</v>
@@ -6062,7 +5532,7 @@
         <v>104 결박</v>
       </c>
       <c r="E9" t="s">
-        <v>628</v>
+        <v>494</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -6071,7 +5541,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
@@ -6081,7 +5551,7 @@
         <v>105 빙결</v>
       </c>
       <c r="E10" t="s">
-        <v>627</v>
+        <v>493</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -6089,8 +5559,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="47" t="s">
-        <v>672</v>
+      <c r="A11" s="45" t="s">
+        <v>538</v>
       </c>
       <c r="B11" s="4">
         <v>106</v>
@@ -6100,7 +5570,7 @@
         <v>106 물리 공격력 증가</v>
       </c>
       <c r="E11" t="s">
-        <v>635</v>
+        <v>501</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -6108,18 +5578,18 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="45" t="s">
-        <v>673</v>
-      </c>
-      <c r="B12" s="45">
+      <c r="A12" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="B12" s="43">
         <v>107</v>
       </c>
-      <c r="C12" s="45" t="str">
+      <c r="C12" s="43" t="str">
         <f t="shared" si="1"/>
         <v>107 마법 공격력 증가</v>
       </c>
       <c r="E12" t="s">
-        <v>626</v>
+        <v>492</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -6127,8 +5597,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="47" t="s">
-        <v>674</v>
+      <c r="A13" s="45" t="s">
+        <v>540</v>
       </c>
       <c r="B13" s="4">
         <v>108</v>
@@ -6138,7 +5608,7 @@
         <v>108 물리 방어력 증가</v>
       </c>
       <c r="E13" t="s">
-        <v>634</v>
+        <v>500</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -6146,18 +5616,18 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="45" t="s">
-        <v>675</v>
-      </c>
-      <c r="B14" s="45">
+      <c r="A14" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="B14" s="43">
         <v>109</v>
       </c>
-      <c r="C14" s="45" t="str">
+      <c r="C14" s="43" t="str">
         <f t="shared" si="1"/>
         <v>109 마법 방어력 증가</v>
       </c>
       <c r="E14" t="s">
-        <v>633</v>
+        <v>499</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -6165,8 +5635,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="47" t="s">
-        <v>676</v>
+      <c r="A15" s="45" t="s">
+        <v>542</v>
       </c>
       <c r="B15" s="4">
         <v>110</v>
@@ -6176,7 +5646,7 @@
         <v>110 물리 공격력 감소</v>
       </c>
       <c r="E15" t="s">
-        <v>740</v>
+        <v>606</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -6184,18 +5654,18 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="B16" s="45">
+      <c r="A16" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="B16" s="43">
         <v>111</v>
       </c>
-      <c r="C16" s="45" t="str">
+      <c r="C16" s="43" t="str">
         <f t="shared" si="1"/>
         <v>111 마법 공격력 감소</v>
       </c>
       <c r="E16" t="s">
-        <v>639</v>
+        <v>505</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -6203,8 +5673,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="47" t="s">
-        <v>678</v>
+      <c r="A17" s="45" t="s">
+        <v>544</v>
       </c>
       <c r="B17" s="4">
         <v>112</v>
@@ -6214,7 +5684,7 @@
         <v>112 물리 방어력 감소</v>
       </c>
       <c r="E17" t="s">
-        <v>648</v>
+        <v>514</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -6222,18 +5692,18 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="45" t="s">
-        <v>679</v>
-      </c>
-      <c r="B18" s="45">
+      <c r="A18" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" s="43">
         <v>113</v>
       </c>
-      <c r="C18" s="45" t="str">
+      <c r="C18" s="43" t="str">
         <f t="shared" si="1"/>
         <v>113 마법 방어력 감소</v>
       </c>
       <c r="E18" t="s">
-        <v>647</v>
+        <v>513</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -6242,7 +5712,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>680</v>
+        <v>546</v>
       </c>
       <c r="B19" s="4">
         <v>114</v>
@@ -6252,7 +5722,7 @@
         <v>114 물리 공격력 물리 방어력 스탯 교환</v>
       </c>
       <c r="E19" t="s">
-        <v>637</v>
+        <v>503</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -6260,18 +5730,18 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45" t="s">
-        <v>681</v>
-      </c>
-      <c r="B20" s="45">
+      <c r="A20" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" s="43">
         <v>115</v>
       </c>
-      <c r="C20" s="45" t="str">
+      <c r="C20" s="43" t="str">
         <f t="shared" si="1"/>
         <v>115 마법 공격력 마법 방어력 스탯 교환</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>502</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -6279,18 +5749,18 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="B21" s="45">
+      <c r="A21" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="B21" s="43">
         <v>116</v>
       </c>
-      <c r="C21" s="45" t="str">
+      <c r="C21" s="43" t="str">
         <f t="shared" si="1"/>
         <v>116 물리/마법 공격력 물리/ 마법 방어력 스탯 교환</v>
       </c>
       <c r="E21" t="s">
-        <v>638</v>
+        <v>504</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -6298,18 +5768,18 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="45" t="s">
-        <v>683</v>
-      </c>
-      <c r="B22" s="45">
+      <c r="A22" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="B22" s="43">
         <v>117</v>
       </c>
-      <c r="C22" s="45" t="str">
+      <c r="C22" s="43" t="str">
         <f t="shared" si="1"/>
         <v>117 물리 크리티컬 확률 증가</v>
       </c>
       <c r="E22" t="s">
-        <v>641</v>
+        <v>507</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -6317,18 +5787,18 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="45" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="45">
+      <c r="A23" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="B23" s="43">
         <v>118</v>
       </c>
-      <c r="C23" s="45" t="str">
+      <c r="C23" s="43" t="str">
         <f t="shared" si="1"/>
         <v>118 마법 크리티컬 확률 증가</v>
       </c>
       <c r="E23" t="s">
-        <v>642</v>
+        <v>508</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -6336,18 +5806,18 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="B24" s="45">
+      <c r="A24" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="B24" s="43">
         <v>119</v>
       </c>
-      <c r="C24" s="45" t="str">
+      <c r="C24" s="43" t="str">
         <f t="shared" si="1"/>
         <v>119 물리 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E24" t="s">
-        <v>643</v>
+        <v>509</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -6355,18 +5825,18 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="45" t="s">
-        <v>686</v>
-      </c>
-      <c r="B25" s="45">
+      <c r="A25" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="B25" s="43">
         <v>120</v>
       </c>
-      <c r="C25" s="45" t="str">
+      <c r="C25" s="43" t="str">
         <f t="shared" si="1"/>
         <v>120 마법 크리티컬 추가 대미지 증가</v>
       </c>
       <c r="E25" t="s">
-        <v>644</v>
+        <v>510</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -6374,18 +5844,18 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="45" t="s">
-        <v>693</v>
-      </c>
-      <c r="B26" s="45">
+      <c r="A26" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="B26" s="43">
         <v>121</v>
       </c>
-      <c r="C26" s="45" t="str">
+      <c r="C26" s="43" t="str">
         <f t="shared" si="1"/>
         <v>121 타격 시 회복량 증가</v>
       </c>
       <c r="E26" t="s">
-        <v>645</v>
+        <v>511</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -6393,18 +5863,18 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="45" t="s">
-        <v>687</v>
-      </c>
-      <c r="B27" s="45">
+      <c r="A27" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="B27" s="43">
         <v>122</v>
       </c>
-      <c r="C27" s="45" t="str">
+      <c r="C27" s="43" t="str">
         <f t="shared" si="1"/>
         <v>122 회피 증가</v>
       </c>
       <c r="E27" t="s">
-        <v>649</v>
+        <v>515</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -6412,18 +5882,18 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="45" t="s">
-        <v>688</v>
-      </c>
-      <c r="B28" s="45">
+      <c r="A28" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28" s="43">
         <v>123</v>
       </c>
-      <c r="C28" s="45" t="str">
+      <c r="C28" s="43" t="str">
         <f t="shared" si="1"/>
         <v>123 명중 증가</v>
       </c>
       <c r="E28" t="s">
-        <v>650</v>
+        <v>516</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -6431,18 +5901,18 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="45" t="s">
-        <v>640</v>
-      </c>
-      <c r="B29" s="45">
+      <c r="A29" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="B29" s="43">
         <v>124</v>
       </c>
-      <c r="C29" s="45" t="str">
+      <c r="C29" s="43" t="str">
         <f t="shared" si="1"/>
         <v>124 회복량 증가</v>
       </c>
       <c r="E29" t="s">
-        <v>651</v>
+        <v>517</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -6450,18 +5920,18 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="45" t="s">
-        <v>689</v>
-      </c>
-      <c r="B30" s="45">
+      <c r="A30" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="B30" s="43">
         <v>125</v>
       </c>
-      <c r="C30" s="45" t="str">
+      <c r="C30" s="43" t="str">
         <f t="shared" si="1"/>
         <v>125 물리 크리티컬 확률 감소</v>
       </c>
       <c r="E30" t="s">
-        <v>652</v>
+        <v>518</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -6469,18 +5939,18 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="45" t="s">
-        <v>690</v>
-      </c>
-      <c r="B31" s="45">
+      <c r="A31" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="B31" s="43">
         <v>126</v>
       </c>
-      <c r="C31" s="45" t="str">
+      <c r="C31" s="43" t="str">
         <f t="shared" si="1"/>
         <v>126 마법 크리티컬 확률 감소</v>
       </c>
       <c r="E31" t="s">
-        <v>653</v>
+        <v>519</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -6488,18 +5958,18 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="45" t="s">
-        <v>691</v>
-      </c>
-      <c r="B32" s="45">
+      <c r="A32" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="B32" s="43">
         <v>127</v>
       </c>
-      <c r="C32" s="45" t="str">
+      <c r="C32" s="43" t="str">
         <f t="shared" si="1"/>
         <v>127 물리 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E32" t="s">
-        <v>654</v>
+        <v>520</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -6507,18 +5977,18 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="B33" s="45">
+      <c r="A33" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="B33" s="43">
         <v>128</v>
       </c>
-      <c r="C33" s="45" t="str">
+      <c r="C33" s="43" t="str">
         <f t="shared" si="1"/>
         <v>128 마법 크리티컬 추가 대미지 감소</v>
       </c>
       <c r="E33" t="s">
-        <v>655</v>
+        <v>521</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -6526,18 +5996,18 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="45" t="s">
-        <v>694</v>
-      </c>
-      <c r="B34" s="45">
+      <c r="A34" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="B34" s="43">
         <v>129</v>
       </c>
-      <c r="C34" s="45" t="str">
+      <c r="C34" s="43" t="str">
         <f t="shared" si="1"/>
         <v>129 타격 시 회복량 감소</v>
       </c>
       <c r="E34" t="s">
-        <v>656</v>
+        <v>522</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -6545,18 +6015,18 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="45" t="s">
-        <v>695</v>
-      </c>
-      <c r="B35" s="45">
+      <c r="A35" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="B35" s="43">
         <v>130</v>
       </c>
-      <c r="C35" s="45" t="str">
+      <c r="C35" s="43" t="str">
         <f t="shared" si="1"/>
         <v>130 회피 감소</v>
       </c>
       <c r="E35" t="s">
-        <v>657</v>
+        <v>523</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -6564,18 +6034,18 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="45" t="s">
-        <v>696</v>
-      </c>
-      <c r="B36" s="45">
+      <c r="A36" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="B36" s="43">
         <v>131</v>
       </c>
-      <c r="C36" s="45" t="str">
+      <c r="C36" s="43" t="str">
         <f t="shared" si="1"/>
         <v>131 명중 감소</v>
       </c>
       <c r="E36" t="s">
-        <v>658</v>
+        <v>524</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -6583,18 +6053,18 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="45" t="s">
-        <v>646</v>
-      </c>
-      <c r="B37" s="45">
+      <c r="A37" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="B37" s="43">
         <v>132</v>
       </c>
-      <c r="C37" s="45" t="str">
+      <c r="C37" s="43" t="str">
         <f t="shared" si="1"/>
         <v>132 회복량 감소</v>
       </c>
       <c r="E37" t="s">
-        <v>659</v>
+        <v>525</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ref="F37" si="2">B37&amp;" "&amp;E37</f>
@@ -6624,12 +6094,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>730</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>731</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6656,46 +6126,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>732</v>
+        <v>598</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>736</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>733</v>
+        <v>599</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>737</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="48" t="s">
-        <v>734</v>
-      </c>
-      <c r="B7" s="48">
+      <c r="A7" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="B7" s="46">
         <v>1001</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>738</v>
+      <c r="C7" s="46" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="48" t="s">
-        <v>735</v>
-      </c>
-      <c r="B8" s="48">
+      <c r="A8" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="B8" s="46">
         <v>1002</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>739</v>
+      <c r="C8" s="46" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -6720,12 +6190,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6752,35 +6222,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>311</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>312</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6805,12 +6275,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6837,79 +6307,79 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>313</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>314</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>315</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>316</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>317</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="B10" s="4">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>318</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>319</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6935,12 +6405,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6962,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6973,29 +6443,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -7020,12 +6490,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7052,68 +6522,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>320</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>321</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>323</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>325</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7126,7 +6596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156BE13-C6B6-4915-872F-E6B77B245F05}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="A3:C9"/>
     </sheetView>
   </sheetViews>
@@ -7138,12 +6608,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7158,69 +6628,69 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>326</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>328</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="49" t="s">
-        <v>965</v>
-      </c>
-      <c r="B9" s="49">
+      <c r="A9" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>966</v>
+      <c r="C9" s="4" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -7246,12 +6716,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7278,24 +6748,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>354</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>355</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7320,215 +6790,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>147</v>
+      <c r="A3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>98</v>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>414</v>
+      <c r="C5" s="12" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>417</v>
+      <c r="C6" s="12" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>419</v>
+      <c r="C7" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="13">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>420</v>
+      <c r="C8" s="12" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>421</v>
+      <c r="C9" s="12" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="A10" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="13">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>422</v>
+      <c r="C10" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="A11" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="13">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>423</v>
+      <c r="C11" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="13">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>424</v>
+      <c r="C12" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="13">
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>425</v>
+      <c r="C13" s="12" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="13">
         <v>10</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>426</v>
+      <c r="C14" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="A15" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="13">
         <v>11</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>427</v>
+      <c r="C15" s="12" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="A16" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="13">
         <v>100</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>413</v>
+      <c r="C16" s="26" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="A17" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="13">
         <v>101</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>446</v>
+      <c r="C17" s="26" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B18" s="14">
+      <c r="A18" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="13">
         <v>1000</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>428</v>
+      <c r="C18" s="12" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="B19" s="14">
+      <c r="A19" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="13">
         <v>1001</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>448</v>
+      <c r="C19" s="12" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="B20" s="14">
+      <c r="A20" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" s="13">
         <v>1002</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>450</v>
+      <c r="C20" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -7552,61 +7022,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>147</v>
+      <c r="A3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>98</v>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>452</v>
+      <c r="C5" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>453</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7631,72 +7101,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>147</v>
+      <c r="A3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>98</v>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>365</v>
+      <c r="C5" s="12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>429</v>
+      <c r="C6" s="12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>440</v>
+      <c r="C7" s="12" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7720,94 +7190,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+        <v>230</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>147</v>
+      <c r="A3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>98</v>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>369</v>
+      <c r="C5" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>371</v>
+      <c r="C6" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>373</v>
+      <c r="C7" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="13">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>375</v>
+      <c r="C8" s="12" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>377</v>
+      <c r="C9" s="12" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -7831,61 +7301,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+        <v>246</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>147</v>
+      <c r="A3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>98</v>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>381</v>
+      <c r="C5" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>383</v>
+      <c r="C6" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -7910,94 +7380,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+        <v>253</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>147</v>
+      <c r="A3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>98</v>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>388</v>
+      <c r="C5" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>390</v>
+      <c r="C6" s="18" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>392</v>
+      <c r="C7" s="12" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="13">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>394</v>
+      <c r="C8" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>396</v>
+      <c r="C9" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -8021,105 +7491,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>147</v>
+      <c r="A3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="20">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>98</v>
+      <c r="C4" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="A5" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>400</v>
+      <c r="C5" s="18" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="A6" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="20">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>402</v>
+      <c r="C6" s="18" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A7" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="20">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>404</v>
+      <c r="C7" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="B8" s="21">
+      <c r="A8" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="20">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>406</v>
+      <c r="C8" s="18" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="A9" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="20">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>408</v>
+      <c r="C9" s="18" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10" s="21">
+      <c r="A10" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="20">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>410</v>
+      <c r="C10" s="18" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8170,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8181,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8192,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8203,7 +7673,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -8228,204 +7698,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>147</v>
+      <c r="A3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="20">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>98</v>
+      <c r="C4" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="A5" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>330</v>
+      <c r="C5" s="18" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="A6" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="20">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>331</v>
+      <c r="C6" s="18" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A7" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="20">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>356</v>
+      <c r="C7" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B8" s="21">
+      <c r="A8" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="20">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>357</v>
+      <c r="C8" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="A9" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="20">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>358</v>
+      <c r="C9" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="21">
+      <c r="A10" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="20">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>359</v>
+      <c r="C10" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="15">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>360</v>
+      <c r="C11" s="16" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" s="16">
+      <c r="A12" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="15">
         <v>8</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>454</v>
+      <c r="C12" s="16" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="A13" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="21">
         <v>9</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>455</v>
+      <c r="C13" s="21" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B14" s="22">
+      <c r="A14" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="21">
         <v>10</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>456</v>
+      <c r="C14" s="22" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="19" t="s">
-        <v>729</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="A15" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="B15" s="20">
         <v>106</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>728</v>
+      <c r="C15" s="18" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="B16" s="21">
+      <c r="A16" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="20">
         <v>111</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>430</v>
+      <c r="C16" s="18" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B17" s="21">
+      <c r="A17" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="20">
         <v>112</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>431</v>
+      <c r="C17" s="18" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="B18" s="21">
+      <c r="A18" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="20">
         <v>113</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>459</v>
+      <c r="C18" s="18" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="B19" s="21">
+      <c r="A19" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="20">
         <v>1000</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>741</v>
+      <c r="C19" s="18" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -8450,61 +7920,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>147</v>
+      <c r="A3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="20">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>98</v>
+      <c r="C4" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>435</v>
+        <v>302</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>436</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>437</v>
+        <v>304</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>438</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -8528,94 +7998,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>147</v>
+      <c r="A3" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="A4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="28">
         <v>0</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>98</v>
+      <c r="C4" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="A5" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>517</v>
+      <c r="C5" s="28" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="29" t="s">
-        <v>518</v>
-      </c>
-      <c r="B6" s="34">
+      <c r="A6" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="33">
         <v>2</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>519</v>
+      <c r="C6" s="28" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="29" t="s">
-        <v>520</v>
-      </c>
-      <c r="B7" s="29">
+      <c r="A7" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>521</v>
+      <c r="C7" s="28" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="B8" s="29">
+      <c r="A8" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="28">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>523</v>
+      <c r="C8" s="28" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="B9" s="29">
+      <c r="A9" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="28">
         <v>5</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>525</v>
+      <c r="C9" s="28" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -8641,80 +8111,80 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>660</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>147</v>
+      <c r="A3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="42">
+      <c r="A4" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="40">
         <v>0</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>98</v>
+      <c r="C4" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25">
-      <c r="A5" s="43" t="s">
-        <v>616</v>
-      </c>
-      <c r="B5" s="42">
+      <c r="A5" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" s="40">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>618</v>
+      <c r="C5" s="40" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
-      <c r="A6" s="43" t="s">
-        <v>617</v>
-      </c>
-      <c r="B6" s="44">
+      <c r="A6" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="42">
         <v>2</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>619</v>
+      <c r="C6" s="40" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
-      <c r="A7" s="43" t="s">
-        <v>726</v>
-      </c>
-      <c r="B7" s="42">
+      <c r="A7" s="41" t="s">
+        <v>592</v>
+      </c>
+      <c r="B7" s="40">
         <v>3</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>621</v>
+      <c r="C7" s="40" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25">
-      <c r="A8" s="43" t="s">
-        <v>727</v>
-      </c>
-      <c r="B8" s="42">
+      <c r="A8" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="B8" s="40">
         <v>4</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>620</v>
+      <c r="C8" s="40" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8741,30 +8211,30 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>742</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
-        <v>915</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>147</v>
+      <c r="A3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>746</v>
+        <v>612</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -8773,7 +8243,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>743</v>
+        <v>609</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -8782,18 +8252,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>772</v>
+        <v>638</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>773</v>
+        <v>639</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -8802,7 +8272,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>774</v>
+        <v>640</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -8811,7 +8281,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>775</v>
+        <v>641</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
@@ -8820,7 +8290,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>776</v>
+        <v>642</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
@@ -8829,7 +8299,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>777</v>
+        <v>643</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
@@ -8838,7 +8308,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>778</v>
+        <v>644</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
@@ -8847,7 +8317,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>779</v>
+        <v>645</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
@@ -8856,7 +8326,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>780</v>
+        <v>646</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
@@ -8865,7 +8335,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>781</v>
+        <v>647</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
@@ -8874,893 +8344,893 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>782</v>
+        <v>648</v>
       </c>
       <c r="B16" s="4">
         <v>200</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>834</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>783</v>
+        <v>649</v>
       </c>
       <c r="B17" s="4">
         <v>201</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>835</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>784</v>
+        <v>650</v>
       </c>
       <c r="B18" s="4">
         <v>202</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>836</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>785</v>
+        <v>651</v>
       </c>
       <c r="B19" s="4">
         <v>203</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>837</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>786</v>
+        <v>652</v>
       </c>
       <c r="B20" s="4">
         <v>204</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>838</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>787</v>
+        <v>653</v>
       </c>
       <c r="B21" s="4">
         <v>205</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>839</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>788</v>
+        <v>654</v>
       </c>
       <c r="B22" s="4">
         <v>206</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>840</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>789</v>
+        <v>655</v>
       </c>
       <c r="B23" s="4">
         <v>207</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>841</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>790</v>
+        <v>656</v>
       </c>
       <c r="B24" s="4">
         <v>300</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>842</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>791</v>
+        <v>657</v>
       </c>
       <c r="B25" s="4">
         <v>301</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>843</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>792</v>
+        <v>658</v>
       </c>
       <c r="B26" s="4">
         <v>302</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>844</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>846</v>
+        <v>712</v>
       </c>
       <c r="B27" s="4">
         <v>303</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>845</v>
+        <v>711</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>793</v>
+        <v>659</v>
       </c>
       <c r="B28" s="4">
         <v>304</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>847</v>
+        <v>713</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>794</v>
+        <v>660</v>
       </c>
       <c r="B29" s="4">
         <v>305</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>848</v>
+        <v>714</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>795</v>
+        <v>661</v>
       </c>
       <c r="B30" s="4">
         <v>306</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>849</v>
+        <v>715</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>796</v>
+        <v>662</v>
       </c>
       <c r="B31" s="4">
         <v>400</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>850</v>
+        <v>716</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>797</v>
+        <v>663</v>
       </c>
       <c r="B32" s="4">
         <v>401</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>851</v>
+        <v>717</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>798</v>
+        <v>664</v>
       </c>
       <c r="B33" s="4">
         <v>402</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>852</v>
+        <v>718</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>799</v>
+        <v>665</v>
       </c>
       <c r="B34" s="4">
         <v>403</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>854</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>800</v>
+        <v>666</v>
       </c>
       <c r="B35" s="4">
         <v>404</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>853</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>801</v>
+        <v>667</v>
       </c>
       <c r="B36" s="4">
         <v>405</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>855</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>802</v>
+        <v>668</v>
       </c>
       <c r="B37" s="4">
         <v>406</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>856</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>803</v>
+        <v>669</v>
       </c>
       <c r="B38" s="4">
         <v>407</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>857</v>
+        <v>723</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>804</v>
+        <v>670</v>
       </c>
       <c r="B39" s="4">
         <v>408</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>858</v>
+        <v>724</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>805</v>
+        <v>671</v>
       </c>
       <c r="B40" s="4">
         <v>409</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>859</v>
+        <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>806</v>
+        <v>672</v>
       </c>
       <c r="B41" s="4">
         <v>410</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>860</v>
+        <v>726</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>807</v>
+        <v>673</v>
       </c>
       <c r="B42" s="4">
         <v>411</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>861</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>808</v>
+        <v>674</v>
       </c>
       <c r="B43" s="4">
         <v>412</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>862</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>809</v>
+        <v>675</v>
       </c>
       <c r="B44" s="4">
         <v>413</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>863</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>810</v>
+        <v>676</v>
       </c>
       <c r="B45" s="4">
         <v>414</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>864</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>811</v>
+        <v>677</v>
       </c>
       <c r="B46" s="4">
         <v>415</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>865</v>
+        <v>731</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>812</v>
+        <v>678</v>
       </c>
       <c r="B47" s="4">
         <v>416</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>866</v>
+        <v>732</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>813</v>
+        <v>679</v>
       </c>
       <c r="B48" s="4">
         <v>417</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>867</v>
+        <v>733</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>814</v>
+        <v>680</v>
       </c>
       <c r="B49" s="4">
         <v>418</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>868</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>815</v>
+        <v>681</v>
       </c>
       <c r="B50" s="4">
         <v>419</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>869</v>
+        <v>735</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>816</v>
+        <v>682</v>
       </c>
       <c r="B51" s="4">
         <v>420</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>870</v>
+        <v>736</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>817</v>
+        <v>683</v>
       </c>
       <c r="B52" s="4">
         <v>421</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>873</v>
+        <v>739</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>818</v>
+        <v>684</v>
       </c>
       <c r="B53" s="4">
         <v>422</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>874</v>
+        <v>740</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>819</v>
+        <v>685</v>
       </c>
       <c r="B54" s="4">
         <v>423</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>871</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>820</v>
+        <v>686</v>
       </c>
       <c r="B55" s="4">
         <v>424</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>875</v>
+        <v>741</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>821</v>
+        <v>687</v>
       </c>
       <c r="B56" s="4">
         <v>425</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>876</v>
+        <v>742</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
-        <v>822</v>
+        <v>688</v>
       </c>
       <c r="B57" s="4">
         <v>426</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>872</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>823</v>
+        <v>689</v>
       </c>
       <c r="B58" s="4">
         <v>500</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>877</v>
+        <v>743</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
-        <v>824</v>
+        <v>690</v>
       </c>
       <c r="B59" s="4">
         <v>501</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>878</v>
+        <v>744</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>825</v>
+        <v>691</v>
       </c>
       <c r="B60" s="4">
         <v>502</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>879</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>827</v>
+        <v>693</v>
       </c>
       <c r="B61" s="4">
         <v>503</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>880</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>826</v>
+        <v>692</v>
       </c>
       <c r="B62" s="4">
         <v>504</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>881</v>
+        <v>747</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
-        <v>828</v>
+        <v>694</v>
       </c>
       <c r="B63" s="4">
         <v>505</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>882</v>
+        <v>748</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
-        <v>829</v>
+        <v>695</v>
       </c>
       <c r="B64" s="4">
         <v>506</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>883</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>744</v>
+        <v>610</v>
       </c>
       <c r="B65" s="4">
         <v>1000</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>887</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
-        <v>745</v>
+        <v>611</v>
       </c>
       <c r="B66" s="4">
         <v>1001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>888</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
-        <v>747</v>
+        <v>613</v>
       </c>
       <c r="B67" s="4">
         <v>1002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>889</v>
+        <v>755</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
-        <v>748</v>
+        <v>614</v>
       </c>
       <c r="B68" s="4">
         <v>2001</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>890</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>749</v>
+        <v>615</v>
       </c>
       <c r="B69" s="4">
         <v>2002</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>891</v>
+        <v>757</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
-        <v>752</v>
+        <v>618</v>
       </c>
       <c r="B70" s="4">
         <v>2003</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>892</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
-        <v>750</v>
+        <v>616</v>
       </c>
       <c r="B71" s="4">
         <v>2004</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>893</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
-        <v>751</v>
+        <v>617</v>
       </c>
       <c r="B72" s="4">
         <v>2005</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>894</v>
+        <v>760</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
-        <v>916</v>
+        <v>782</v>
       </c>
       <c r="B73" s="4">
         <v>2006</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>917</v>
+        <v>783</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
-        <v>753</v>
+        <v>619</v>
       </c>
       <c r="B74" s="4">
         <v>3001</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>895</v>
+        <v>761</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>754</v>
+        <v>620</v>
       </c>
       <c r="B75" s="4">
         <v>4001</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>896</v>
+        <v>762</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>755</v>
+        <v>621</v>
       </c>
       <c r="B76" s="4">
         <v>4002</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>897</v>
+        <v>763</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" 